--- a/Talonario precios (actualizado).xlsx
+++ b/Talonario precios (actualizado).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ultratech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908C350-323B-45B0-9CCB-B978F3A9799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C1603E-403F-4D26-8AFF-C6DD88DC58DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1955,7 +1955,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="6"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
@@ -29972,7 +29972,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Talonario precios (actualizado).xlsx
+++ b/Talonario precios (actualizado).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ultratech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490C9A1-F643-4ABA-A846-450A2E46F447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A785BC0-DA76-4077-85E4-491E69BCBA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Formateos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalación de pantallas </t>
   </si>
   <si>
     <t>Agregados</t>
@@ -107,9 +104,6 @@
     <t>Asesoria/compra de componentes.</t>
   </si>
   <si>
-    <t>(Cotizacion y compra de: discos, procesadores, memorias RAM, baterías etc.)</t>
-  </si>
-  <si>
     <t>Instalación de componentes.</t>
   </si>
   <si>
@@ -122,16 +116,7 @@
     <t>Formateo</t>
   </si>
   <si>
-    <t>Clonacion de discos duros</t>
-  </si>
-  <si>
-    <t>Diagnostico/Solucion problemas/Instalación de impresora</t>
-  </si>
-  <si>
     <t>Restablecimiento de contraseña windows OS</t>
-  </si>
-  <si>
-    <t>(Valor de la hora de trabajo cuando no esta la tarea en la lista de precios)</t>
   </si>
   <si>
     <t>(Limpieza profunda de archivos no deseados y malwares, optimización del sistema, actualización de drivers y software esenciales para mejorar el rendimiento y seguridad del equipo, utilizando herramientas especializadas como AdwCleaner, Glary Utilities y Driver Booster)</t>
@@ -140,28 +125,16 @@
     <t>(Discos, procesadores, memorias RAM, baterías etc.)</t>
   </si>
   <si>
-    <t>(Instalacion de pantallas como precio base, variacion de precio en base a dificultad/gama del equipo)</t>
-  </si>
-  <si>
     <t>(Windows 10, drivers al día, Chrome)</t>
   </si>
   <si>
-    <t>(Drivers al día, Navegdor Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</t>
-  </si>
-  <si>
     <t>(Limpieza completa de disco y formato de disco a NTFS)</t>
-  </si>
-  <si>
-    <t>(Respaldos hasta 64gb)</t>
   </si>
   <si>
     <t>(Retiro y despacho fuera del sector estación Lomas Coloradas. (por visita))</t>
   </si>
   <si>
     <t>(Retiro y despacho sector Estación Lomas Coloradas.)</t>
-  </si>
-  <si>
-    <t>(Diagnostico/Solucion problemas/Instalación de impresora)</t>
   </si>
   <si>
     <t>(Información de disco dañado recuperada como precio base, variaciones de precio dependiendo del tiempo del procedimiento)</t>
@@ -188,9 +161,6 @@
     <t>Mantención e instalación completa.</t>
   </si>
   <si>
-    <t xml:space="preserve">Retiro y despacho fuera del sector estación Lomas Coloradas (por visita). </t>
-  </si>
-  <si>
     <t>Asesoría/compra de componentes.</t>
   </si>
   <si>
@@ -201,9 +171,6 @@
   </si>
   <si>
     <t>Compra e instalación de disco duro, reinstalación completa (a disco nuevo) y formateo (a disco antiguo para ser usado como disco duro externo).</t>
-  </si>
-  <si>
-    <t>Información de disco dañado efectuada, pero no recuperada .</t>
   </si>
   <si>
     <t>Información de disco dañado recuperada.</t>
@@ -224,12 +191,6 @@
     <t>Pack limpieza externa e interna e instalación completa.</t>
   </si>
   <si>
-    <t>(Respaldos desde 64gb como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo destino propio)</t>
-  </si>
-  <si>
-    <t>(Realizacion de una copia de su disco duro como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo destino propio)</t>
-  </si>
-  <si>
     <t>Respaldos hasta 90GB.</t>
   </si>
   <si>
@@ -247,6 +208,45 @@
   <si>
     <t>Nombre de Servicio</t>
   </si>
+  <si>
+    <t>(Drivers al día, Navegador Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</t>
+  </si>
+  <si>
+    <t>(Respaldos hasta 90gb)</t>
+  </si>
+  <si>
+    <t>(Respaldos desde 90gb como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo de destino propio)</t>
+  </si>
+  <si>
+    <t>(Valor de la hora de trabajo cuando no está la tarea en la lista de precios)</t>
+  </si>
+  <si>
+    <t>(Cotización y compra de: discos, procesadores, memorias RAM, baterías etc.)</t>
+  </si>
+  <si>
+    <t>Instalación de pantallas </t>
+  </si>
+  <si>
+    <t>(Instalación de pantallas como precio base, variación de precio en base a dificultad/gama del equipo)</t>
+  </si>
+  <si>
+    <t>Diagnóstico/Solucion problemas/Instalación de impresora</t>
+  </si>
+  <si>
+    <t>(Diagnóstico/Solucion problemas/Instalación de impresora)</t>
+  </si>
+  <si>
+    <t>Clonación de discos duros</t>
+  </si>
+  <si>
+    <t>(Realización de una copia de su disco duro como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo destino propio)</t>
+  </si>
+  <si>
+    <t>Retiro y despacho fuera del sector estación Lomas Coloradas (por visita). </t>
+  </si>
+  <si>
+    <t>Información de disco dañado efectuada, pero no recuperada .</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +256,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,13 +301,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -322,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -369,12 +394,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -411,33 +430,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -468,14 +474,8 @@
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -500,9 +500,6 @@
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -516,13 +513,7 @@
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -681,34 +672,34 @@
   </dxfs>
   <tableStyles count="6">
     <tableStyle name="Hoja1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="48"/>
-      <tableStyleElement type="firstRowStripe" dxfId="47"/>
-      <tableStyleElement type="secondRowStripe" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="Hoja1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstRowStripe" dxfId="37"/>
+      <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="Hoja1-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="42"/>
-      <tableStyleElement type="firstRowStripe" dxfId="41"/>
-      <tableStyleElement type="secondRowStripe" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="Hoja1-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
     <tableStyle name="Hoja1-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="36"/>
-      <tableStyleElement type="firstRowStripe" dxfId="35"/>
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="Hoja1-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -723,30 +714,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:B8" headerRowDxfId="30" dataDxfId="29" totalsRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:B8" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mantención" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Precio" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mantención"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Precio" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A9:B12" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A9:B12" headerRowDxfId="19" dataDxfId="18" totalsRowDxfId="17">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Formateos" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Precio" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Formateos"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Precio" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A13:B15" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A13:B15" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Agregados" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Precio" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Agregados"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Precio" dataDxfId="12">
       <calculatedColumnFormula>'Valores unitarios'!C10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -755,34 +746,34 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A16:B22" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A16:B22" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Repuestos e Instalaciones" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Precio" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Repuestos e Instalaciones"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Precio" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A23:B30" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A23:B30" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Varios" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Precio" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Varios"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Precio" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFFEBBF8-8F70-4964-8ADF-A88B796BEAB9}" name="Table_28" displayName="Table_28" ref="A2:C21" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFFEBBF8-8F70-4964-8ADF-A88B796BEAB9}" name="Table_28" displayName="Table_28" ref="A2:C21" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1">
   <autoFilter ref="A2:C21" xr:uid="{DFFEBBF8-8F70-4964-8ADF-A88B796BEAB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C19">
     <sortCondition ref="A2:A19"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1CB8DA0D-E356-4FE9-A445-3D305F088D58}" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{483E8DAB-A369-4054-A3E8-0E260DC6637A}" name="Descripcion" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1CB8DA0D-E356-4FE9-A445-3D305F088D58}" name="Nombre"/>
+    <tableColumn id="4" xr3:uid="{483E8DAB-A369-4054-A3E8-0E260DC6637A}" name="Descripcion"/>
     <tableColumn id="2" xr3:uid="{2E6EA5B8-5F00-4C73-8216-FE7E4D90F015}" name="Precio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -989,35 +980,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="35.25" style="27" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="3" style="27" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="35.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="3" style="25" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="1.75" style="27" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="27" customWidth="1"/>
-    <col min="10" max="26" width="6.375" style="27" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="27"/>
+    <col min="7" max="7" width="8.375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="1.75" style="25" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="25" customWidth="1"/>
+    <col min="10" max="26" width="6.375" style="25" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1040,10 +1031,10 @@
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>21</v>
+      <c r="A2" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <f>'Valores unitarios'!C4</f>
         <v>5000</v>
       </c>
@@ -1072,10 +1063,10 @@
       <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>16</v>
+      <c r="A3" s="29" t="s">
+        <v>15</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <f>'Valores unitarios'!C5+'Valores unitarios'!C6</f>
         <v>15000</v>
       </c>
@@ -1105,10 +1096,10 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>48</v>
+      <c r="A4" s="28" t="s">
+        <v>39</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <f>'Valores unitarios'!C8</f>
         <v>10000</v>
       </c>
@@ -1138,10 +1129,10 @@
       <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>49</v>
+      <c r="A5" s="29" t="s">
+        <v>40</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <f>'Valores unitarios'!C4+'Valores unitarios'!C8</f>
         <v>15000</v>
       </c>
@@ -1171,10 +1162,10 @@
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>59</v>
+      <c r="A6" s="28" t="s">
+        <v>48</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <f>'Valores unitarios'!C4+'Valores unitarios'!C5+'Valores unitarios'!C6</f>
         <v>20000</v>
       </c>
@@ -1204,10 +1195,10 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>61</v>
+      <c r="A7" s="29" t="s">
+        <v>50</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <f>'Valores unitarios'!C8+'Valores unitarios'!C5+'Valores unitarios'!C6</f>
         <v>25000</v>
       </c>
@@ -1237,10 +1228,10 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>60</v>
+      <c r="A8" s="28" t="s">
+        <v>49</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <f>'Valores unitarios'!C4+'Valores unitarios'!C5+'Valores unitarios'!C6+'Valores unitarios'!C8</f>
         <v>30000</v>
       </c>
@@ -1270,10 +1261,10 @@
       <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
@@ -1302,10 +1293,10 @@
       <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>45</v>
+      <c r="A10" s="28" t="s">
+        <v>36</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <f>'Valores unitarios'!C5+'Valores unitarios'!C9</f>
         <v>14000</v>
       </c>
@@ -1335,10 +1326,10 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>46</v>
+      <c r="A11" s="29" t="s">
+        <v>37</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <f>'Valores unitarios'!C5+'Valores unitarios'!C9+'Valores unitarios'!C7</f>
         <v>18000</v>
       </c>
@@ -1368,10 +1359,10 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>47</v>
+      <c r="A12" s="28" t="s">
+        <v>38</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <f>'Valores unitarios'!C5+'Valores unitarios'!C9+'Valores unitarios'!C8</f>
         <v>24000</v>
       </c>
@@ -1401,10 +1392,10 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
+      <c r="A13" s="30" t="s">
+        <v>6</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
@@ -1433,10 +1424,10 @@
       <c r="AA13" s="6"/>
     </row>
     <row r="14" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
+      <c r="A14" s="28" t="s">
+        <v>7</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="24" t="str">
         <f>'Valores unitarios'!C10</f>
         <v>Gratis</v>
       </c>
@@ -1466,10 +1457,10 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>50</v>
+      <c r="A15" s="29" t="s">
+        <v>68</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <f>'Valores unitarios'!C11</f>
         <v>3000</v>
       </c>
@@ -1499,10 +1490,10 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>11</v>
+      <c r="A16" s="30" t="s">
+        <v>10</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1"/>
@@ -1531,10 +1522,10 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>51</v>
+      <c r="A17" s="28" t="s">
+        <v>41</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <f>'Valores unitarios'!C12</f>
         <v>6000</v>
       </c>
@@ -1564,10 +1555,10 @@
       <c r="AA17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>24</v>
+      <c r="A18" s="29" t="s">
+        <v>22</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <f>'Valores unitarios'!C13</f>
         <v>10000</v>
       </c>
@@ -1597,10 +1588,10 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>52</v>
+      <c r="A19" s="28" t="s">
+        <v>42</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <f>'Valores unitarios'!C12+'Valores unitarios'!C13</f>
         <v>16000</v>
       </c>
@@ -1630,10 +1621,10 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>53</v>
+      <c r="A20" s="29" t="s">
+        <v>43</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <f>'Valores unitarios'!C12+'Valores unitarios'!C13+'Valores unitarios'!C8</f>
         <v>26000</v>
       </c>
@@ -1663,10 +1654,10 @@
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>54</v>
+      <c r="A21" s="28" t="s">
+        <v>44</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <f>'Valores unitarios'!C12+'Valores unitarios'!C13+'Valores unitarios'!C8+'Valores unitarios'!C9</f>
         <v>35000</v>
       </c>
@@ -1696,10 +1687,10 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>14</v>
+      <c r="A22" s="29" t="s">
+        <v>13</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <f>'Valores unitarios'!C12+'Valores unitarios'!C14</f>
         <v>36000</v>
       </c>
@@ -1729,10 +1720,10 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>15</v>
+      <c r="A23" s="30" t="s">
+        <v>14</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
@@ -1761,10 +1752,10 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>64</v>
+      <c r="A24" s="28" t="s">
+        <v>51</v>
       </c>
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="24" t="str">
         <f>'Valores unitarios'!C15</f>
         <v>Gratis</v>
       </c>
@@ -1794,10 +1785,10 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>65</v>
+      <c r="A25" s="29" t="s">
+        <v>52</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <f>'Valores unitarios'!C16</f>
         <v>5000</v>
       </c>
@@ -1827,10 +1818,10 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>55</v>
+      <c r="A26" s="28" t="s">
+        <v>69</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <f>'Valores unitarios'!C17</f>
         <v>5000</v>
       </c>
@@ -1860,10 +1851,10 @@
       <c r="AA26" s="6"/>
     </row>
     <row r="27" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>56</v>
+      <c r="A27" s="29" t="s">
+        <v>45</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <f>'Valores unitarios'!C18</f>
         <v>30000</v>
       </c>
@@ -1893,10 +1884,10 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>57</v>
+      <c r="A28" s="28" t="s">
+        <v>46</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <f>'Valores unitarios'!C19</f>
         <v>8000</v>
       </c>
@@ -1926,10 +1917,10 @@
       <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>29</v>
+      <c r="A29" s="29" t="s">
+        <v>64</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <f>'Valores unitarios'!C20</f>
         <v>15000</v>
       </c>
@@ -1959,10 +1950,10 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>28</v>
+      <c r="A30" s="28" t="s">
+        <v>66</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="24">
         <f>'Valores unitarios'!C21</f>
         <v>9000</v>
       </c>
@@ -2019,7 +2010,7 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="C32" s="21"/>
+      <c r="C32" s="19"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2519,7 +2510,7 @@
     <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="18"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="9"/>
@@ -2548,7 +2539,7 @@
     <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="18"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="9"/>
@@ -2577,7 +2568,7 @@
     <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="18"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="9"/>
@@ -2606,7 +2597,7 @@
     <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="18"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="9"/>
@@ -2635,7 +2626,7 @@
     <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="18"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="9"/>
@@ -2664,7 +2655,7 @@
     <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="18"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="9"/>
@@ -2693,7 +2684,7 @@
     <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="18"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="9"/>
@@ -2722,7 +2713,7 @@
     <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="18"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="9"/>
@@ -2751,7 +2742,7 @@
     <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="18"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="9"/>
@@ -2780,7 +2771,7 @@
     <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="18"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="9"/>
@@ -2809,7 +2800,7 @@
     <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="18"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="9"/>
@@ -2838,7 +2829,7 @@
     <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="18"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="9"/>
@@ -2867,7 +2858,7 @@
     <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="18"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="9"/>
@@ -2896,7 +2887,7 @@
     <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="18"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="9"/>
@@ -2925,7 +2916,7 @@
     <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="18"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="9"/>
@@ -2954,7 +2945,7 @@
     <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="18"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="9"/>
@@ -2983,7 +2974,7 @@
     <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="18"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="9"/>
@@ -3012,7 +3003,7 @@
     <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="18"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="9"/>
@@ -3041,7 +3032,7 @@
     <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="18"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="9"/>
@@ -3070,7 +3061,7 @@
     <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="18"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="9"/>
@@ -3099,7 +3090,7 @@
     <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="18"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="9"/>
@@ -3128,7 +3119,7 @@
     <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="18"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="9"/>
@@ -3157,7 +3148,7 @@
     <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="18"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="9"/>
@@ -3186,7 +3177,7 @@
     <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="18"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="9"/>
@@ -3215,7 +3206,7 @@
     <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="18"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="9"/>
@@ -3244,7 +3235,7 @@
     <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="18"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="9"/>
@@ -3273,7 +3264,7 @@
     <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="18"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="9"/>
@@ -3302,7 +3293,7 @@
     <row r="81" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="18"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="9"/>
@@ -3331,7 +3322,7 @@
     <row r="82" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="18"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="9"/>
@@ -3360,7 +3351,7 @@
     <row r="83" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="18"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="9"/>
@@ -3389,7 +3380,7 @@
     <row r="84" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="18"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="9"/>
@@ -3418,7 +3409,7 @@
     <row r="85" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="18"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="9"/>
@@ -3447,7 +3438,7 @@
     <row r="86" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="18"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="9"/>
@@ -3476,7 +3467,7 @@
     <row r="87" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="18"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="9"/>
@@ -3505,7 +3496,7 @@
     <row r="88" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="18"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="9"/>
@@ -3534,7 +3525,7 @@
     <row r="89" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="18"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="9"/>
@@ -3563,7 +3554,7 @@
     <row r="90" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="18"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="9"/>
@@ -3592,7 +3583,7 @@
     <row r="91" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="18"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="9"/>
@@ -3621,7 +3612,7 @@
     <row r="92" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="18"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="9"/>
@@ -3650,7 +3641,7 @@
     <row r="93" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="18"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="9"/>
@@ -3679,7 +3670,7 @@
     <row r="94" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="18"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="9"/>
@@ -3708,7 +3699,7 @@
     <row r="95" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="18"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="9"/>
@@ -3737,7 +3728,7 @@
     <row r="96" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="18"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="9"/>
@@ -3766,7 +3757,7 @@
     <row r="97" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="18"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="9"/>
@@ -3795,7 +3786,7 @@
     <row r="98" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="18"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="9"/>
@@ -3824,7 +3815,7 @@
     <row r="99" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="18"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="9"/>
@@ -3853,7 +3844,7 @@
     <row r="100" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="18"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="9"/>
@@ -3882,7 +3873,7 @@
     <row r="101" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="18"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="9"/>
@@ -3911,7 +3902,7 @@
     <row r="102" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="18"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="9"/>
@@ -3940,7 +3931,7 @@
     <row r="103" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="18"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="9"/>
@@ -3969,7 +3960,7 @@
     <row r="104" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="18"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="1"/>
       <c r="G104" s="3"/>
       <c r="H104" s="1"/>
@@ -3996,7 +3987,7 @@
     <row r="105" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="18"/>
+      <c r="C105" s="16"/>
       <c r="G105" s="3"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4022,7 +4013,7 @@
     <row r="106" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="18"/>
+      <c r="C106" s="16"/>
       <c r="G106" s="3"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4048,7 +4039,7 @@
     <row r="107" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="18"/>
+      <c r="C107" s="16"/>
       <c r="G107" s="3"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4074,7 +4065,7 @@
     <row r="108" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="18"/>
+      <c r="C108" s="16"/>
       <c r="G108" s="3"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -4100,7 +4091,7 @@
     <row r="109" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="18"/>
+      <c r="C109" s="16"/>
       <c r="G109" s="3"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -4126,7 +4117,7 @@
     <row r="110" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="18"/>
+      <c r="C110" s="16"/>
       <c r="G110" s="3"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -4152,7 +4143,7 @@
     <row r="111" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="18"/>
+      <c r="C111" s="16"/>
       <c r="G111" s="3"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -4178,7 +4169,7 @@
     <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="18"/>
+      <c r="C112" s="16"/>
       <c r="G112" s="3"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -4204,7 +4195,7 @@
     <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="18"/>
+      <c r="C113" s="16"/>
       <c r="G113" s="3"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -4230,7 +4221,7 @@
     <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="18"/>
+      <c r="C114" s="16"/>
       <c r="G114" s="3"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -4256,7 +4247,7 @@
     <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="18"/>
+      <c r="C115" s="16"/>
       <c r="G115" s="3"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4282,7 +4273,7 @@
     <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="18"/>
+      <c r="C116" s="16"/>
       <c r="G116" s="3"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4308,7 +4299,7 @@
     <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="18"/>
+      <c r="C117" s="16"/>
       <c r="G117" s="3"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -4334,7 +4325,7 @@
     <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="18"/>
+      <c r="C118" s="16"/>
       <c r="G118" s="3"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4360,7 +4351,7 @@
     <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="18"/>
+      <c r="C119" s="16"/>
       <c r="G119" s="3"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4386,7 +4377,7 @@
     <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="18"/>
+      <c r="C120" s="16"/>
       <c r="G120" s="3"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4412,7 +4403,7 @@
     <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="16"/>
       <c r="G121" s="3"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4438,7 +4429,7 @@
     <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="18"/>
+      <c r="C122" s="16"/>
       <c r="G122" s="3"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4464,7 +4455,7 @@
     <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="18"/>
+      <c r="C123" s="16"/>
       <c r="G123" s="3"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4490,7 +4481,7 @@
     <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="18"/>
+      <c r="C124" s="16"/>
       <c r="G124" s="3"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4516,7 +4507,7 @@
     <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="18"/>
+      <c r="C125" s="16"/>
       <c r="G125" s="3"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4542,7 +4533,7 @@
     <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="18"/>
+      <c r="C126" s="16"/>
       <c r="E126" s="1"/>
       <c r="F126" s="9"/>
       <c r="G126" s="3"/>
@@ -4570,7 +4561,7 @@
     <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="18"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="9"/>
@@ -4599,7 +4590,7 @@
     <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="18"/>
+      <c r="C128" s="16"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="9"/>
@@ -4628,7 +4619,7 @@
     <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="18"/>
+      <c r="C129" s="16"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="9"/>
@@ -4657,7 +4648,7 @@
     <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="18"/>
+      <c r="C130" s="16"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="9"/>
@@ -4686,7 +4677,7 @@
     <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="18"/>
+      <c r="C131" s="16"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="9"/>
@@ -4715,7 +4706,7 @@
     <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="18"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="9"/>
@@ -4744,7 +4735,7 @@
     <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="18"/>
+      <c r="C133" s="16"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="9"/>
@@ -4773,7 +4764,7 @@
     <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="18"/>
+      <c r="C134" s="16"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="9"/>
@@ -4802,7 +4793,7 @@
     <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="18"/>
+      <c r="C135" s="16"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="9"/>
@@ -4831,7 +4822,7 @@
     <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="18"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="9"/>
@@ -4860,7 +4851,7 @@
     <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="18"/>
+      <c r="C137" s="16"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="9"/>
@@ -4889,7 +4880,7 @@
     <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="18"/>
+      <c r="C138" s="16"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="9"/>
@@ -4918,7 +4909,7 @@
     <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="18"/>
+      <c r="C139" s="16"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="9"/>
@@ -4947,7 +4938,7 @@
     <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="18"/>
+      <c r="C140" s="16"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="9"/>
@@ -4976,7 +4967,7 @@
     <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="18"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="9"/>
@@ -5005,7 +4996,7 @@
     <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="18"/>
+      <c r="C142" s="16"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="9"/>
@@ -5034,7 +5025,7 @@
     <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="18"/>
+      <c r="C143" s="16"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="9"/>
@@ -5063,7 +5054,7 @@
     <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="18"/>
+      <c r="C144" s="16"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="9"/>
@@ -5092,7 +5083,7 @@
     <row r="145" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="18"/>
+      <c r="C145" s="16"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="9"/>
@@ -5121,7 +5112,7 @@
     <row r="146" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="18"/>
+      <c r="C146" s="16"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="9"/>
@@ -5150,7 +5141,7 @@
     <row r="147" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="18"/>
+      <c r="C147" s="16"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="9"/>
@@ -5179,7 +5170,7 @@
     <row r="148" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="18"/>
+      <c r="C148" s="16"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="9"/>
@@ -5208,7 +5199,7 @@
     <row r="149" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="18"/>
+      <c r="C149" s="16"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="9"/>
@@ -5237,7 +5228,7 @@
     <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="18"/>
+      <c r="C150" s="16"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="9"/>
@@ -5266,7 +5257,7 @@
     <row r="151" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="18"/>
+      <c r="C151" s="16"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="9"/>
@@ -5295,7 +5286,7 @@
     <row r="152" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="18"/>
+      <c r="C152" s="16"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="9"/>
@@ -5324,7 +5315,7 @@
     <row r="153" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="18"/>
+      <c r="C153" s="16"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="9"/>
@@ -5353,7 +5344,7 @@
     <row r="154" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="18"/>
+      <c r="C154" s="16"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="9"/>
@@ -5382,7 +5373,7 @@
     <row r="155" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="18"/>
+      <c r="C155" s="16"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="9"/>
@@ -5411,7 +5402,7 @@
     <row r="156" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="18"/>
+      <c r="C156" s="16"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="9"/>
@@ -5440,7 +5431,7 @@
     <row r="157" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="18"/>
+      <c r="C157" s="16"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="9"/>
@@ -5469,7 +5460,7 @@
     <row r="158" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="18"/>
+      <c r="C158" s="16"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="9"/>
@@ -5498,7 +5489,7 @@
     <row r="159" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="18"/>
+      <c r="C159" s="16"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="9"/>
@@ -5527,7 +5518,7 @@
     <row r="160" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="18"/>
+      <c r="C160" s="16"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="9"/>
@@ -5556,7 +5547,7 @@
     <row r="161" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="18"/>
+      <c r="C161" s="16"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="9"/>
@@ -5585,7 +5576,7 @@
     <row r="162" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="18"/>
+      <c r="C162" s="16"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="9"/>
@@ -5614,7 +5605,7 @@
     <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="18"/>
+      <c r="C163" s="16"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="9"/>
@@ -5643,7 +5634,7 @@
     <row r="164" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="18"/>
+      <c r="C164" s="16"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="9"/>
@@ -5672,7 +5663,7 @@
     <row r="165" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="18"/>
+      <c r="C165" s="16"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="9"/>
@@ -5701,7 +5692,7 @@
     <row r="166" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="18"/>
+      <c r="C166" s="16"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="9"/>
@@ -5730,7 +5721,7 @@
     <row r="167" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="18"/>
+      <c r="C167" s="16"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="9"/>
@@ -5759,7 +5750,7 @@
     <row r="168" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="18"/>
+      <c r="C168" s="16"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="9"/>
@@ -5788,7 +5779,7 @@
     <row r="169" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="18"/>
+      <c r="C169" s="16"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="9"/>
@@ -5817,7 +5808,7 @@
     <row r="170" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="18"/>
+      <c r="C170" s="16"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="9"/>
@@ -5846,7 +5837,7 @@
     <row r="171" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="18"/>
+      <c r="C171" s="16"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="9"/>
@@ -5875,7 +5866,7 @@
     <row r="172" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="18"/>
+      <c r="C172" s="16"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="9"/>
@@ -5904,7 +5895,7 @@
     <row r="173" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="18"/>
+      <c r="C173" s="16"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="9"/>
@@ -5933,7 +5924,7 @@
     <row r="174" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="18"/>
+      <c r="C174" s="16"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="9"/>
@@ -5962,7 +5953,7 @@
     <row r="175" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="18"/>
+      <c r="C175" s="16"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="9"/>
@@ -5991,7 +5982,7 @@
     <row r="176" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="18"/>
+      <c r="C176" s="16"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="9"/>
@@ -6020,7 +6011,7 @@
     <row r="177" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="18"/>
+      <c r="C177" s="16"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="9"/>
@@ -6049,7 +6040,7 @@
     <row r="178" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="18"/>
+      <c r="C178" s="16"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="9"/>
@@ -6078,7 +6069,7 @@
     <row r="179" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="18"/>
+      <c r="C179" s="16"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="9"/>
@@ -6107,7 +6098,7 @@
     <row r="180" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="18"/>
+      <c r="C180" s="16"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="9"/>
@@ -6136,7 +6127,7 @@
     <row r="181" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="18"/>
+      <c r="C181" s="16"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="9"/>
@@ -6165,7 +6156,7 @@
     <row r="182" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="18"/>
+      <c r="C182" s="16"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="9"/>
@@ -6194,7 +6185,7 @@
     <row r="183" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="18"/>
+      <c r="C183" s="16"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="9"/>
@@ -6223,7 +6214,7 @@
     <row r="184" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="18"/>
+      <c r="C184" s="16"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="9"/>
@@ -6252,7 +6243,7 @@
     <row r="185" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="18"/>
+      <c r="C185" s="16"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="9"/>
@@ -6281,7 +6272,7 @@
     <row r="186" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="18"/>
+      <c r="C186" s="16"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="9"/>
@@ -6310,7 +6301,7 @@
     <row r="187" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="18"/>
+      <c r="C187" s="16"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="9"/>
@@ -6339,7 +6330,7 @@
     <row r="188" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="18"/>
+      <c r="C188" s="16"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="9"/>
@@ -6368,7 +6359,7 @@
     <row r="189" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="18"/>
+      <c r="C189" s="16"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="9"/>
@@ -6397,7 +6388,7 @@
     <row r="190" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="18"/>
+      <c r="C190" s="16"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="9"/>
@@ -6426,7 +6417,7 @@
     <row r="191" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="18"/>
+      <c r="C191" s="16"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="9"/>
@@ -6455,7 +6446,7 @@
     <row r="192" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="18"/>
+      <c r="C192" s="16"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="9"/>
@@ -6484,7 +6475,7 @@
     <row r="193" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="18"/>
+      <c r="C193" s="16"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="9"/>
@@ -6513,7 +6504,7 @@
     <row r="194" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="18"/>
+      <c r="C194" s="16"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="9"/>
@@ -6542,7 +6533,7 @@
     <row r="195" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="18"/>
+      <c r="C195" s="16"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="9"/>
@@ -6571,7 +6562,7 @@
     <row r="196" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="18"/>
+      <c r="C196" s="16"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="9"/>
@@ -6600,7 +6591,7 @@
     <row r="197" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="18"/>
+      <c r="C197" s="16"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="9"/>
@@ -6629,7 +6620,7 @@
     <row r="198" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="18"/>
+      <c r="C198" s="16"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="9"/>
@@ -6658,7 +6649,7 @@
     <row r="199" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="18"/>
+      <c r="C199" s="16"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="9"/>
@@ -6687,7 +6678,7 @@
     <row r="200" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="18"/>
+      <c r="C200" s="16"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="9"/>
@@ -6716,7 +6707,7 @@
     <row r="201" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="18"/>
+      <c r="C201" s="16"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="9"/>
@@ -6745,7 +6736,7 @@
     <row r="202" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
-      <c r="C202" s="18"/>
+      <c r="C202" s="16"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="9"/>
@@ -6774,7 +6765,7 @@
     <row r="203" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="18"/>
+      <c r="C203" s="16"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="9"/>
@@ -6803,7 +6794,7 @@
     <row r="204" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
-      <c r="C204" s="18"/>
+      <c r="C204" s="16"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="9"/>
@@ -6832,7 +6823,7 @@
     <row r="205" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
-      <c r="C205" s="18"/>
+      <c r="C205" s="16"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="9"/>
@@ -6861,7 +6852,7 @@
     <row r="206" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
-      <c r="C206" s="18"/>
+      <c r="C206" s="16"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="9"/>
@@ -6890,7 +6881,7 @@
     <row r="207" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
-      <c r="C207" s="18"/>
+      <c r="C207" s="16"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="9"/>
@@ -6919,7 +6910,7 @@
     <row r="208" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
-      <c r="C208" s="18"/>
+      <c r="C208" s="16"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="9"/>
@@ -6948,7 +6939,7 @@
     <row r="209" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="18"/>
+      <c r="C209" s="16"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="9"/>
@@ -6977,7 +6968,7 @@
     <row r="210" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
-      <c r="C210" s="18"/>
+      <c r="C210" s="16"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="9"/>
@@ -7006,7 +6997,7 @@
     <row r="211" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
-      <c r="C211" s="18"/>
+      <c r="C211" s="16"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="9"/>
@@ -7035,7 +7026,7 @@
     <row r="212" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
-      <c r="C212" s="18"/>
+      <c r="C212" s="16"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="9"/>
@@ -7064,7 +7055,7 @@
     <row r="213" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
-      <c r="C213" s="18"/>
+      <c r="C213" s="16"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="9"/>
@@ -7093,7 +7084,7 @@
     <row r="214" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
-      <c r="C214" s="18"/>
+      <c r="C214" s="16"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="9"/>
@@ -7122,7 +7113,7 @@
     <row r="215" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
-      <c r="C215" s="18"/>
+      <c r="C215" s="16"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="9"/>
@@ -7151,7 +7142,7 @@
     <row r="216" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
-      <c r="C216" s="18"/>
+      <c r="C216" s="16"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="9"/>
@@ -7180,7 +7171,7 @@
     <row r="217" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="18"/>
+      <c r="C217" s="16"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="9"/>
@@ -7209,7 +7200,7 @@
     <row r="218" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
-      <c r="C218" s="18"/>
+      <c r="C218" s="16"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="9"/>
@@ -7238,7 +7229,7 @@
     <row r="219" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
-      <c r="C219" s="18"/>
+      <c r="C219" s="16"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="9"/>
@@ -7267,7 +7258,7 @@
     <row r="220" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="18"/>
+      <c r="C220" s="16"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="9"/>
@@ -7296,7 +7287,7 @@
     <row r="221" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
-      <c r="C221" s="18"/>
+      <c r="C221" s="16"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="9"/>
@@ -7325,7 +7316,7 @@
     <row r="222" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
-      <c r="C222" s="18"/>
+      <c r="C222" s="16"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="9"/>
@@ -7354,7 +7345,7 @@
     <row r="223" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
-      <c r="C223" s="18"/>
+      <c r="C223" s="16"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="9"/>
@@ -7383,7 +7374,7 @@
     <row r="224" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
-      <c r="C224" s="18"/>
+      <c r="C224" s="16"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="9"/>
@@ -7412,7 +7403,7 @@
     <row r="225" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="18"/>
+      <c r="C225" s="16"/>
       <c r="D225" s="1"/>
       <c r="E225" s="6"/>
       <c r="F225" s="12"/>
@@ -7441,7 +7432,7 @@
     <row r="226" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
-      <c r="C226" s="18"/>
+      <c r="C226" s="16"/>
       <c r="D226" s="1"/>
       <c r="E226" s="6"/>
       <c r="F226" s="12"/>
@@ -7470,7 +7461,7 @@
     <row r="227" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="8"/>
-      <c r="C227" s="23"/>
+      <c r="C227" s="21"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="12"/>
@@ -7499,7 +7490,7 @@
     <row r="228" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="8"/>
-      <c r="C228" s="23"/>
+      <c r="C228" s="21"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="12"/>
@@ -7528,7 +7519,7 @@
     <row r="229" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="8"/>
-      <c r="C229" s="23"/>
+      <c r="C229" s="21"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="12"/>
@@ -7557,7 +7548,7 @@
     <row r="230" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="8"/>
-      <c r="C230" s="23"/>
+      <c r="C230" s="21"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="12"/>
@@ -7586,7 +7577,7 @@
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
-      <c r="C231" s="21"/>
+      <c r="C231" s="19"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="12"/>
@@ -7615,7 +7606,7 @@
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
-      <c r="C232" s="21"/>
+      <c r="C232" s="19"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="12"/>
@@ -7644,7 +7635,7 @@
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
-      <c r="C233" s="21"/>
+      <c r="C233" s="19"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="12"/>
@@ -7673,7 +7664,7 @@
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
-      <c r="C234" s="21"/>
+      <c r="C234" s="19"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="12"/>
@@ -7702,7 +7693,7 @@
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
-      <c r="C235" s="21"/>
+      <c r="C235" s="19"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="12"/>
@@ -7731,7 +7722,7 @@
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
-      <c r="C236" s="21"/>
+      <c r="C236" s="19"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="12"/>
@@ -7760,7 +7751,7 @@
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
-      <c r="C237" s="21"/>
+      <c r="C237" s="19"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="12"/>
@@ -7789,7 +7780,7 @@
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
-      <c r="C238" s="21"/>
+      <c r="C238" s="19"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="12"/>
@@ -7818,7 +7809,7 @@
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
-      <c r="C239" s="21"/>
+      <c r="C239" s="19"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="12"/>
@@ -7847,7 +7838,7 @@
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
-      <c r="C240" s="21"/>
+      <c r="C240" s="19"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="12"/>
@@ -7876,7 +7867,7 @@
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
-      <c r="C241" s="21"/>
+      <c r="C241" s="19"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="12"/>
@@ -7905,7 +7896,7 @@
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
-      <c r="C242" s="21"/>
+      <c r="C242" s="19"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="12"/>
@@ -7934,7 +7925,7 @@
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
-      <c r="C243" s="21"/>
+      <c r="C243" s="19"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="12"/>
@@ -7963,7 +7954,7 @@
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
-      <c r="C244" s="21"/>
+      <c r="C244" s="19"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="12"/>
@@ -7992,7 +7983,7 @@
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
-      <c r="C245" s="21"/>
+      <c r="C245" s="19"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="12"/>
@@ -8021,7 +8012,7 @@
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
-      <c r="C246" s="21"/>
+      <c r="C246" s="19"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="12"/>
@@ -8050,7 +8041,7 @@
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
-      <c r="C247" s="21"/>
+      <c r="C247" s="19"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="12"/>
@@ -8079,7 +8070,7 @@
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
-      <c r="C248" s="21"/>
+      <c r="C248" s="19"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="12"/>
@@ -8108,7 +8099,7 @@
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
-      <c r="C249" s="21"/>
+      <c r="C249" s="19"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="12"/>
@@ -8137,7 +8128,7 @@
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
-      <c r="C250" s="21"/>
+      <c r="C250" s="19"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="12"/>
@@ -8166,7 +8157,7 @@
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
-      <c r="C251" s="21"/>
+      <c r="C251" s="19"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="12"/>
@@ -8195,7 +8186,7 @@
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
-      <c r="C252" s="21"/>
+      <c r="C252" s="19"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="12"/>
@@ -8224,7 +8215,7 @@
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
-      <c r="C253" s="21"/>
+      <c r="C253" s="19"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="12"/>
@@ -8253,7 +8244,7 @@
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
-      <c r="C254" s="21"/>
+      <c r="C254" s="19"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="12"/>
@@ -8282,7 +8273,7 @@
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
-      <c r="C255" s="21"/>
+      <c r="C255" s="19"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="12"/>
@@ -8311,7 +8302,7 @@
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
-      <c r="C256" s="21"/>
+      <c r="C256" s="19"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="12"/>
@@ -8340,7 +8331,7 @@
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
-      <c r="C257" s="21"/>
+      <c r="C257" s="19"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="12"/>
@@ -8369,7 +8360,7 @@
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
-      <c r="C258" s="21"/>
+      <c r="C258" s="19"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="12"/>
@@ -8398,7 +8389,7 @@
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
-      <c r="C259" s="21"/>
+      <c r="C259" s="19"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="12"/>
@@ -8427,7 +8418,7 @@
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
-      <c r="C260" s="21"/>
+      <c r="C260" s="19"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="12"/>
@@ -8456,7 +8447,7 @@
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
-      <c r="C261" s="21"/>
+      <c r="C261" s="19"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="12"/>
@@ -8485,7 +8476,7 @@
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
-      <c r="C262" s="21"/>
+      <c r="C262" s="19"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="12"/>
@@ -8514,7 +8505,7 @@
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
-      <c r="C263" s="21"/>
+      <c r="C263" s="19"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="12"/>
@@ -8543,7 +8534,7 @@
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
-      <c r="C264" s="21"/>
+      <c r="C264" s="19"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="12"/>
@@ -8572,7 +8563,7 @@
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
-      <c r="C265" s="21"/>
+      <c r="C265" s="19"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="12"/>
@@ -8601,7 +8592,7 @@
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
-      <c r="C266" s="21"/>
+      <c r="C266" s="19"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="12"/>
@@ -8630,7 +8621,7 @@
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
-      <c r="C267" s="21"/>
+      <c r="C267" s="19"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="12"/>
@@ -8659,7 +8650,7 @@
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
-      <c r="C268" s="21"/>
+      <c r="C268" s="19"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="12"/>
@@ -8688,7 +8679,7 @@
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
-      <c r="C269" s="21"/>
+      <c r="C269" s="19"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="12"/>
@@ -8717,7 +8708,7 @@
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
-      <c r="C270" s="21"/>
+      <c r="C270" s="19"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="12"/>
@@ -8746,7 +8737,7 @@
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
-      <c r="C271" s="21"/>
+      <c r="C271" s="19"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="12"/>
@@ -8775,7 +8766,7 @@
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
-      <c r="C272" s="21"/>
+      <c r="C272" s="19"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="12"/>
@@ -8804,7 +8795,7 @@
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
-      <c r="C273" s="21"/>
+      <c r="C273" s="19"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="12"/>
@@ -8833,7 +8824,7 @@
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
-      <c r="C274" s="21"/>
+      <c r="C274" s="19"/>
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="12"/>
@@ -8862,7 +8853,7 @@
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
-      <c r="C275" s="21"/>
+      <c r="C275" s="19"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="12"/>
@@ -8891,7 +8882,7 @@
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
-      <c r="C276" s="21"/>
+      <c r="C276" s="19"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="12"/>
@@ -8920,7 +8911,7 @@
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
-      <c r="C277" s="21"/>
+      <c r="C277" s="19"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="12"/>
@@ -8949,7 +8940,7 @@
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
-      <c r="C278" s="21"/>
+      <c r="C278" s="19"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="12"/>
@@ -8978,7 +8969,7 @@
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
-      <c r="C279" s="21"/>
+      <c r="C279" s="19"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="12"/>
@@ -9007,7 +8998,7 @@
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
-      <c r="C280" s="21"/>
+      <c r="C280" s="19"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="12"/>
@@ -9036,7 +9027,7 @@
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
-      <c r="C281" s="21"/>
+      <c r="C281" s="19"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="12"/>
@@ -9065,7 +9056,7 @@
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
-      <c r="C282" s="21"/>
+      <c r="C282" s="19"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="12"/>
@@ -9094,7 +9085,7 @@
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
-      <c r="C283" s="21"/>
+      <c r="C283" s="19"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="12"/>
@@ -9123,7 +9114,7 @@
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
-      <c r="C284" s="21"/>
+      <c r="C284" s="19"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="12"/>
@@ -9152,7 +9143,7 @@
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
-      <c r="C285" s="21"/>
+      <c r="C285" s="19"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="12"/>
@@ -9181,7 +9172,7 @@
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
-      <c r="C286" s="21"/>
+      <c r="C286" s="19"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="12"/>
@@ -9210,7 +9201,7 @@
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
-      <c r="C287" s="21"/>
+      <c r="C287" s="19"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="12"/>
@@ -9239,7 +9230,7 @@
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
-      <c r="C288" s="21"/>
+      <c r="C288" s="19"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="12"/>
@@ -9268,7 +9259,7 @@
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="21"/>
+      <c r="C289" s="19"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="12"/>
@@ -9297,7 +9288,7 @@
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
-      <c r="C290" s="21"/>
+      <c r="C290" s="19"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="12"/>
@@ -9326,7 +9317,7 @@
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
-      <c r="C291" s="21"/>
+      <c r="C291" s="19"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="12"/>
@@ -9355,7 +9346,7 @@
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
-      <c r="C292" s="21"/>
+      <c r="C292" s="19"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="12"/>
@@ -9384,7 +9375,7 @@
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
-      <c r="C293" s="21"/>
+      <c r="C293" s="19"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="12"/>
@@ -9413,7 +9404,7 @@
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
-      <c r="C294" s="21"/>
+      <c r="C294" s="19"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="12"/>
@@ -9442,7 +9433,7 @@
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
-      <c r="C295" s="21"/>
+      <c r="C295" s="19"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="12"/>
@@ -9471,7 +9462,7 @@
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
-      <c r="C296" s="21"/>
+      <c r="C296" s="19"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="12"/>
@@ -9500,7 +9491,7 @@
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
-      <c r="C297" s="21"/>
+      <c r="C297" s="19"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="12"/>
@@ -9529,7 +9520,7 @@
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
-      <c r="C298" s="21"/>
+      <c r="C298" s="19"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="12"/>
@@ -9558,7 +9549,7 @@
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
-      <c r="C299" s="21"/>
+      <c r="C299" s="19"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="12"/>
@@ -9587,7 +9578,7 @@
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
-      <c r="C300" s="21"/>
+      <c r="C300" s="19"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="12"/>
@@ -9616,7 +9607,7 @@
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
-      <c r="C301" s="21"/>
+      <c r="C301" s="19"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="12"/>
@@ -9645,7 +9636,7 @@
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
-      <c r="C302" s="21"/>
+      <c r="C302" s="19"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="12"/>
@@ -9674,7 +9665,7 @@
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
-      <c r="C303" s="21"/>
+      <c r="C303" s="19"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="12"/>
@@ -9703,7 +9694,7 @@
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
-      <c r="C304" s="21"/>
+      <c r="C304" s="19"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="12"/>
@@ -9732,7 +9723,7 @@
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
-      <c r="C305" s="21"/>
+      <c r="C305" s="19"/>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="12"/>
@@ -9761,7 +9752,7 @@
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
-      <c r="C306" s="21"/>
+      <c r="C306" s="19"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="12"/>
@@ -9790,7 +9781,7 @@
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
-      <c r="C307" s="21"/>
+      <c r="C307" s="19"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="12"/>
@@ -9819,7 +9810,7 @@
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
-      <c r="C308" s="21"/>
+      <c r="C308" s="19"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="12"/>
@@ -9848,7 +9839,7 @@
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
-      <c r="C309" s="21"/>
+      <c r="C309" s="19"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="12"/>
@@ -9877,7 +9868,7 @@
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
-      <c r="C310" s="21"/>
+      <c r="C310" s="19"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="12"/>
@@ -9906,7 +9897,7 @@
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
-      <c r="C311" s="21"/>
+      <c r="C311" s="19"/>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="12"/>
@@ -9935,7 +9926,7 @@
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
-      <c r="C312" s="21"/>
+      <c r="C312" s="19"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="12"/>
@@ -9964,7 +9955,7 @@
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
-      <c r="C313" s="21"/>
+      <c r="C313" s="19"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="12"/>
@@ -9993,7 +9984,7 @@
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
-      <c r="C314" s="21"/>
+      <c r="C314" s="19"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="12"/>
@@ -10022,7 +10013,7 @@
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
-      <c r="C315" s="21"/>
+      <c r="C315" s="19"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="12"/>
@@ -10051,7 +10042,7 @@
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
-      <c r="C316" s="21"/>
+      <c r="C316" s="19"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="12"/>
@@ -10080,7 +10071,7 @@
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
-      <c r="C317" s="21"/>
+      <c r="C317" s="19"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="12"/>
@@ -10109,7 +10100,7 @@
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
-      <c r="C318" s="21"/>
+      <c r="C318" s="19"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="12"/>
@@ -10138,7 +10129,7 @@
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
-      <c r="C319" s="21"/>
+      <c r="C319" s="19"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="12"/>
@@ -10167,7 +10158,7 @@
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
-      <c r="C320" s="21"/>
+      <c r="C320" s="19"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="12"/>
@@ -10196,7 +10187,7 @@
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
-      <c r="C321" s="21"/>
+      <c r="C321" s="19"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="12"/>
@@ -10225,7 +10216,7 @@
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
-      <c r="C322" s="21"/>
+      <c r="C322" s="19"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="12"/>
@@ -10254,7 +10245,7 @@
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
-      <c r="C323" s="21"/>
+      <c r="C323" s="19"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="12"/>
@@ -10283,7 +10274,7 @@
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
-      <c r="C324" s="21"/>
+      <c r="C324" s="19"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="12"/>
@@ -10312,7 +10303,7 @@
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
-      <c r="C325" s="21"/>
+      <c r="C325" s="19"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="12"/>
@@ -10341,7 +10332,7 @@
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
-      <c r="C326" s="21"/>
+      <c r="C326" s="19"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="12"/>
@@ -10370,7 +10361,7 @@
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
-      <c r="C327" s="21"/>
+      <c r="C327" s="19"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="12"/>
@@ -10399,7 +10390,7 @@
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
-      <c r="C328" s="21"/>
+      <c r="C328" s="19"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="12"/>
@@ -10428,7 +10419,7 @@
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
-      <c r="C329" s="21"/>
+      <c r="C329" s="19"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="12"/>
@@ -10457,7 +10448,7 @@
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
-      <c r="C330" s="21"/>
+      <c r="C330" s="19"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="12"/>
@@ -10486,7 +10477,7 @@
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
-      <c r="C331" s="21"/>
+      <c r="C331" s="19"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="12"/>
@@ -10515,7 +10506,7 @@
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
-      <c r="C332" s="21"/>
+      <c r="C332" s="19"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="12"/>
@@ -10544,7 +10535,7 @@
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
-      <c r="C333" s="21"/>
+      <c r="C333" s="19"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="12"/>
@@ -10573,7 +10564,7 @@
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
-      <c r="C334" s="21"/>
+      <c r="C334" s="19"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="12"/>
@@ -10602,7 +10593,7 @@
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
-      <c r="C335" s="21"/>
+      <c r="C335" s="19"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="12"/>
@@ -10631,7 +10622,7 @@
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
-      <c r="C336" s="21"/>
+      <c r="C336" s="19"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="12"/>
@@ -10660,7 +10651,7 @@
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
-      <c r="C337" s="21"/>
+      <c r="C337" s="19"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="12"/>
@@ -10689,7 +10680,7 @@
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
-      <c r="C338" s="21"/>
+      <c r="C338" s="19"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="12"/>
@@ -10718,7 +10709,7 @@
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
-      <c r="C339" s="21"/>
+      <c r="C339" s="19"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="12"/>
@@ -10747,7 +10738,7 @@
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
-      <c r="C340" s="21"/>
+      <c r="C340" s="19"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="12"/>
@@ -10776,7 +10767,7 @@
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
-      <c r="C341" s="21"/>
+      <c r="C341" s="19"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="12"/>
@@ -10805,7 +10796,7 @@
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
-      <c r="C342" s="21"/>
+      <c r="C342" s="19"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="12"/>
@@ -10834,7 +10825,7 @@
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
-      <c r="C343" s="21"/>
+      <c r="C343" s="19"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="12"/>
@@ -10863,7 +10854,7 @@
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
-      <c r="C344" s="21"/>
+      <c r="C344" s="19"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="12"/>
@@ -10892,7 +10883,7 @@
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
-      <c r="C345" s="21"/>
+      <c r="C345" s="19"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="12"/>
@@ -10921,7 +10912,7 @@
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
-      <c r="C346" s="21"/>
+      <c r="C346" s="19"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="12"/>
@@ -10950,7 +10941,7 @@
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
-      <c r="C347" s="21"/>
+      <c r="C347" s="19"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="12"/>
@@ -10979,7 +10970,7 @@
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
-      <c r="C348" s="21"/>
+      <c r="C348" s="19"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="12"/>
@@ -11008,7 +10999,7 @@
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
-      <c r="C349" s="21"/>
+      <c r="C349" s="19"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="12"/>
@@ -11037,7 +11028,7 @@
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
-      <c r="C350" s="21"/>
+      <c r="C350" s="19"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="12"/>
@@ -11066,7 +11057,7 @@
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
-      <c r="C351" s="21"/>
+      <c r="C351" s="19"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="12"/>
@@ -11095,7 +11086,7 @@
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
-      <c r="C352" s="21"/>
+      <c r="C352" s="19"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="12"/>
@@ -11124,7 +11115,7 @@
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
-      <c r="C353" s="21"/>
+      <c r="C353" s="19"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="12"/>
@@ -11153,7 +11144,7 @@
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
-      <c r="C354" s="21"/>
+      <c r="C354" s="19"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="12"/>
@@ -11182,7 +11173,7 @@
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
-      <c r="C355" s="21"/>
+      <c r="C355" s="19"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="12"/>
@@ -11211,7 +11202,7 @@
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
-      <c r="C356" s="21"/>
+      <c r="C356" s="19"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="12"/>
@@ -11240,7 +11231,7 @@
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
-      <c r="C357" s="21"/>
+      <c r="C357" s="19"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="12"/>
@@ -11269,7 +11260,7 @@
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
-      <c r="C358" s="21"/>
+      <c r="C358" s="19"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="12"/>
@@ -11298,7 +11289,7 @@
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
-      <c r="C359" s="21"/>
+      <c r="C359" s="19"/>
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="12"/>
@@ -11327,7 +11318,7 @@
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
-      <c r="C360" s="21"/>
+      <c r="C360" s="19"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="12"/>
@@ -11356,7 +11347,7 @@
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
-      <c r="C361" s="21"/>
+      <c r="C361" s="19"/>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="12"/>
@@ -11385,7 +11376,7 @@
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
-      <c r="C362" s="21"/>
+      <c r="C362" s="19"/>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="12"/>
@@ -11414,7 +11405,7 @@
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
-      <c r="C363" s="21"/>
+      <c r="C363" s="19"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="12"/>
@@ -11443,7 +11434,7 @@
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
-      <c r="C364" s="21"/>
+      <c r="C364" s="19"/>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="12"/>
@@ -11472,7 +11463,7 @@
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
-      <c r="C365" s="21"/>
+      <c r="C365" s="19"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="12"/>
@@ -11501,7 +11492,7 @@
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
-      <c r="C366" s="21"/>
+      <c r="C366" s="19"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="12"/>
@@ -11530,7 +11521,7 @@
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
-      <c r="C367" s="21"/>
+      <c r="C367" s="19"/>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="12"/>
@@ -11559,7 +11550,7 @@
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
-      <c r="C368" s="21"/>
+      <c r="C368" s="19"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="12"/>
@@ -11588,7 +11579,7 @@
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
-      <c r="C369" s="21"/>
+      <c r="C369" s="19"/>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="12"/>
@@ -11617,7 +11608,7 @@
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
-      <c r="C370" s="21"/>
+      <c r="C370" s="19"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="12"/>
@@ -11646,7 +11637,7 @@
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
-      <c r="C371" s="21"/>
+      <c r="C371" s="19"/>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="12"/>
@@ -11675,7 +11666,7 @@
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
-      <c r="C372" s="21"/>
+      <c r="C372" s="19"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="12"/>
@@ -11704,7 +11695,7 @@
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
-      <c r="C373" s="21"/>
+      <c r="C373" s="19"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="12"/>
@@ -11733,7 +11724,7 @@
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
-      <c r="C374" s="21"/>
+      <c r="C374" s="19"/>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="12"/>
@@ -11762,7 +11753,7 @@
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
-      <c r="C375" s="21"/>
+      <c r="C375" s="19"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="12"/>
@@ -11791,7 +11782,7 @@
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
-      <c r="C376" s="21"/>
+      <c r="C376" s="19"/>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="12"/>
@@ -11820,7 +11811,7 @@
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
-      <c r="C377" s="21"/>
+      <c r="C377" s="19"/>
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="12"/>
@@ -11849,7 +11840,7 @@
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
-      <c r="C378" s="21"/>
+      <c r="C378" s="19"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="12"/>
@@ -11878,7 +11869,7 @@
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
-      <c r="C379" s="21"/>
+      <c r="C379" s="19"/>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="12"/>
@@ -11907,7 +11898,7 @@
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
-      <c r="C380" s="21"/>
+      <c r="C380" s="19"/>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="12"/>
@@ -11936,7 +11927,7 @@
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
-      <c r="C381" s="21"/>
+      <c r="C381" s="19"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="12"/>
@@ -11965,7 +11956,7 @@
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
-      <c r="C382" s="21"/>
+      <c r="C382" s="19"/>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="12"/>
@@ -11994,7 +11985,7 @@
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
-      <c r="C383" s="21"/>
+      <c r="C383" s="19"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="12"/>
@@ -12023,7 +12014,7 @@
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
-      <c r="C384" s="21"/>
+      <c r="C384" s="19"/>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="12"/>
@@ -12052,7 +12043,7 @@
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
-      <c r="C385" s="21"/>
+      <c r="C385" s="19"/>
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="12"/>
@@ -12081,7 +12072,7 @@
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
-      <c r="C386" s="21"/>
+      <c r="C386" s="19"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="12"/>
@@ -12110,7 +12101,7 @@
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
-      <c r="C387" s="21"/>
+      <c r="C387" s="19"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="12"/>
@@ -12139,7 +12130,7 @@
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
-      <c r="C388" s="21"/>
+      <c r="C388" s="19"/>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="12"/>
@@ -12168,7 +12159,7 @@
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
-      <c r="C389" s="21"/>
+      <c r="C389" s="19"/>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="12"/>
@@ -12197,7 +12188,7 @@
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
-      <c r="C390" s="21"/>
+      <c r="C390" s="19"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="12"/>
@@ -12226,7 +12217,7 @@
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
-      <c r="C391" s="21"/>
+      <c r="C391" s="19"/>
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="12"/>
@@ -12255,7 +12246,7 @@
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
-      <c r="C392" s="21"/>
+      <c r="C392" s="19"/>
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="12"/>
@@ -12284,7 +12275,7 @@
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
-      <c r="C393" s="21"/>
+      <c r="C393" s="19"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="12"/>
@@ -12313,7 +12304,7 @@
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
-      <c r="C394" s="21"/>
+      <c r="C394" s="19"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="12"/>
@@ -12342,7 +12333,7 @@
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
-      <c r="C395" s="21"/>
+      <c r="C395" s="19"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="12"/>
@@ -12371,7 +12362,7 @@
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
-      <c r="C396" s="21"/>
+      <c r="C396" s="19"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="12"/>
@@ -12400,7 +12391,7 @@
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
-      <c r="C397" s="21"/>
+      <c r="C397" s="19"/>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="12"/>
@@ -12429,7 +12420,7 @@
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
-      <c r="C398" s="21"/>
+      <c r="C398" s="19"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="12"/>
@@ -12458,7 +12449,7 @@
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
-      <c r="C399" s="21"/>
+      <c r="C399" s="19"/>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="12"/>
@@ -12487,7 +12478,7 @@
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
-      <c r="C400" s="21"/>
+      <c r="C400" s="19"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="12"/>
@@ -12516,7 +12507,7 @@
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
-      <c r="C401" s="21"/>
+      <c r="C401" s="19"/>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="12"/>
@@ -12545,7 +12536,7 @@
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
-      <c r="C402" s="21"/>
+      <c r="C402" s="19"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="12"/>
@@ -12574,7 +12565,7 @@
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
-      <c r="C403" s="21"/>
+      <c r="C403" s="19"/>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="12"/>
@@ -12603,7 +12594,7 @@
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
-      <c r="C404" s="21"/>
+      <c r="C404" s="19"/>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="12"/>
@@ -12632,7 +12623,7 @@
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
-      <c r="C405" s="21"/>
+      <c r="C405" s="19"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="12"/>
@@ -12661,7 +12652,7 @@
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
-      <c r="C406" s="21"/>
+      <c r="C406" s="19"/>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="12"/>
@@ -12690,7 +12681,7 @@
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
-      <c r="C407" s="21"/>
+      <c r="C407" s="19"/>
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="12"/>
@@ -12719,7 +12710,7 @@
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
-      <c r="C408" s="21"/>
+      <c r="C408" s="19"/>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="12"/>
@@ -12748,7 +12739,7 @@
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
-      <c r="C409" s="21"/>
+      <c r="C409" s="19"/>
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="12"/>
@@ -12777,7 +12768,7 @@
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
-      <c r="C410" s="21"/>
+      <c r="C410" s="19"/>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="12"/>
@@ -12806,7 +12797,7 @@
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
-      <c r="C411" s="21"/>
+      <c r="C411" s="19"/>
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="12"/>
@@ -12835,7 +12826,7 @@
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
-      <c r="C412" s="21"/>
+      <c r="C412" s="19"/>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="12"/>
@@ -12864,7 +12855,7 @@
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
-      <c r="C413" s="21"/>
+      <c r="C413" s="19"/>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="12"/>
@@ -12893,7 +12884,7 @@
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
-      <c r="C414" s="21"/>
+      <c r="C414" s="19"/>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="12"/>
@@ -12922,7 +12913,7 @@
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
-      <c r="C415" s="21"/>
+      <c r="C415" s="19"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="12"/>
@@ -12951,7 +12942,7 @@
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
-      <c r="C416" s="21"/>
+      <c r="C416" s="19"/>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="12"/>
@@ -12980,7 +12971,7 @@
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
-      <c r="C417" s="21"/>
+      <c r="C417" s="19"/>
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="12"/>
@@ -13009,7 +13000,7 @@
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
-      <c r="C418" s="21"/>
+      <c r="C418" s="19"/>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="12"/>
@@ -13038,7 +13029,7 @@
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
-      <c r="C419" s="21"/>
+      <c r="C419" s="19"/>
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="12"/>
@@ -13067,7 +13058,7 @@
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
-      <c r="C420" s="21"/>
+      <c r="C420" s="19"/>
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="12"/>
@@ -13096,7 +13087,7 @@
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
-      <c r="C421" s="21"/>
+      <c r="C421" s="19"/>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="12"/>
@@ -13125,7 +13116,7 @@
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
-      <c r="C422" s="21"/>
+      <c r="C422" s="19"/>
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="12"/>
@@ -13154,7 +13145,7 @@
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
-      <c r="C423" s="21"/>
+      <c r="C423" s="19"/>
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="12"/>
@@ -13183,7 +13174,7 @@
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
-      <c r="C424" s="21"/>
+      <c r="C424" s="19"/>
       <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="12"/>
@@ -13212,7 +13203,7 @@
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
-      <c r="C425" s="21"/>
+      <c r="C425" s="19"/>
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="12"/>
@@ -13241,7 +13232,7 @@
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
-      <c r="C426" s="21"/>
+      <c r="C426" s="19"/>
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="12"/>
@@ -13270,7 +13261,7 @@
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
-      <c r="C427" s="21"/>
+      <c r="C427" s="19"/>
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="12"/>
@@ -13299,7 +13290,7 @@
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
-      <c r="C428" s="21"/>
+      <c r="C428" s="19"/>
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="12"/>
@@ -13328,7 +13319,7 @@
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="21"/>
+      <c r="C429" s="19"/>
       <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="12"/>
@@ -13357,7 +13348,7 @@
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="21"/>
+      <c r="C430" s="19"/>
       <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="12"/>
@@ -13386,7 +13377,7 @@
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="21"/>
+      <c r="C431" s="19"/>
       <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="12"/>
@@ -13415,7 +13406,7 @@
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
-      <c r="C432" s="21"/>
+      <c r="C432" s="19"/>
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="12"/>
@@ -13444,7 +13435,7 @@
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
-      <c r="C433" s="21"/>
+      <c r="C433" s="19"/>
       <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="12"/>
@@ -13473,7 +13464,7 @@
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
-      <c r="C434" s="21"/>
+      <c r="C434" s="19"/>
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="12"/>
@@ -13502,7 +13493,7 @@
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
-      <c r="C435" s="21"/>
+      <c r="C435" s="19"/>
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="12"/>
@@ -13531,7 +13522,7 @@
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
-      <c r="C436" s="21"/>
+      <c r="C436" s="19"/>
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="12"/>
@@ -13560,7 +13551,7 @@
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
-      <c r="C437" s="21"/>
+      <c r="C437" s="19"/>
       <c r="D437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="12"/>
@@ -13589,7 +13580,7 @@
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
-      <c r="C438" s="21"/>
+      <c r="C438" s="19"/>
       <c r="D438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="12"/>
@@ -13618,7 +13609,7 @@
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
-      <c r="C439" s="21"/>
+      <c r="C439" s="19"/>
       <c r="D439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="12"/>
@@ -13647,7 +13638,7 @@
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
-      <c r="C440" s="21"/>
+      <c r="C440" s="19"/>
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="12"/>
@@ -13676,7 +13667,7 @@
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
-      <c r="C441" s="21"/>
+      <c r="C441" s="19"/>
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="12"/>
@@ -13705,7 +13696,7 @@
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
-      <c r="C442" s="21"/>
+      <c r="C442" s="19"/>
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="12"/>
@@ -13734,7 +13725,7 @@
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
-      <c r="C443" s="21"/>
+      <c r="C443" s="19"/>
       <c r="D443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="12"/>
@@ -13763,7 +13754,7 @@
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
-      <c r="C444" s="21"/>
+      <c r="C444" s="19"/>
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="12"/>
@@ -13792,7 +13783,7 @@
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
-      <c r="C445" s="21"/>
+      <c r="C445" s="19"/>
       <c r="D445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="12"/>
@@ -13821,7 +13812,7 @@
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
-      <c r="C446" s="21"/>
+      <c r="C446" s="19"/>
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="12"/>
@@ -13850,7 +13841,7 @@
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
-      <c r="C447" s="21"/>
+      <c r="C447" s="19"/>
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="12"/>
@@ -13879,7 +13870,7 @@
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
-      <c r="C448" s="21"/>
+      <c r="C448" s="19"/>
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="12"/>
@@ -13908,7 +13899,7 @@
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
-      <c r="C449" s="21"/>
+      <c r="C449" s="19"/>
       <c r="D449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="12"/>
@@ -13937,7 +13928,7 @@
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
-      <c r="C450" s="21"/>
+      <c r="C450" s="19"/>
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="12"/>
@@ -13966,7 +13957,7 @@
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
-      <c r="C451" s="21"/>
+      <c r="C451" s="19"/>
       <c r="D451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="12"/>
@@ -13995,7 +13986,7 @@
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
-      <c r="C452" s="21"/>
+      <c r="C452" s="19"/>
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="12"/>
@@ -14024,7 +14015,7 @@
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
-      <c r="C453" s="21"/>
+      <c r="C453" s="19"/>
       <c r="D453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="12"/>
@@ -14053,7 +14044,7 @@
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
-      <c r="C454" s="21"/>
+      <c r="C454" s="19"/>
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="12"/>
@@ -14082,7 +14073,7 @@
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
-      <c r="C455" s="21"/>
+      <c r="C455" s="19"/>
       <c r="D455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="12"/>
@@ -14111,7 +14102,7 @@
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
-      <c r="C456" s="21"/>
+      <c r="C456" s="19"/>
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="12"/>
@@ -14140,7 +14131,7 @@
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
-      <c r="C457" s="21"/>
+      <c r="C457" s="19"/>
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="12"/>
@@ -14169,7 +14160,7 @@
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
-      <c r="C458" s="21"/>
+      <c r="C458" s="19"/>
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="12"/>
@@ -14198,7 +14189,7 @@
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
-      <c r="C459" s="21"/>
+      <c r="C459" s="19"/>
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="12"/>
@@ -14227,7 +14218,7 @@
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
-      <c r="C460" s="21"/>
+      <c r="C460" s="19"/>
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="12"/>
@@ -14256,7 +14247,7 @@
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
-      <c r="C461" s="21"/>
+      <c r="C461" s="19"/>
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="12"/>
@@ -14285,7 +14276,7 @@
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
-      <c r="C462" s="21"/>
+      <c r="C462" s="19"/>
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="12"/>
@@ -14314,7 +14305,7 @@
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
-      <c r="C463" s="21"/>
+      <c r="C463" s="19"/>
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="12"/>
@@ -14343,7 +14334,7 @@
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
-      <c r="C464" s="21"/>
+      <c r="C464" s="19"/>
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="12"/>
@@ -14372,7 +14363,7 @@
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
-      <c r="C465" s="21"/>
+      <c r="C465" s="19"/>
       <c r="D465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="12"/>
@@ -14401,7 +14392,7 @@
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
-      <c r="C466" s="21"/>
+      <c r="C466" s="19"/>
       <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="12"/>
@@ -14430,7 +14421,7 @@
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
-      <c r="C467" s="21"/>
+      <c r="C467" s="19"/>
       <c r="D467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="12"/>
@@ -14459,7 +14450,7 @@
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
-      <c r="C468" s="21"/>
+      <c r="C468" s="19"/>
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="12"/>
@@ -14488,7 +14479,7 @@
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
-      <c r="C469" s="21"/>
+      <c r="C469" s="19"/>
       <c r="D469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="12"/>
@@ -14517,7 +14508,7 @@
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
-      <c r="C470" s="21"/>
+      <c r="C470" s="19"/>
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="12"/>
@@ -14546,7 +14537,7 @@
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
-      <c r="C471" s="21"/>
+      <c r="C471" s="19"/>
       <c r="D471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="12"/>
@@ -14575,7 +14566,7 @@
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
-      <c r="C472" s="21"/>
+      <c r="C472" s="19"/>
       <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="12"/>
@@ -14604,7 +14595,7 @@
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
-      <c r="C473" s="21"/>
+      <c r="C473" s="19"/>
       <c r="D473" s="6"/>
       <c r="E473" s="6"/>
       <c r="F473" s="12"/>
@@ -14633,7 +14624,7 @@
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
-      <c r="C474" s="21"/>
+      <c r="C474" s="19"/>
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="12"/>
@@ -14662,7 +14653,7 @@
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
-      <c r="C475" s="21"/>
+      <c r="C475" s="19"/>
       <c r="D475" s="6"/>
       <c r="E475" s="6"/>
       <c r="F475" s="12"/>
@@ -14691,7 +14682,7 @@
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
-      <c r="C476" s="21"/>
+      <c r="C476" s="19"/>
       <c r="D476" s="6"/>
       <c r="E476" s="6"/>
       <c r="F476" s="12"/>
@@ -14720,7 +14711,7 @@
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
-      <c r="C477" s="21"/>
+      <c r="C477" s="19"/>
       <c r="D477" s="6"/>
       <c r="E477" s="6"/>
       <c r="F477" s="12"/>
@@ -14749,7 +14740,7 @@
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
-      <c r="C478" s="21"/>
+      <c r="C478" s="19"/>
       <c r="D478" s="6"/>
       <c r="E478" s="6"/>
       <c r="F478" s="12"/>
@@ -14778,7 +14769,7 @@
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
-      <c r="C479" s="21"/>
+      <c r="C479" s="19"/>
       <c r="D479" s="6"/>
       <c r="E479" s="6"/>
       <c r="F479" s="12"/>
@@ -14807,7 +14798,7 @@
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
-      <c r="C480" s="21"/>
+      <c r="C480" s="19"/>
       <c r="D480" s="6"/>
       <c r="E480" s="6"/>
       <c r="F480" s="12"/>
@@ -14836,7 +14827,7 @@
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
-      <c r="C481" s="21"/>
+      <c r="C481" s="19"/>
       <c r="D481" s="6"/>
       <c r="E481" s="6"/>
       <c r="F481" s="12"/>
@@ -14865,7 +14856,7 @@
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
-      <c r="C482" s="21"/>
+      <c r="C482" s="19"/>
       <c r="D482" s="6"/>
       <c r="E482" s="6"/>
       <c r="F482" s="12"/>
@@ -14894,7 +14885,7 @@
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
-      <c r="C483" s="21"/>
+      <c r="C483" s="19"/>
       <c r="D483" s="6"/>
       <c r="E483" s="6"/>
       <c r="F483" s="12"/>
@@ -14923,7 +14914,7 @@
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
-      <c r="C484" s="21"/>
+      <c r="C484" s="19"/>
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="12"/>
@@ -14952,7 +14943,7 @@
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
-      <c r="C485" s="21"/>
+      <c r="C485" s="19"/>
       <c r="D485" s="6"/>
       <c r="E485" s="6"/>
       <c r="F485" s="12"/>
@@ -14981,7 +14972,7 @@
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
-      <c r="C486" s="21"/>
+      <c r="C486" s="19"/>
       <c r="D486" s="6"/>
       <c r="E486" s="6"/>
       <c r="F486" s="12"/>
@@ -15010,7 +15001,7 @@
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
-      <c r="C487" s="21"/>
+      <c r="C487" s="19"/>
       <c r="D487" s="6"/>
       <c r="E487" s="6"/>
       <c r="F487" s="12"/>
@@ -15039,7 +15030,7 @@
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
-      <c r="C488" s="21"/>
+      <c r="C488" s="19"/>
       <c r="D488" s="6"/>
       <c r="E488" s="6"/>
       <c r="F488" s="12"/>
@@ -15068,7 +15059,7 @@
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
-      <c r="C489" s="21"/>
+      <c r="C489" s="19"/>
       <c r="D489" s="6"/>
       <c r="E489" s="6"/>
       <c r="F489" s="12"/>
@@ -15097,7 +15088,7 @@
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
-      <c r="C490" s="21"/>
+      <c r="C490" s="19"/>
       <c r="D490" s="6"/>
       <c r="E490" s="6"/>
       <c r="F490" s="12"/>
@@ -15126,7 +15117,7 @@
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
-      <c r="C491" s="21"/>
+      <c r="C491" s="19"/>
       <c r="D491" s="6"/>
       <c r="E491" s="6"/>
       <c r="F491" s="12"/>
@@ -15155,7 +15146,7 @@
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
-      <c r="C492" s="21"/>
+      <c r="C492" s="19"/>
       <c r="D492" s="6"/>
       <c r="E492" s="6"/>
       <c r="F492" s="12"/>
@@ -15184,7 +15175,7 @@
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
-      <c r="C493" s="21"/>
+      <c r="C493" s="19"/>
       <c r="D493" s="6"/>
       <c r="E493" s="6"/>
       <c r="F493" s="12"/>
@@ -15213,7 +15204,7 @@
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
-      <c r="C494" s="21"/>
+      <c r="C494" s="19"/>
       <c r="D494" s="6"/>
       <c r="E494" s="6"/>
       <c r="F494" s="12"/>
@@ -15242,7 +15233,7 @@
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
-      <c r="C495" s="21"/>
+      <c r="C495" s="19"/>
       <c r="D495" s="6"/>
       <c r="E495" s="6"/>
       <c r="F495" s="12"/>
@@ -15271,7 +15262,7 @@
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
-      <c r="C496" s="21"/>
+      <c r="C496" s="19"/>
       <c r="D496" s="6"/>
       <c r="E496" s="6"/>
       <c r="F496" s="12"/>
@@ -15300,7 +15291,7 @@
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
-      <c r="C497" s="21"/>
+      <c r="C497" s="19"/>
       <c r="D497" s="6"/>
       <c r="E497" s="6"/>
       <c r="F497" s="12"/>
@@ -15329,7 +15320,7 @@
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
-      <c r="C498" s="21"/>
+      <c r="C498" s="19"/>
       <c r="D498" s="6"/>
       <c r="E498" s="6"/>
       <c r="F498" s="12"/>
@@ -15358,7 +15349,7 @@
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
-      <c r="C499" s="21"/>
+      <c r="C499" s="19"/>
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="12"/>
@@ -15387,7 +15378,7 @@
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
-      <c r="C500" s="21"/>
+      <c r="C500" s="19"/>
       <c r="D500" s="6"/>
       <c r="E500" s="6"/>
       <c r="F500" s="12"/>
@@ -15416,7 +15407,7 @@
     <row r="501" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
-      <c r="C501" s="21"/>
+      <c r="C501" s="19"/>
       <c r="D501" s="6"/>
       <c r="E501" s="6"/>
       <c r="F501" s="12"/>
@@ -15445,7 +15436,7 @@
     <row r="502" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
-      <c r="C502" s="21"/>
+      <c r="C502" s="19"/>
       <c r="D502" s="6"/>
       <c r="E502" s="6"/>
       <c r="F502" s="12"/>
@@ -15474,7 +15465,7 @@
     <row r="503" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
-      <c r="C503" s="21"/>
+      <c r="C503" s="19"/>
       <c r="D503" s="6"/>
       <c r="E503" s="6"/>
       <c r="F503" s="12"/>
@@ -15503,7 +15494,7 @@
     <row r="504" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
-      <c r="C504" s="21"/>
+      <c r="C504" s="19"/>
       <c r="D504" s="6"/>
       <c r="E504" s="6"/>
       <c r="F504" s="12"/>
@@ -15532,7 +15523,7 @@
     <row r="505" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
-      <c r="C505" s="21"/>
+      <c r="C505" s="19"/>
       <c r="D505" s="6"/>
       <c r="E505" s="6"/>
       <c r="F505" s="12"/>
@@ -15561,7 +15552,7 @@
     <row r="506" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
-      <c r="C506" s="21"/>
+      <c r="C506" s="19"/>
       <c r="D506" s="6"/>
       <c r="E506" s="6"/>
       <c r="F506" s="12"/>
@@ -15590,7 +15581,7 @@
     <row r="507" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
-      <c r="C507" s="21"/>
+      <c r="C507" s="19"/>
       <c r="D507" s="6"/>
       <c r="E507" s="6"/>
       <c r="F507" s="12"/>
@@ -15619,7 +15610,7 @@
     <row r="508" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
-      <c r="C508" s="21"/>
+      <c r="C508" s="19"/>
       <c r="D508" s="6"/>
       <c r="E508" s="6"/>
       <c r="F508" s="12"/>
@@ -15648,7 +15639,7 @@
     <row r="509" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
-      <c r="C509" s="21"/>
+      <c r="C509" s="19"/>
       <c r="D509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="12"/>
@@ -15677,7 +15668,7 @@
     <row r="510" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
-      <c r="C510" s="21"/>
+      <c r="C510" s="19"/>
       <c r="D510" s="6"/>
       <c r="E510" s="6"/>
       <c r="F510" s="12"/>
@@ -15706,7 +15697,7 @@
     <row r="511" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
-      <c r="C511" s="21"/>
+      <c r="C511" s="19"/>
       <c r="D511" s="6"/>
       <c r="E511" s="6"/>
       <c r="F511" s="12"/>
@@ -15735,7 +15726,7 @@
     <row r="512" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
-      <c r="C512" s="21"/>
+      <c r="C512" s="19"/>
       <c r="D512" s="6"/>
       <c r="E512" s="6"/>
       <c r="F512" s="12"/>
@@ -15764,7 +15755,7 @@
     <row r="513" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
-      <c r="C513" s="21"/>
+      <c r="C513" s="19"/>
       <c r="D513" s="6"/>
       <c r="E513" s="6"/>
       <c r="F513" s="12"/>
@@ -15793,7 +15784,7 @@
     <row r="514" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
-      <c r="C514" s="21"/>
+      <c r="C514" s="19"/>
       <c r="D514" s="6"/>
       <c r="E514" s="6"/>
       <c r="F514" s="12"/>
@@ -15822,7 +15813,7 @@
     <row r="515" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
-      <c r="C515" s="21"/>
+      <c r="C515" s="19"/>
       <c r="D515" s="6"/>
       <c r="E515" s="6"/>
       <c r="F515" s="12"/>
@@ -15851,7 +15842,7 @@
     <row r="516" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
-      <c r="C516" s="21"/>
+      <c r="C516" s="19"/>
       <c r="D516" s="6"/>
       <c r="E516" s="6"/>
       <c r="F516" s="12"/>
@@ -15880,7 +15871,7 @@
     <row r="517" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
-      <c r="C517" s="21"/>
+      <c r="C517" s="19"/>
       <c r="D517" s="6"/>
       <c r="E517" s="6"/>
       <c r="F517" s="12"/>
@@ -15909,7 +15900,7 @@
     <row r="518" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
-      <c r="C518" s="21"/>
+      <c r="C518" s="19"/>
       <c r="D518" s="6"/>
       <c r="E518" s="6"/>
       <c r="F518" s="12"/>
@@ -15938,7 +15929,7 @@
     <row r="519" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
-      <c r="C519" s="21"/>
+      <c r="C519" s="19"/>
       <c r="D519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="12"/>
@@ -15967,7 +15958,7 @@
     <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
-      <c r="C520" s="21"/>
+      <c r="C520" s="19"/>
       <c r="D520" s="6"/>
       <c r="E520" s="6"/>
       <c r="F520" s="12"/>
@@ -15996,7 +15987,7 @@
     <row r="521" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
-      <c r="C521" s="21"/>
+      <c r="C521" s="19"/>
       <c r="D521" s="6"/>
       <c r="E521" s="6"/>
       <c r="F521" s="12"/>
@@ -16025,7 +16016,7 @@
     <row r="522" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
-      <c r="C522" s="21"/>
+      <c r="C522" s="19"/>
       <c r="D522" s="6"/>
       <c r="E522" s="6"/>
       <c r="F522" s="12"/>
@@ -16054,7 +16045,7 @@
     <row r="523" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
-      <c r="C523" s="21"/>
+      <c r="C523" s="19"/>
       <c r="D523" s="6"/>
       <c r="E523" s="6"/>
       <c r="F523" s="12"/>
@@ -16083,7 +16074,7 @@
     <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
-      <c r="C524" s="21"/>
+      <c r="C524" s="19"/>
       <c r="D524" s="6"/>
       <c r="E524" s="6"/>
       <c r="F524" s="12"/>
@@ -16112,7 +16103,7 @@
     <row r="525" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
-      <c r="C525" s="21"/>
+      <c r="C525" s="19"/>
       <c r="D525" s="6"/>
       <c r="E525" s="6"/>
       <c r="F525" s="12"/>
@@ -16141,7 +16132,7 @@
     <row r="526" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
-      <c r="C526" s="21"/>
+      <c r="C526" s="19"/>
       <c r="D526" s="6"/>
       <c r="E526" s="6"/>
       <c r="F526" s="12"/>
@@ -16170,7 +16161,7 @@
     <row r="527" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
-      <c r="C527" s="21"/>
+      <c r="C527" s="19"/>
       <c r="D527" s="6"/>
       <c r="E527" s="6"/>
       <c r="F527" s="12"/>
@@ -16199,7 +16190,7 @@
     <row r="528" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
-      <c r="C528" s="21"/>
+      <c r="C528" s="19"/>
       <c r="D528" s="6"/>
       <c r="E528" s="6"/>
       <c r="F528" s="12"/>
@@ -16228,7 +16219,7 @@
     <row r="529" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
-      <c r="C529" s="21"/>
+      <c r="C529" s="19"/>
       <c r="D529" s="6"/>
       <c r="E529" s="6"/>
       <c r="F529" s="12"/>
@@ -16257,7 +16248,7 @@
     <row r="530" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
-      <c r="C530" s="21"/>
+      <c r="C530" s="19"/>
       <c r="D530" s="6"/>
       <c r="E530" s="6"/>
       <c r="F530" s="12"/>
@@ -16286,7 +16277,7 @@
     <row r="531" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
-      <c r="C531" s="21"/>
+      <c r="C531" s="19"/>
       <c r="D531" s="6"/>
       <c r="E531" s="6"/>
       <c r="F531" s="12"/>
@@ -16315,7 +16306,7 @@
     <row r="532" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
-      <c r="C532" s="21"/>
+      <c r="C532" s="19"/>
       <c r="D532" s="6"/>
       <c r="E532" s="6"/>
       <c r="F532" s="12"/>
@@ -16344,7 +16335,7 @@
     <row r="533" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
-      <c r="C533" s="21"/>
+      <c r="C533" s="19"/>
       <c r="D533" s="6"/>
       <c r="E533" s="6"/>
       <c r="F533" s="12"/>
@@ -16373,7 +16364,7 @@
     <row r="534" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
-      <c r="C534" s="21"/>
+      <c r="C534" s="19"/>
       <c r="D534" s="6"/>
       <c r="E534" s="6"/>
       <c r="F534" s="12"/>
@@ -16402,7 +16393,7 @@
     <row r="535" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
-      <c r="C535" s="21"/>
+      <c r="C535" s="19"/>
       <c r="D535" s="6"/>
       <c r="E535" s="6"/>
       <c r="F535" s="12"/>
@@ -16431,7 +16422,7 @@
     <row r="536" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
-      <c r="C536" s="21"/>
+      <c r="C536" s="19"/>
       <c r="D536" s="6"/>
       <c r="E536" s="6"/>
       <c r="F536" s="12"/>
@@ -16460,7 +16451,7 @@
     <row r="537" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
-      <c r="C537" s="21"/>
+      <c r="C537" s="19"/>
       <c r="D537" s="6"/>
       <c r="E537" s="6"/>
       <c r="F537" s="12"/>
@@ -16489,7 +16480,7 @@
     <row r="538" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
-      <c r="C538" s="21"/>
+      <c r="C538" s="19"/>
       <c r="D538" s="6"/>
       <c r="E538" s="6"/>
       <c r="F538" s="12"/>
@@ -16518,7 +16509,7 @@
     <row r="539" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
-      <c r="C539" s="21"/>
+      <c r="C539" s="19"/>
       <c r="D539" s="6"/>
       <c r="E539" s="6"/>
       <c r="F539" s="12"/>
@@ -16547,7 +16538,7 @@
     <row r="540" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
-      <c r="C540" s="21"/>
+      <c r="C540" s="19"/>
       <c r="D540" s="6"/>
       <c r="E540" s="6"/>
       <c r="F540" s="12"/>
@@ -16576,7 +16567,7 @@
     <row r="541" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
-      <c r="C541" s="21"/>
+      <c r="C541" s="19"/>
       <c r="D541" s="6"/>
       <c r="E541" s="6"/>
       <c r="F541" s="12"/>
@@ -16605,7 +16596,7 @@
     <row r="542" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
-      <c r="C542" s="21"/>
+      <c r="C542" s="19"/>
       <c r="D542" s="6"/>
       <c r="E542" s="6"/>
       <c r="F542" s="12"/>
@@ -16634,7 +16625,7 @@
     <row r="543" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
-      <c r="C543" s="21"/>
+      <c r="C543" s="19"/>
       <c r="D543" s="6"/>
       <c r="E543" s="6"/>
       <c r="F543" s="12"/>
@@ -16663,7 +16654,7 @@
     <row r="544" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
-      <c r="C544" s="21"/>
+      <c r="C544" s="19"/>
       <c r="D544" s="6"/>
       <c r="E544" s="6"/>
       <c r="F544" s="12"/>
@@ -16692,7 +16683,7 @@
     <row r="545" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
-      <c r="C545" s="21"/>
+      <c r="C545" s="19"/>
       <c r="D545" s="6"/>
       <c r="E545" s="6"/>
       <c r="F545" s="12"/>
@@ -16721,7 +16712,7 @@
     <row r="546" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
-      <c r="C546" s="21"/>
+      <c r="C546" s="19"/>
       <c r="D546" s="6"/>
       <c r="E546" s="6"/>
       <c r="F546" s="12"/>
@@ -16750,7 +16741,7 @@
     <row r="547" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
-      <c r="C547" s="21"/>
+      <c r="C547" s="19"/>
       <c r="D547" s="6"/>
       <c r="E547" s="6"/>
       <c r="F547" s="12"/>
@@ -16779,7 +16770,7 @@
     <row r="548" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
-      <c r="C548" s="21"/>
+      <c r="C548" s="19"/>
       <c r="D548" s="6"/>
       <c r="E548" s="6"/>
       <c r="F548" s="12"/>
@@ -16808,7 +16799,7 @@
     <row r="549" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
-      <c r="C549" s="21"/>
+      <c r="C549" s="19"/>
       <c r="D549" s="6"/>
       <c r="E549" s="6"/>
       <c r="F549" s="12"/>
@@ -16837,7 +16828,7 @@
     <row r="550" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
-      <c r="C550" s="21"/>
+      <c r="C550" s="19"/>
       <c r="D550" s="6"/>
       <c r="E550" s="6"/>
       <c r="F550" s="12"/>
@@ -16866,7 +16857,7 @@
     <row r="551" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
-      <c r="C551" s="21"/>
+      <c r="C551" s="19"/>
       <c r="D551" s="6"/>
       <c r="E551" s="6"/>
       <c r="F551" s="12"/>
@@ -16895,7 +16886,7 @@
     <row r="552" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
-      <c r="C552" s="21"/>
+      <c r="C552" s="19"/>
       <c r="D552" s="6"/>
       <c r="E552" s="6"/>
       <c r="F552" s="12"/>
@@ -16924,7 +16915,7 @@
     <row r="553" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
-      <c r="C553" s="21"/>
+      <c r="C553" s="19"/>
       <c r="D553" s="6"/>
       <c r="E553" s="6"/>
       <c r="F553" s="12"/>
@@ -16953,7 +16944,7 @@
     <row r="554" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
-      <c r="C554" s="21"/>
+      <c r="C554" s="19"/>
       <c r="D554" s="6"/>
       <c r="E554" s="6"/>
       <c r="F554" s="12"/>
@@ -16982,7 +16973,7 @@
     <row r="555" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
-      <c r="C555" s="21"/>
+      <c r="C555" s="19"/>
       <c r="D555" s="6"/>
       <c r="E555" s="6"/>
       <c r="F555" s="12"/>
@@ -17011,7 +17002,7 @@
     <row r="556" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
-      <c r="C556" s="21"/>
+      <c r="C556" s="19"/>
       <c r="D556" s="6"/>
       <c r="E556" s="6"/>
       <c r="F556" s="12"/>
@@ -17040,7 +17031,7 @@
     <row r="557" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
-      <c r="C557" s="21"/>
+      <c r="C557" s="19"/>
       <c r="D557" s="6"/>
       <c r="E557" s="6"/>
       <c r="F557" s="12"/>
@@ -17069,7 +17060,7 @@
     <row r="558" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
-      <c r="C558" s="21"/>
+      <c r="C558" s="19"/>
       <c r="D558" s="6"/>
       <c r="E558" s="6"/>
       <c r="F558" s="12"/>
@@ -17098,7 +17089,7 @@
     <row r="559" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
-      <c r="C559" s="21"/>
+      <c r="C559" s="19"/>
       <c r="D559" s="6"/>
       <c r="E559" s="6"/>
       <c r="F559" s="12"/>
@@ -17127,7 +17118,7 @@
     <row r="560" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
-      <c r="C560" s="21"/>
+      <c r="C560" s="19"/>
       <c r="D560" s="6"/>
       <c r="E560" s="6"/>
       <c r="F560" s="12"/>
@@ -17156,7 +17147,7 @@
     <row r="561" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
-      <c r="C561" s="21"/>
+      <c r="C561" s="19"/>
       <c r="D561" s="6"/>
       <c r="E561" s="6"/>
       <c r="F561" s="12"/>
@@ -17185,7 +17176,7 @@
     <row r="562" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
-      <c r="C562" s="21"/>
+      <c r="C562" s="19"/>
       <c r="D562" s="6"/>
       <c r="E562" s="6"/>
       <c r="F562" s="12"/>
@@ -17214,7 +17205,7 @@
     <row r="563" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
-      <c r="C563" s="21"/>
+      <c r="C563" s="19"/>
       <c r="D563" s="6"/>
       <c r="E563" s="6"/>
       <c r="F563" s="12"/>
@@ -17243,7 +17234,7 @@
     <row r="564" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
-      <c r="C564" s="21"/>
+      <c r="C564" s="19"/>
       <c r="D564" s="6"/>
       <c r="E564" s="6"/>
       <c r="F564" s="12"/>
@@ -17272,7 +17263,7 @@
     <row r="565" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
-      <c r="C565" s="21"/>
+      <c r="C565" s="19"/>
       <c r="D565" s="6"/>
       <c r="E565" s="6"/>
       <c r="F565" s="12"/>
@@ -17301,7 +17292,7 @@
     <row r="566" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
-      <c r="C566" s="21"/>
+      <c r="C566" s="19"/>
       <c r="D566" s="6"/>
       <c r="E566" s="6"/>
       <c r="F566" s="12"/>
@@ -17330,7 +17321,7 @@
     <row r="567" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
-      <c r="C567" s="21"/>
+      <c r="C567" s="19"/>
       <c r="D567" s="6"/>
       <c r="E567" s="6"/>
       <c r="F567" s="12"/>
@@ -17359,7 +17350,7 @@
     <row r="568" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
-      <c r="C568" s="21"/>
+      <c r="C568" s="19"/>
       <c r="D568" s="6"/>
       <c r="E568" s="6"/>
       <c r="F568" s="12"/>
@@ -17388,7 +17379,7 @@
     <row r="569" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
-      <c r="C569" s="21"/>
+      <c r="C569" s="19"/>
       <c r="D569" s="6"/>
       <c r="E569" s="6"/>
       <c r="F569" s="12"/>
@@ -17417,7 +17408,7 @@
     <row r="570" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
-      <c r="C570" s="21"/>
+      <c r="C570" s="19"/>
       <c r="D570" s="6"/>
       <c r="E570" s="6"/>
       <c r="F570" s="12"/>
@@ -17446,7 +17437,7 @@
     <row r="571" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
-      <c r="C571" s="21"/>
+      <c r="C571" s="19"/>
       <c r="D571" s="6"/>
       <c r="E571" s="6"/>
       <c r="F571" s="12"/>
@@ -17475,7 +17466,7 @@
     <row r="572" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
-      <c r="C572" s="21"/>
+      <c r="C572" s="19"/>
       <c r="D572" s="6"/>
       <c r="E572" s="6"/>
       <c r="F572" s="12"/>
@@ -17504,7 +17495,7 @@
     <row r="573" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
-      <c r="C573" s="21"/>
+      <c r="C573" s="19"/>
       <c r="D573" s="6"/>
       <c r="E573" s="6"/>
       <c r="F573" s="12"/>
@@ -17533,7 +17524,7 @@
     <row r="574" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
-      <c r="C574" s="21"/>
+      <c r="C574" s="19"/>
       <c r="D574" s="6"/>
       <c r="E574" s="6"/>
       <c r="F574" s="12"/>
@@ -17562,7 +17553,7 @@
     <row r="575" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
-      <c r="C575" s="21"/>
+      <c r="C575" s="19"/>
       <c r="D575" s="6"/>
       <c r="E575" s="6"/>
       <c r="F575" s="12"/>
@@ -17591,7 +17582,7 @@
     <row r="576" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
-      <c r="C576" s="21"/>
+      <c r="C576" s="19"/>
       <c r="D576" s="6"/>
       <c r="E576" s="6"/>
       <c r="F576" s="12"/>
@@ -17620,7 +17611,7 @@
     <row r="577" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
-      <c r="C577" s="21"/>
+      <c r="C577" s="19"/>
       <c r="D577" s="6"/>
       <c r="E577" s="6"/>
       <c r="F577" s="12"/>
@@ -17649,7 +17640,7 @@
     <row r="578" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
-      <c r="C578" s="21"/>
+      <c r="C578" s="19"/>
       <c r="D578" s="6"/>
       <c r="E578" s="6"/>
       <c r="F578" s="12"/>
@@ -17678,7 +17669,7 @@
     <row r="579" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
-      <c r="C579" s="21"/>
+      <c r="C579" s="19"/>
       <c r="D579" s="6"/>
       <c r="E579" s="6"/>
       <c r="F579" s="12"/>
@@ -17707,7 +17698,7 @@
     <row r="580" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
-      <c r="C580" s="21"/>
+      <c r="C580" s="19"/>
       <c r="D580" s="6"/>
       <c r="E580" s="6"/>
       <c r="F580" s="12"/>
@@ -17736,7 +17727,7 @@
     <row r="581" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
-      <c r="C581" s="21"/>
+      <c r="C581" s="19"/>
       <c r="D581" s="6"/>
       <c r="E581" s="6"/>
       <c r="F581" s="12"/>
@@ -17765,7 +17756,7 @@
     <row r="582" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
-      <c r="C582" s="21"/>
+      <c r="C582" s="19"/>
       <c r="D582" s="6"/>
       <c r="E582" s="6"/>
       <c r="F582" s="12"/>
@@ -17794,7 +17785,7 @@
     <row r="583" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
-      <c r="C583" s="21"/>
+      <c r="C583" s="19"/>
       <c r="D583" s="6"/>
       <c r="E583" s="6"/>
       <c r="F583" s="12"/>
@@ -17823,7 +17814,7 @@
     <row r="584" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
-      <c r="C584" s="21"/>
+      <c r="C584" s="19"/>
       <c r="D584" s="6"/>
       <c r="E584" s="6"/>
       <c r="F584" s="12"/>
@@ -17852,7 +17843,7 @@
     <row r="585" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
-      <c r="C585" s="21"/>
+      <c r="C585" s="19"/>
       <c r="D585" s="6"/>
       <c r="E585" s="6"/>
       <c r="F585" s="12"/>
@@ -17881,7 +17872,7 @@
     <row r="586" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
-      <c r="C586" s="21"/>
+      <c r="C586" s="19"/>
       <c r="D586" s="6"/>
       <c r="E586" s="6"/>
       <c r="F586" s="12"/>
@@ -17910,7 +17901,7 @@
     <row r="587" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
-      <c r="C587" s="21"/>
+      <c r="C587" s="19"/>
       <c r="D587" s="6"/>
       <c r="E587" s="6"/>
       <c r="F587" s="12"/>
@@ -17939,7 +17930,7 @@
     <row r="588" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
-      <c r="C588" s="21"/>
+      <c r="C588" s="19"/>
       <c r="D588" s="6"/>
       <c r="E588" s="6"/>
       <c r="F588" s="12"/>
@@ -17968,7 +17959,7 @@
     <row r="589" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
-      <c r="C589" s="21"/>
+      <c r="C589" s="19"/>
       <c r="D589" s="6"/>
       <c r="E589" s="6"/>
       <c r="F589" s="12"/>
@@ -17997,7 +17988,7 @@
     <row r="590" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
-      <c r="C590" s="21"/>
+      <c r="C590" s="19"/>
       <c r="D590" s="6"/>
       <c r="E590" s="6"/>
       <c r="F590" s="12"/>
@@ -18026,7 +18017,7 @@
     <row r="591" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
-      <c r="C591" s="21"/>
+      <c r="C591" s="19"/>
       <c r="D591" s="6"/>
       <c r="E591" s="6"/>
       <c r="F591" s="12"/>
@@ -18055,7 +18046,7 @@
     <row r="592" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
-      <c r="C592" s="21"/>
+      <c r="C592" s="19"/>
       <c r="D592" s="6"/>
       <c r="E592" s="6"/>
       <c r="F592" s="12"/>
@@ -18084,7 +18075,7 @@
     <row r="593" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
-      <c r="C593" s="21"/>
+      <c r="C593" s="19"/>
       <c r="D593" s="6"/>
       <c r="E593" s="6"/>
       <c r="F593" s="12"/>
@@ -18113,7 +18104,7 @@
     <row r="594" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
-      <c r="C594" s="21"/>
+      <c r="C594" s="19"/>
       <c r="D594" s="6"/>
       <c r="E594" s="6"/>
       <c r="F594" s="12"/>
@@ -18142,7 +18133,7 @@
     <row r="595" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
-      <c r="C595" s="21"/>
+      <c r="C595" s="19"/>
       <c r="D595" s="6"/>
       <c r="E595" s="6"/>
       <c r="F595" s="12"/>
@@ -18171,7 +18162,7 @@
     <row r="596" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
-      <c r="C596" s="21"/>
+      <c r="C596" s="19"/>
       <c r="D596" s="6"/>
       <c r="E596" s="6"/>
       <c r="F596" s="12"/>
@@ -18200,7 +18191,7 @@
     <row r="597" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
-      <c r="C597" s="21"/>
+      <c r="C597" s="19"/>
       <c r="D597" s="6"/>
       <c r="E597" s="6"/>
       <c r="F597" s="12"/>
@@ -18229,7 +18220,7 @@
     <row r="598" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
-      <c r="C598" s="21"/>
+      <c r="C598" s="19"/>
       <c r="D598" s="6"/>
       <c r="E598" s="6"/>
       <c r="F598" s="12"/>
@@ -18258,7 +18249,7 @@
     <row r="599" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
-      <c r="C599" s="21"/>
+      <c r="C599" s="19"/>
       <c r="D599" s="6"/>
       <c r="E599" s="6"/>
       <c r="F599" s="12"/>
@@ -18287,7 +18278,7 @@
     <row r="600" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
-      <c r="C600" s="21"/>
+      <c r="C600" s="19"/>
       <c r="D600" s="6"/>
       <c r="E600" s="6"/>
       <c r="F600" s="12"/>
@@ -18316,7 +18307,7 @@
     <row r="601" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
-      <c r="C601" s="21"/>
+      <c r="C601" s="19"/>
       <c r="D601" s="6"/>
       <c r="E601" s="6"/>
       <c r="F601" s="12"/>
@@ -18345,7 +18336,7 @@
     <row r="602" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
-      <c r="C602" s="21"/>
+      <c r="C602" s="19"/>
       <c r="D602" s="6"/>
       <c r="E602" s="6"/>
       <c r="F602" s="12"/>
@@ -18374,7 +18365,7 @@
     <row r="603" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
-      <c r="C603" s="21"/>
+      <c r="C603" s="19"/>
       <c r="D603" s="6"/>
       <c r="E603" s="6"/>
       <c r="F603" s="12"/>
@@ -18403,7 +18394,7 @@
     <row r="604" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
-      <c r="C604" s="21"/>
+      <c r="C604" s="19"/>
       <c r="D604" s="6"/>
       <c r="E604" s="6"/>
       <c r="F604" s="12"/>
@@ -18432,7 +18423,7 @@
     <row r="605" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
-      <c r="C605" s="21"/>
+      <c r="C605" s="19"/>
       <c r="D605" s="6"/>
       <c r="E605" s="6"/>
       <c r="F605" s="12"/>
@@ -18461,7 +18452,7 @@
     <row r="606" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
-      <c r="C606" s="21"/>
+      <c r="C606" s="19"/>
       <c r="D606" s="6"/>
       <c r="E606" s="6"/>
       <c r="F606" s="12"/>
@@ -18490,7 +18481,7 @@
     <row r="607" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
-      <c r="C607" s="21"/>
+      <c r="C607" s="19"/>
       <c r="D607" s="6"/>
       <c r="E607" s="6"/>
       <c r="F607" s="12"/>
@@ -18519,7 +18510,7 @@
     <row r="608" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
-      <c r="C608" s="21"/>
+      <c r="C608" s="19"/>
       <c r="D608" s="6"/>
       <c r="E608" s="6"/>
       <c r="F608" s="12"/>
@@ -18548,7 +18539,7 @@
     <row r="609" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
-      <c r="C609" s="21"/>
+      <c r="C609" s="19"/>
       <c r="D609" s="6"/>
       <c r="E609" s="6"/>
       <c r="F609" s="12"/>
@@ -18577,7 +18568,7 @@
     <row r="610" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
-      <c r="C610" s="21"/>
+      <c r="C610" s="19"/>
       <c r="D610" s="6"/>
       <c r="E610" s="6"/>
       <c r="F610" s="12"/>
@@ -18606,7 +18597,7 @@
     <row r="611" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
-      <c r="C611" s="21"/>
+      <c r="C611" s="19"/>
       <c r="D611" s="6"/>
       <c r="E611" s="6"/>
       <c r="F611" s="12"/>
@@ -18635,7 +18626,7 @@
     <row r="612" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
-      <c r="C612" s="21"/>
+      <c r="C612" s="19"/>
       <c r="D612" s="6"/>
       <c r="E612" s="6"/>
       <c r="F612" s="12"/>
@@ -18664,7 +18655,7 @@
     <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
-      <c r="C613" s="21"/>
+      <c r="C613" s="19"/>
       <c r="D613" s="6"/>
       <c r="E613" s="6"/>
       <c r="F613" s="12"/>
@@ -18693,7 +18684,7 @@
     <row r="614" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
-      <c r="C614" s="21"/>
+      <c r="C614" s="19"/>
       <c r="D614" s="6"/>
       <c r="E614" s="6"/>
       <c r="F614" s="12"/>
@@ -18722,7 +18713,7 @@
     <row r="615" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
-      <c r="C615" s="21"/>
+      <c r="C615" s="19"/>
       <c r="D615" s="6"/>
       <c r="E615" s="6"/>
       <c r="F615" s="12"/>
@@ -18751,7 +18742,7 @@
     <row r="616" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
-      <c r="C616" s="21"/>
+      <c r="C616" s="19"/>
       <c r="D616" s="6"/>
       <c r="E616" s="6"/>
       <c r="F616" s="12"/>
@@ -18780,7 +18771,7 @@
     <row r="617" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
-      <c r="C617" s="21"/>
+      <c r="C617" s="19"/>
       <c r="D617" s="6"/>
       <c r="E617" s="6"/>
       <c r="F617" s="12"/>
@@ -18809,7 +18800,7 @@
     <row r="618" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
-      <c r="C618" s="21"/>
+      <c r="C618" s="19"/>
       <c r="D618" s="6"/>
       <c r="E618" s="6"/>
       <c r="F618" s="12"/>
@@ -18838,7 +18829,7 @@
     <row r="619" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
-      <c r="C619" s="21"/>
+      <c r="C619" s="19"/>
       <c r="D619" s="6"/>
       <c r="E619" s="6"/>
       <c r="F619" s="12"/>
@@ -18867,7 +18858,7 @@
     <row r="620" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
-      <c r="C620" s="21"/>
+      <c r="C620" s="19"/>
       <c r="D620" s="6"/>
       <c r="E620" s="6"/>
       <c r="F620" s="12"/>
@@ -18896,7 +18887,7 @@
     <row r="621" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
-      <c r="C621" s="21"/>
+      <c r="C621" s="19"/>
       <c r="D621" s="6"/>
       <c r="E621" s="6"/>
       <c r="F621" s="12"/>
@@ -18925,7 +18916,7 @@
     <row r="622" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
-      <c r="C622" s="21"/>
+      <c r="C622" s="19"/>
       <c r="D622" s="6"/>
       <c r="E622" s="6"/>
       <c r="F622" s="12"/>
@@ -18954,7 +18945,7 @@
     <row r="623" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
-      <c r="C623" s="21"/>
+      <c r="C623" s="19"/>
       <c r="D623" s="6"/>
       <c r="E623" s="6"/>
       <c r="F623" s="12"/>
@@ -18983,7 +18974,7 @@
     <row r="624" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
-      <c r="C624" s="21"/>
+      <c r="C624" s="19"/>
       <c r="D624" s="6"/>
       <c r="E624" s="6"/>
       <c r="F624" s="12"/>
@@ -19012,7 +19003,7 @@
     <row r="625" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
-      <c r="C625" s="21"/>
+      <c r="C625" s="19"/>
       <c r="D625" s="6"/>
       <c r="E625" s="6"/>
       <c r="F625" s="12"/>
@@ -19041,7 +19032,7 @@
     <row r="626" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
-      <c r="C626" s="21"/>
+      <c r="C626" s="19"/>
       <c r="D626" s="6"/>
       <c r="E626" s="6"/>
       <c r="F626" s="12"/>
@@ -19070,7 +19061,7 @@
     <row r="627" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
-      <c r="C627" s="21"/>
+      <c r="C627" s="19"/>
       <c r="D627" s="6"/>
       <c r="E627" s="6"/>
       <c r="F627" s="12"/>
@@ -19099,7 +19090,7 @@
     <row r="628" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
-      <c r="C628" s="21"/>
+      <c r="C628" s="19"/>
       <c r="D628" s="6"/>
       <c r="E628" s="6"/>
       <c r="F628" s="12"/>
@@ -19128,7 +19119,7 @@
     <row r="629" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
-      <c r="C629" s="21"/>
+      <c r="C629" s="19"/>
       <c r="D629" s="6"/>
       <c r="E629" s="6"/>
       <c r="F629" s="12"/>
@@ -19157,7 +19148,7 @@
     <row r="630" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
-      <c r="C630" s="21"/>
+      <c r="C630" s="19"/>
       <c r="D630" s="6"/>
       <c r="E630" s="6"/>
       <c r="F630" s="12"/>
@@ -19186,7 +19177,7 @@
     <row r="631" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
-      <c r="C631" s="21"/>
+      <c r="C631" s="19"/>
       <c r="D631" s="6"/>
       <c r="E631" s="6"/>
       <c r="F631" s="12"/>
@@ -19215,7 +19206,7 @@
     <row r="632" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
-      <c r="C632" s="21"/>
+      <c r="C632" s="19"/>
       <c r="D632" s="6"/>
       <c r="E632" s="6"/>
       <c r="F632" s="12"/>
@@ -19244,7 +19235,7 @@
     <row r="633" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
-      <c r="C633" s="21"/>
+      <c r="C633" s="19"/>
       <c r="D633" s="6"/>
       <c r="E633" s="6"/>
       <c r="F633" s="12"/>
@@ -19273,7 +19264,7 @@
     <row r="634" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
-      <c r="C634" s="21"/>
+      <c r="C634" s="19"/>
       <c r="D634" s="6"/>
       <c r="E634" s="6"/>
       <c r="F634" s="12"/>
@@ -19302,7 +19293,7 @@
     <row r="635" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
-      <c r="C635" s="21"/>
+      <c r="C635" s="19"/>
       <c r="D635" s="6"/>
       <c r="E635" s="6"/>
       <c r="F635" s="12"/>
@@ -19331,7 +19322,7 @@
     <row r="636" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
-      <c r="C636" s="21"/>
+      <c r="C636" s="19"/>
       <c r="D636" s="6"/>
       <c r="E636" s="6"/>
       <c r="F636" s="12"/>
@@ -19360,7 +19351,7 @@
     <row r="637" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
-      <c r="C637" s="21"/>
+      <c r="C637" s="19"/>
       <c r="D637" s="6"/>
       <c r="E637" s="6"/>
       <c r="F637" s="12"/>
@@ -19389,7 +19380,7 @@
     <row r="638" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
-      <c r="C638" s="21"/>
+      <c r="C638" s="19"/>
       <c r="D638" s="6"/>
       <c r="E638" s="6"/>
       <c r="F638" s="12"/>
@@ -19418,7 +19409,7 @@
     <row r="639" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
-      <c r="C639" s="21"/>
+      <c r="C639" s="19"/>
       <c r="D639" s="6"/>
       <c r="E639" s="6"/>
       <c r="F639" s="12"/>
@@ -19447,7 +19438,7 @@
     <row r="640" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
-      <c r="C640" s="21"/>
+      <c r="C640" s="19"/>
       <c r="D640" s="6"/>
       <c r="E640" s="6"/>
       <c r="F640" s="12"/>
@@ -19476,7 +19467,7 @@
     <row r="641" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
-      <c r="C641" s="21"/>
+      <c r="C641" s="19"/>
       <c r="D641" s="6"/>
       <c r="E641" s="6"/>
       <c r="F641" s="12"/>
@@ -19505,7 +19496,7 @@
     <row r="642" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
-      <c r="C642" s="21"/>
+      <c r="C642" s="19"/>
       <c r="D642" s="6"/>
       <c r="E642" s="6"/>
       <c r="F642" s="12"/>
@@ -19534,7 +19525,7 @@
     <row r="643" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
-      <c r="C643" s="21"/>
+      <c r="C643" s="19"/>
       <c r="D643" s="6"/>
       <c r="E643" s="6"/>
       <c r="F643" s="12"/>
@@ -19563,7 +19554,7 @@
     <row r="644" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
-      <c r="C644" s="21"/>
+      <c r="C644" s="19"/>
       <c r="D644" s="6"/>
       <c r="E644" s="6"/>
       <c r="F644" s="12"/>
@@ -19592,7 +19583,7 @@
     <row r="645" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
-      <c r="C645" s="21"/>
+      <c r="C645" s="19"/>
       <c r="D645" s="6"/>
       <c r="E645" s="6"/>
       <c r="F645" s="12"/>
@@ -19621,7 +19612,7 @@
     <row r="646" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
-      <c r="C646" s="21"/>
+      <c r="C646" s="19"/>
       <c r="D646" s="6"/>
       <c r="E646" s="6"/>
       <c r="F646" s="12"/>
@@ -19650,7 +19641,7 @@
     <row r="647" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
-      <c r="C647" s="21"/>
+      <c r="C647" s="19"/>
       <c r="D647" s="6"/>
       <c r="E647" s="6"/>
       <c r="F647" s="12"/>
@@ -19679,7 +19670,7 @@
     <row r="648" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
-      <c r="C648" s="21"/>
+      <c r="C648" s="19"/>
       <c r="D648" s="6"/>
       <c r="E648" s="6"/>
       <c r="F648" s="12"/>
@@ -19708,7 +19699,7 @@
     <row r="649" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
-      <c r="C649" s="21"/>
+      <c r="C649" s="19"/>
       <c r="D649" s="6"/>
       <c r="E649" s="6"/>
       <c r="F649" s="12"/>
@@ -19737,7 +19728,7 @@
     <row r="650" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
-      <c r="C650" s="21"/>
+      <c r="C650" s="19"/>
       <c r="D650" s="6"/>
       <c r="E650" s="6"/>
       <c r="F650" s="12"/>
@@ -19766,7 +19757,7 @@
     <row r="651" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
-      <c r="C651" s="21"/>
+      <c r="C651" s="19"/>
       <c r="D651" s="6"/>
       <c r="E651" s="6"/>
       <c r="F651" s="12"/>
@@ -19795,7 +19786,7 @@
     <row r="652" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
-      <c r="C652" s="21"/>
+      <c r="C652" s="19"/>
       <c r="D652" s="6"/>
       <c r="E652" s="6"/>
       <c r="F652" s="12"/>
@@ -19824,7 +19815,7 @@
     <row r="653" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
-      <c r="C653" s="21"/>
+      <c r="C653" s="19"/>
       <c r="D653" s="6"/>
       <c r="E653" s="6"/>
       <c r="F653" s="12"/>
@@ -19853,7 +19844,7 @@
     <row r="654" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
-      <c r="C654" s="21"/>
+      <c r="C654" s="19"/>
       <c r="D654" s="6"/>
       <c r="E654" s="6"/>
       <c r="F654" s="12"/>
@@ -19882,7 +19873,7 @@
     <row r="655" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
-      <c r="C655" s="21"/>
+      <c r="C655" s="19"/>
       <c r="D655" s="6"/>
       <c r="E655" s="6"/>
       <c r="F655" s="12"/>
@@ -19911,7 +19902,7 @@
     <row r="656" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
-      <c r="C656" s="21"/>
+      <c r="C656" s="19"/>
       <c r="D656" s="6"/>
       <c r="E656" s="6"/>
       <c r="F656" s="12"/>
@@ -19940,7 +19931,7 @@
     <row r="657" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
-      <c r="C657" s="21"/>
+      <c r="C657" s="19"/>
       <c r="D657" s="6"/>
       <c r="E657" s="6"/>
       <c r="F657" s="12"/>
@@ -19969,7 +19960,7 @@
     <row r="658" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
-      <c r="C658" s="21"/>
+      <c r="C658" s="19"/>
       <c r="D658" s="6"/>
       <c r="E658" s="6"/>
       <c r="F658" s="12"/>
@@ -19998,7 +19989,7 @@
     <row r="659" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
-      <c r="C659" s="21"/>
+      <c r="C659" s="19"/>
       <c r="D659" s="6"/>
       <c r="E659" s="6"/>
       <c r="F659" s="12"/>
@@ -20027,7 +20018,7 @@
     <row r="660" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
-      <c r="C660" s="21"/>
+      <c r="C660" s="19"/>
       <c r="D660" s="6"/>
       <c r="E660" s="6"/>
       <c r="F660" s="12"/>
@@ -20056,7 +20047,7 @@
     <row r="661" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
-      <c r="C661" s="21"/>
+      <c r="C661" s="19"/>
       <c r="D661" s="6"/>
       <c r="E661" s="6"/>
       <c r="F661" s="12"/>
@@ -20085,7 +20076,7 @@
     <row r="662" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
-      <c r="C662" s="21"/>
+      <c r="C662" s="19"/>
       <c r="D662" s="6"/>
       <c r="E662" s="6"/>
       <c r="F662" s="12"/>
@@ -20114,7 +20105,7 @@
     <row r="663" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
-      <c r="C663" s="21"/>
+      <c r="C663" s="19"/>
       <c r="D663" s="6"/>
       <c r="E663" s="6"/>
       <c r="F663" s="12"/>
@@ -20143,7 +20134,7 @@
     <row r="664" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
-      <c r="C664" s="21"/>
+      <c r="C664" s="19"/>
       <c r="D664" s="6"/>
       <c r="E664" s="6"/>
       <c r="F664" s="12"/>
@@ -20172,7 +20163,7 @@
     <row r="665" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
-      <c r="C665" s="21"/>
+      <c r="C665" s="19"/>
       <c r="D665" s="6"/>
       <c r="E665" s="6"/>
       <c r="F665" s="12"/>
@@ -20201,7 +20192,7 @@
     <row r="666" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
-      <c r="C666" s="21"/>
+      <c r="C666" s="19"/>
       <c r="D666" s="6"/>
       <c r="E666" s="6"/>
       <c r="F666" s="12"/>
@@ -20230,7 +20221,7 @@
     <row r="667" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
-      <c r="C667" s="21"/>
+      <c r="C667" s="19"/>
       <c r="D667" s="6"/>
       <c r="E667" s="6"/>
       <c r="F667" s="12"/>
@@ -20259,7 +20250,7 @@
     <row r="668" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
-      <c r="C668" s="21"/>
+      <c r="C668" s="19"/>
       <c r="D668" s="6"/>
       <c r="E668" s="6"/>
       <c r="F668" s="12"/>
@@ -20288,7 +20279,7 @@
     <row r="669" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
-      <c r="C669" s="21"/>
+      <c r="C669" s="19"/>
       <c r="D669" s="6"/>
       <c r="E669" s="6"/>
       <c r="F669" s="12"/>
@@ -20317,7 +20308,7 @@
     <row r="670" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
-      <c r="C670" s="21"/>
+      <c r="C670" s="19"/>
       <c r="D670" s="6"/>
       <c r="E670" s="6"/>
       <c r="F670" s="12"/>
@@ -20346,7 +20337,7 @@
     <row r="671" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
-      <c r="C671" s="21"/>
+      <c r="C671" s="19"/>
       <c r="D671" s="6"/>
       <c r="E671" s="6"/>
       <c r="F671" s="12"/>
@@ -20375,7 +20366,7 @@
     <row r="672" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
-      <c r="C672" s="21"/>
+      <c r="C672" s="19"/>
       <c r="D672" s="6"/>
       <c r="E672" s="6"/>
       <c r="F672" s="12"/>
@@ -20404,7 +20395,7 @@
     <row r="673" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
-      <c r="C673" s="21"/>
+      <c r="C673" s="19"/>
       <c r="D673" s="6"/>
       <c r="E673" s="6"/>
       <c r="F673" s="12"/>
@@ -20433,7 +20424,7 @@
     <row r="674" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
-      <c r="C674" s="21"/>
+      <c r="C674" s="19"/>
       <c r="D674" s="6"/>
       <c r="E674" s="6"/>
       <c r="F674" s="12"/>
@@ -20462,7 +20453,7 @@
     <row r="675" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
-      <c r="C675" s="21"/>
+      <c r="C675" s="19"/>
       <c r="D675" s="6"/>
       <c r="E675" s="6"/>
       <c r="F675" s="12"/>
@@ -20491,7 +20482,7 @@
     <row r="676" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
-      <c r="C676" s="21"/>
+      <c r="C676" s="19"/>
       <c r="D676" s="6"/>
       <c r="E676" s="6"/>
       <c r="F676" s="12"/>
@@ -20520,7 +20511,7 @@
     <row r="677" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
-      <c r="C677" s="21"/>
+      <c r="C677" s="19"/>
       <c r="D677" s="6"/>
       <c r="E677" s="6"/>
       <c r="F677" s="12"/>
@@ -20549,7 +20540,7 @@
     <row r="678" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
-      <c r="C678" s="21"/>
+      <c r="C678" s="19"/>
       <c r="D678" s="6"/>
       <c r="E678" s="6"/>
       <c r="F678" s="12"/>
@@ -20578,7 +20569,7 @@
     <row r="679" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
-      <c r="C679" s="21"/>
+      <c r="C679" s="19"/>
       <c r="D679" s="6"/>
       <c r="E679" s="6"/>
       <c r="F679" s="12"/>
@@ -20607,7 +20598,7 @@
     <row r="680" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
-      <c r="C680" s="21"/>
+      <c r="C680" s="19"/>
       <c r="D680" s="6"/>
       <c r="E680" s="6"/>
       <c r="F680" s="12"/>
@@ -20636,7 +20627,7 @@
     <row r="681" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
-      <c r="C681" s="21"/>
+      <c r="C681" s="19"/>
       <c r="D681" s="6"/>
       <c r="E681" s="6"/>
       <c r="F681" s="12"/>
@@ -20665,7 +20656,7 @@
     <row r="682" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
-      <c r="C682" s="21"/>
+      <c r="C682" s="19"/>
       <c r="D682" s="6"/>
       <c r="E682" s="6"/>
       <c r="F682" s="12"/>
@@ -20694,7 +20685,7 @@
     <row r="683" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
-      <c r="C683" s="21"/>
+      <c r="C683" s="19"/>
       <c r="D683" s="6"/>
       <c r="E683" s="6"/>
       <c r="F683" s="12"/>
@@ -20723,7 +20714,7 @@
     <row r="684" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
-      <c r="C684" s="21"/>
+      <c r="C684" s="19"/>
       <c r="D684" s="6"/>
       <c r="E684" s="6"/>
       <c r="F684" s="12"/>
@@ -20752,7 +20743,7 @@
     <row r="685" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
-      <c r="C685" s="21"/>
+      <c r="C685" s="19"/>
       <c r="D685" s="6"/>
       <c r="E685" s="6"/>
       <c r="F685" s="12"/>
@@ -20781,7 +20772,7 @@
     <row r="686" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
-      <c r="C686" s="21"/>
+      <c r="C686" s="19"/>
       <c r="D686" s="6"/>
       <c r="E686" s="6"/>
       <c r="F686" s="12"/>
@@ -20810,7 +20801,7 @@
     <row r="687" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
-      <c r="C687" s="21"/>
+      <c r="C687" s="19"/>
       <c r="D687" s="6"/>
       <c r="E687" s="6"/>
       <c r="F687" s="12"/>
@@ -20839,7 +20830,7 @@
     <row r="688" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
-      <c r="C688" s="21"/>
+      <c r="C688" s="19"/>
       <c r="D688" s="6"/>
       <c r="E688" s="6"/>
       <c r="F688" s="12"/>
@@ -20868,7 +20859,7 @@
     <row r="689" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
-      <c r="C689" s="21"/>
+      <c r="C689" s="19"/>
       <c r="D689" s="6"/>
       <c r="E689" s="6"/>
       <c r="F689" s="12"/>
@@ -20897,7 +20888,7 @@
     <row r="690" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
-      <c r="C690" s="21"/>
+      <c r="C690" s="19"/>
       <c r="D690" s="6"/>
       <c r="E690" s="6"/>
       <c r="F690" s="12"/>
@@ -20926,7 +20917,7 @@
     <row r="691" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
-      <c r="C691" s="21"/>
+      <c r="C691" s="19"/>
       <c r="D691" s="6"/>
       <c r="E691" s="6"/>
       <c r="F691" s="12"/>
@@ -20955,7 +20946,7 @@
     <row r="692" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
-      <c r="C692" s="21"/>
+      <c r="C692" s="19"/>
       <c r="D692" s="6"/>
       <c r="E692" s="6"/>
       <c r="F692" s="12"/>
@@ -20984,7 +20975,7 @@
     <row r="693" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
-      <c r="C693" s="21"/>
+      <c r="C693" s="19"/>
       <c r="D693" s="6"/>
       <c r="E693" s="6"/>
       <c r="F693" s="12"/>
@@ -21013,7 +21004,7 @@
     <row r="694" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
-      <c r="C694" s="21"/>
+      <c r="C694" s="19"/>
       <c r="D694" s="6"/>
       <c r="E694" s="6"/>
       <c r="F694" s="12"/>
@@ -21042,7 +21033,7 @@
     <row r="695" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
-      <c r="C695" s="21"/>
+      <c r="C695" s="19"/>
       <c r="D695" s="6"/>
       <c r="E695" s="6"/>
       <c r="F695" s="12"/>
@@ -21071,7 +21062,7 @@
     <row r="696" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
-      <c r="C696" s="21"/>
+      <c r="C696" s="19"/>
       <c r="D696" s="6"/>
       <c r="E696" s="6"/>
       <c r="F696" s="12"/>
@@ -21100,7 +21091,7 @@
     <row r="697" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
-      <c r="C697" s="21"/>
+      <c r="C697" s="19"/>
       <c r="D697" s="6"/>
       <c r="E697" s="6"/>
       <c r="F697" s="12"/>
@@ -21129,7 +21120,7 @@
     <row r="698" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
-      <c r="C698" s="21"/>
+      <c r="C698" s="19"/>
       <c r="D698" s="6"/>
       <c r="E698" s="6"/>
       <c r="F698" s="12"/>
@@ -21158,7 +21149,7 @@
     <row r="699" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
-      <c r="C699" s="21"/>
+      <c r="C699" s="19"/>
       <c r="D699" s="6"/>
       <c r="E699" s="6"/>
       <c r="F699" s="12"/>
@@ -21187,7 +21178,7 @@
     <row r="700" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
-      <c r="C700" s="21"/>
+      <c r="C700" s="19"/>
       <c r="D700" s="6"/>
       <c r="E700" s="6"/>
       <c r="F700" s="12"/>
@@ -21216,7 +21207,7 @@
     <row r="701" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
-      <c r="C701" s="21"/>
+      <c r="C701" s="19"/>
       <c r="D701" s="6"/>
       <c r="E701" s="6"/>
       <c r="F701" s="12"/>
@@ -21245,7 +21236,7 @@
     <row r="702" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
-      <c r="C702" s="21"/>
+      <c r="C702" s="19"/>
       <c r="D702" s="6"/>
       <c r="E702" s="6"/>
       <c r="F702" s="12"/>
@@ -21274,7 +21265,7 @@
     <row r="703" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
-      <c r="C703" s="21"/>
+      <c r="C703" s="19"/>
       <c r="D703" s="6"/>
       <c r="E703" s="6"/>
       <c r="F703" s="12"/>
@@ -21303,7 +21294,7 @@
     <row r="704" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
-      <c r="C704" s="21"/>
+      <c r="C704" s="19"/>
       <c r="D704" s="6"/>
       <c r="E704" s="6"/>
       <c r="F704" s="12"/>
@@ -21332,7 +21323,7 @@
     <row r="705" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
-      <c r="C705" s="21"/>
+      <c r="C705" s="19"/>
       <c r="D705" s="6"/>
       <c r="E705" s="6"/>
       <c r="F705" s="12"/>
@@ -21361,7 +21352,7 @@
     <row r="706" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
-      <c r="C706" s="21"/>
+      <c r="C706" s="19"/>
       <c r="D706" s="6"/>
       <c r="E706" s="6"/>
       <c r="F706" s="12"/>
@@ -21390,7 +21381,7 @@
     <row r="707" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
-      <c r="C707" s="21"/>
+      <c r="C707" s="19"/>
       <c r="D707" s="6"/>
       <c r="E707" s="6"/>
       <c r="F707" s="12"/>
@@ -21419,7 +21410,7 @@
     <row r="708" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
-      <c r="C708" s="21"/>
+      <c r="C708" s="19"/>
       <c r="D708" s="6"/>
       <c r="E708" s="6"/>
       <c r="F708" s="12"/>
@@ -21448,7 +21439,7 @@
     <row r="709" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
-      <c r="C709" s="21"/>
+      <c r="C709" s="19"/>
       <c r="D709" s="6"/>
       <c r="E709" s="6"/>
       <c r="F709" s="12"/>
@@ -21477,7 +21468,7 @@
     <row r="710" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
-      <c r="C710" s="21"/>
+      <c r="C710" s="19"/>
       <c r="D710" s="6"/>
       <c r="E710" s="6"/>
       <c r="F710" s="12"/>
@@ -21506,7 +21497,7 @@
     <row r="711" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
-      <c r="C711" s="21"/>
+      <c r="C711" s="19"/>
       <c r="D711" s="6"/>
       <c r="E711" s="6"/>
       <c r="F711" s="12"/>
@@ -21535,7 +21526,7 @@
     <row r="712" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
-      <c r="C712" s="21"/>
+      <c r="C712" s="19"/>
       <c r="D712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="12"/>
@@ -21564,7 +21555,7 @@
     <row r="713" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
-      <c r="C713" s="21"/>
+      <c r="C713" s="19"/>
       <c r="D713" s="6"/>
       <c r="E713" s="6"/>
       <c r="F713" s="12"/>
@@ -21593,7 +21584,7 @@
     <row r="714" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
-      <c r="C714" s="21"/>
+      <c r="C714" s="19"/>
       <c r="D714" s="6"/>
       <c r="E714" s="6"/>
       <c r="F714" s="12"/>
@@ -21622,7 +21613,7 @@
     <row r="715" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
-      <c r="C715" s="21"/>
+      <c r="C715" s="19"/>
       <c r="D715" s="6"/>
       <c r="E715" s="6"/>
       <c r="F715" s="12"/>
@@ -21651,7 +21642,7 @@
     <row r="716" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
-      <c r="C716" s="21"/>
+      <c r="C716" s="19"/>
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
       <c r="F716" s="12"/>
@@ -21680,7 +21671,7 @@
     <row r="717" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
-      <c r="C717" s="21"/>
+      <c r="C717" s="19"/>
       <c r="D717" s="6"/>
       <c r="E717" s="6"/>
       <c r="F717" s="12"/>
@@ -21709,7 +21700,7 @@
     <row r="718" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
-      <c r="C718" s="21"/>
+      <c r="C718" s="19"/>
       <c r="D718" s="6"/>
       <c r="E718" s="6"/>
       <c r="F718" s="12"/>
@@ -21738,7 +21729,7 @@
     <row r="719" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
-      <c r="C719" s="21"/>
+      <c r="C719" s="19"/>
       <c r="D719" s="6"/>
       <c r="E719" s="6"/>
       <c r="F719" s="12"/>
@@ -21767,7 +21758,7 @@
     <row r="720" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
-      <c r="C720" s="21"/>
+      <c r="C720" s="19"/>
       <c r="D720" s="6"/>
       <c r="E720" s="6"/>
       <c r="F720" s="12"/>
@@ -21796,7 +21787,7 @@
     <row r="721" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
-      <c r="C721" s="21"/>
+      <c r="C721" s="19"/>
       <c r="D721" s="6"/>
       <c r="E721" s="6"/>
       <c r="F721" s="12"/>
@@ -21825,7 +21816,7 @@
     <row r="722" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
-      <c r="C722" s="21"/>
+      <c r="C722" s="19"/>
       <c r="D722" s="6"/>
       <c r="E722" s="6"/>
       <c r="F722" s="12"/>
@@ -21854,7 +21845,7 @@
     <row r="723" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
-      <c r="C723" s="21"/>
+      <c r="C723" s="19"/>
       <c r="D723" s="6"/>
       <c r="E723" s="6"/>
       <c r="F723" s="12"/>
@@ -21883,7 +21874,7 @@
     <row r="724" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
-      <c r="C724" s="21"/>
+      <c r="C724" s="19"/>
       <c r="D724" s="6"/>
       <c r="E724" s="6"/>
       <c r="F724" s="12"/>
@@ -21912,7 +21903,7 @@
     <row r="725" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
-      <c r="C725" s="21"/>
+      <c r="C725" s="19"/>
       <c r="D725" s="6"/>
       <c r="E725" s="6"/>
       <c r="F725" s="12"/>
@@ -21941,7 +21932,7 @@
     <row r="726" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
-      <c r="C726" s="21"/>
+      <c r="C726" s="19"/>
       <c r="D726" s="6"/>
       <c r="E726" s="6"/>
       <c r="F726" s="12"/>
@@ -21970,7 +21961,7 @@
     <row r="727" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
-      <c r="C727" s="21"/>
+      <c r="C727" s="19"/>
       <c r="D727" s="6"/>
       <c r="E727" s="6"/>
       <c r="F727" s="12"/>
@@ -21999,7 +21990,7 @@
     <row r="728" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
-      <c r="C728" s="21"/>
+      <c r="C728" s="19"/>
       <c r="D728" s="6"/>
       <c r="E728" s="6"/>
       <c r="F728" s="12"/>
@@ -22028,7 +22019,7 @@
     <row r="729" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
-      <c r="C729" s="21"/>
+      <c r="C729" s="19"/>
       <c r="D729" s="6"/>
       <c r="E729" s="6"/>
       <c r="F729" s="12"/>
@@ -22057,7 +22048,7 @@
     <row r="730" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
-      <c r="C730" s="21"/>
+      <c r="C730" s="19"/>
       <c r="D730" s="6"/>
       <c r="E730" s="6"/>
       <c r="F730" s="12"/>
@@ -22086,7 +22077,7 @@
     <row r="731" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
-      <c r="C731" s="21"/>
+      <c r="C731" s="19"/>
       <c r="D731" s="6"/>
       <c r="E731" s="6"/>
       <c r="F731" s="12"/>
@@ -22115,7 +22106,7 @@
     <row r="732" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
-      <c r="C732" s="21"/>
+      <c r="C732" s="19"/>
       <c r="D732" s="6"/>
       <c r="E732" s="6"/>
       <c r="F732" s="12"/>
@@ -22144,7 +22135,7 @@
     <row r="733" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
-      <c r="C733" s="21"/>
+      <c r="C733" s="19"/>
       <c r="D733" s="6"/>
       <c r="E733" s="6"/>
       <c r="F733" s="12"/>
@@ -22173,7 +22164,7 @@
     <row r="734" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
-      <c r="C734" s="21"/>
+      <c r="C734" s="19"/>
       <c r="D734" s="6"/>
       <c r="E734" s="6"/>
       <c r="F734" s="12"/>
@@ -22202,7 +22193,7 @@
     <row r="735" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
-      <c r="C735" s="21"/>
+      <c r="C735" s="19"/>
       <c r="D735" s="6"/>
       <c r="E735" s="6"/>
       <c r="F735" s="12"/>
@@ -22231,7 +22222,7 @@
     <row r="736" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
-      <c r="C736" s="21"/>
+      <c r="C736" s="19"/>
       <c r="D736" s="6"/>
       <c r="E736" s="6"/>
       <c r="F736" s="12"/>
@@ -22260,7 +22251,7 @@
     <row r="737" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
-      <c r="C737" s="21"/>
+      <c r="C737" s="19"/>
       <c r="D737" s="6"/>
       <c r="E737" s="6"/>
       <c r="F737" s="12"/>
@@ -22289,7 +22280,7 @@
     <row r="738" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
-      <c r="C738" s="21"/>
+      <c r="C738" s="19"/>
       <c r="D738" s="6"/>
       <c r="E738" s="6"/>
       <c r="F738" s="12"/>
@@ -22318,7 +22309,7 @@
     <row r="739" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
-      <c r="C739" s="21"/>
+      <c r="C739" s="19"/>
       <c r="D739" s="6"/>
       <c r="E739" s="6"/>
       <c r="F739" s="12"/>
@@ -22347,7 +22338,7 @@
     <row r="740" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
-      <c r="C740" s="21"/>
+      <c r="C740" s="19"/>
       <c r="D740" s="6"/>
       <c r="E740" s="6"/>
       <c r="F740" s="12"/>
@@ -22376,7 +22367,7 @@
     <row r="741" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
-      <c r="C741" s="21"/>
+      <c r="C741" s="19"/>
       <c r="D741" s="6"/>
       <c r="E741" s="6"/>
       <c r="F741" s="12"/>
@@ -22405,7 +22396,7 @@
     <row r="742" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
-      <c r="C742" s="21"/>
+      <c r="C742" s="19"/>
       <c r="D742" s="6"/>
       <c r="E742" s="6"/>
       <c r="F742" s="12"/>
@@ -22434,7 +22425,7 @@
     <row r="743" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
-      <c r="C743" s="21"/>
+      <c r="C743" s="19"/>
       <c r="D743" s="6"/>
       <c r="E743" s="6"/>
       <c r="F743" s="12"/>
@@ -22463,7 +22454,7 @@
     <row r="744" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
-      <c r="C744" s="21"/>
+      <c r="C744" s="19"/>
       <c r="D744" s="6"/>
       <c r="E744" s="6"/>
       <c r="F744" s="12"/>
@@ -22492,7 +22483,7 @@
     <row r="745" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
-      <c r="C745" s="21"/>
+      <c r="C745" s="19"/>
       <c r="D745" s="6"/>
       <c r="E745" s="6"/>
       <c r="F745" s="12"/>
@@ -22521,7 +22512,7 @@
     <row r="746" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
-      <c r="C746" s="21"/>
+      <c r="C746" s="19"/>
       <c r="D746" s="6"/>
       <c r="E746" s="6"/>
       <c r="F746" s="12"/>
@@ -22550,7 +22541,7 @@
     <row r="747" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
-      <c r="C747" s="21"/>
+      <c r="C747" s="19"/>
       <c r="D747" s="6"/>
       <c r="E747" s="6"/>
       <c r="F747" s="12"/>
@@ -22579,7 +22570,7 @@
     <row r="748" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
-      <c r="C748" s="21"/>
+      <c r="C748" s="19"/>
       <c r="D748" s="6"/>
       <c r="E748" s="6"/>
       <c r="F748" s="12"/>
@@ -22608,7 +22599,7 @@
     <row r="749" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
-      <c r="C749" s="21"/>
+      <c r="C749" s="19"/>
       <c r="D749" s="6"/>
       <c r="E749" s="6"/>
       <c r="F749" s="12"/>
@@ -22637,7 +22628,7 @@
     <row r="750" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
-      <c r="C750" s="21"/>
+      <c r="C750" s="19"/>
       <c r="D750" s="6"/>
       <c r="E750" s="6"/>
       <c r="F750" s="12"/>
@@ -22666,7 +22657,7 @@
     <row r="751" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
-      <c r="C751" s="21"/>
+      <c r="C751" s="19"/>
       <c r="D751" s="6"/>
       <c r="E751" s="6"/>
       <c r="F751" s="12"/>
@@ -22695,7 +22686,7 @@
     <row r="752" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
-      <c r="C752" s="21"/>
+      <c r="C752" s="19"/>
       <c r="D752" s="6"/>
       <c r="E752" s="6"/>
       <c r="F752" s="12"/>
@@ -22724,7 +22715,7 @@
     <row r="753" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
-      <c r="C753" s="21"/>
+      <c r="C753" s="19"/>
       <c r="D753" s="6"/>
       <c r="E753" s="6"/>
       <c r="F753" s="12"/>
@@ -22753,7 +22744,7 @@
     <row r="754" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
-      <c r="C754" s="21"/>
+      <c r="C754" s="19"/>
       <c r="D754" s="6"/>
       <c r="E754" s="6"/>
       <c r="F754" s="12"/>
@@ -22782,7 +22773,7 @@
     <row r="755" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
-      <c r="C755" s="21"/>
+      <c r="C755" s="19"/>
       <c r="D755" s="6"/>
       <c r="E755" s="6"/>
       <c r="F755" s="12"/>
@@ -22811,7 +22802,7 @@
     <row r="756" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
-      <c r="C756" s="21"/>
+      <c r="C756" s="19"/>
       <c r="D756" s="6"/>
       <c r="E756" s="6"/>
       <c r="F756" s="12"/>
@@ -22840,7 +22831,7 @@
     <row r="757" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
-      <c r="C757" s="21"/>
+      <c r="C757" s="19"/>
       <c r="D757" s="6"/>
       <c r="E757" s="6"/>
       <c r="F757" s="12"/>
@@ -22869,7 +22860,7 @@
     <row r="758" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
-      <c r="C758" s="21"/>
+      <c r="C758" s="19"/>
       <c r="D758" s="6"/>
       <c r="E758" s="6"/>
       <c r="F758" s="12"/>
@@ -22898,7 +22889,7 @@
     <row r="759" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
-      <c r="C759" s="21"/>
+      <c r="C759" s="19"/>
       <c r="D759" s="6"/>
       <c r="E759" s="6"/>
       <c r="F759" s="12"/>
@@ -22927,7 +22918,7 @@
     <row r="760" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
-      <c r="C760" s="21"/>
+      <c r="C760" s="19"/>
       <c r="D760" s="6"/>
       <c r="E760" s="6"/>
       <c r="F760" s="12"/>
@@ -22956,7 +22947,7 @@
     <row r="761" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
-      <c r="C761" s="21"/>
+      <c r="C761" s="19"/>
       <c r="D761" s="6"/>
       <c r="E761" s="6"/>
       <c r="F761" s="12"/>
@@ -22985,7 +22976,7 @@
     <row r="762" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
-      <c r="C762" s="21"/>
+      <c r="C762" s="19"/>
       <c r="D762" s="6"/>
       <c r="E762" s="6"/>
       <c r="F762" s="12"/>
@@ -23014,7 +23005,7 @@
     <row r="763" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
-      <c r="C763" s="21"/>
+      <c r="C763" s="19"/>
       <c r="D763" s="6"/>
       <c r="E763" s="6"/>
       <c r="F763" s="12"/>
@@ -23043,7 +23034,7 @@
     <row r="764" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
-      <c r="C764" s="21"/>
+      <c r="C764" s="19"/>
       <c r="D764" s="6"/>
       <c r="E764" s="6"/>
       <c r="F764" s="12"/>
@@ -23072,7 +23063,7 @@
     <row r="765" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
-      <c r="C765" s="21"/>
+      <c r="C765" s="19"/>
       <c r="D765" s="6"/>
       <c r="E765" s="6"/>
       <c r="F765" s="12"/>
@@ -23101,7 +23092,7 @@
     <row r="766" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
-      <c r="C766" s="21"/>
+      <c r="C766" s="19"/>
       <c r="D766" s="6"/>
       <c r="E766" s="6"/>
       <c r="F766" s="12"/>
@@ -23130,7 +23121,7 @@
     <row r="767" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
-      <c r="C767" s="21"/>
+      <c r="C767" s="19"/>
       <c r="D767" s="6"/>
       <c r="E767" s="6"/>
       <c r="F767" s="12"/>
@@ -23159,7 +23150,7 @@
     <row r="768" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
-      <c r="C768" s="21"/>
+      <c r="C768" s="19"/>
       <c r="D768" s="6"/>
       <c r="E768" s="6"/>
       <c r="F768" s="12"/>
@@ -23188,7 +23179,7 @@
     <row r="769" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
-      <c r="C769" s="21"/>
+      <c r="C769" s="19"/>
       <c r="D769" s="6"/>
       <c r="E769" s="6"/>
       <c r="F769" s="12"/>
@@ -23217,7 +23208,7 @@
     <row r="770" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
-      <c r="C770" s="21"/>
+      <c r="C770" s="19"/>
       <c r="D770" s="6"/>
       <c r="E770" s="6"/>
       <c r="F770" s="12"/>
@@ -23246,7 +23237,7 @@
     <row r="771" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
-      <c r="C771" s="21"/>
+      <c r="C771" s="19"/>
       <c r="D771" s="6"/>
       <c r="E771" s="6"/>
       <c r="F771" s="12"/>
@@ -23275,7 +23266,7 @@
     <row r="772" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
-      <c r="C772" s="21"/>
+      <c r="C772" s="19"/>
       <c r="D772" s="6"/>
       <c r="E772" s="6"/>
       <c r="F772" s="12"/>
@@ -23304,7 +23295,7 @@
     <row r="773" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
-      <c r="C773" s="21"/>
+      <c r="C773" s="19"/>
       <c r="D773" s="6"/>
       <c r="E773" s="6"/>
       <c r="F773" s="12"/>
@@ -23333,7 +23324,7 @@
     <row r="774" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
-      <c r="C774" s="21"/>
+      <c r="C774" s="19"/>
       <c r="D774" s="6"/>
       <c r="E774" s="6"/>
       <c r="F774" s="12"/>
@@ -23362,7 +23353,7 @@
     <row r="775" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
-      <c r="C775" s="21"/>
+      <c r="C775" s="19"/>
       <c r="D775" s="6"/>
       <c r="E775" s="6"/>
       <c r="F775" s="12"/>
@@ -23391,7 +23382,7 @@
     <row r="776" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
-      <c r="C776" s="21"/>
+      <c r="C776" s="19"/>
       <c r="D776" s="6"/>
       <c r="E776" s="6"/>
       <c r="F776" s="12"/>
@@ -23420,7 +23411,7 @@
     <row r="777" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
-      <c r="C777" s="21"/>
+      <c r="C777" s="19"/>
       <c r="D777" s="6"/>
       <c r="E777" s="6"/>
       <c r="F777" s="12"/>
@@ -23449,7 +23440,7 @@
     <row r="778" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
-      <c r="C778" s="21"/>
+      <c r="C778" s="19"/>
       <c r="D778" s="6"/>
       <c r="E778" s="6"/>
       <c r="F778" s="12"/>
@@ -23478,7 +23469,7 @@
     <row r="779" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
-      <c r="C779" s="21"/>
+      <c r="C779" s="19"/>
       <c r="D779" s="6"/>
       <c r="E779" s="6"/>
       <c r="F779" s="12"/>
@@ -23507,7 +23498,7 @@
     <row r="780" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
-      <c r="C780" s="21"/>
+      <c r="C780" s="19"/>
       <c r="D780" s="6"/>
       <c r="E780" s="6"/>
       <c r="F780" s="12"/>
@@ -23536,7 +23527,7 @@
     <row r="781" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
-      <c r="C781" s="21"/>
+      <c r="C781" s="19"/>
       <c r="D781" s="6"/>
       <c r="E781" s="6"/>
       <c r="F781" s="12"/>
@@ -23565,7 +23556,7 @@
     <row r="782" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
-      <c r="C782" s="21"/>
+      <c r="C782" s="19"/>
       <c r="D782" s="6"/>
       <c r="E782" s="6"/>
       <c r="F782" s="12"/>
@@ -23594,7 +23585,7 @@
     <row r="783" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
-      <c r="C783" s="21"/>
+      <c r="C783" s="19"/>
       <c r="D783" s="6"/>
       <c r="E783" s="6"/>
       <c r="F783" s="12"/>
@@ -23623,7 +23614,7 @@
     <row r="784" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
-      <c r="C784" s="21"/>
+      <c r="C784" s="19"/>
       <c r="D784" s="6"/>
       <c r="E784" s="6"/>
       <c r="F784" s="12"/>
@@ -23652,7 +23643,7 @@
     <row r="785" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
-      <c r="C785" s="21"/>
+      <c r="C785" s="19"/>
       <c r="D785" s="6"/>
       <c r="E785" s="6"/>
       <c r="F785" s="12"/>
@@ -23681,7 +23672,7 @@
     <row r="786" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
-      <c r="C786" s="21"/>
+      <c r="C786" s="19"/>
       <c r="D786" s="6"/>
       <c r="E786" s="6"/>
       <c r="F786" s="12"/>
@@ -23710,7 +23701,7 @@
     <row r="787" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
-      <c r="C787" s="21"/>
+      <c r="C787" s="19"/>
       <c r="D787" s="6"/>
       <c r="E787" s="6"/>
       <c r="F787" s="12"/>
@@ -23739,7 +23730,7 @@
     <row r="788" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
-      <c r="C788" s="21"/>
+      <c r="C788" s="19"/>
       <c r="D788" s="6"/>
       <c r="E788" s="6"/>
       <c r="F788" s="12"/>
@@ -23768,7 +23759,7 @@
     <row r="789" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
-      <c r="C789" s="21"/>
+      <c r="C789" s="19"/>
       <c r="D789" s="6"/>
       <c r="E789" s="6"/>
       <c r="F789" s="12"/>
@@ -23797,7 +23788,7 @@
     <row r="790" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
-      <c r="C790" s="21"/>
+      <c r="C790" s="19"/>
       <c r="D790" s="6"/>
       <c r="E790" s="6"/>
       <c r="F790" s="12"/>
@@ -23826,7 +23817,7 @@
     <row r="791" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
-      <c r="C791" s="21"/>
+      <c r="C791" s="19"/>
       <c r="D791" s="6"/>
       <c r="E791" s="6"/>
       <c r="F791" s="12"/>
@@ -23855,7 +23846,7 @@
     <row r="792" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
-      <c r="C792" s="21"/>
+      <c r="C792" s="19"/>
       <c r="D792" s="6"/>
       <c r="E792" s="6"/>
       <c r="F792" s="12"/>
@@ -23884,7 +23875,7 @@
     <row r="793" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
-      <c r="C793" s="21"/>
+      <c r="C793" s="19"/>
       <c r="D793" s="6"/>
       <c r="E793" s="6"/>
       <c r="F793" s="12"/>
@@ -23913,7 +23904,7 @@
     <row r="794" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
-      <c r="C794" s="21"/>
+      <c r="C794" s="19"/>
       <c r="D794" s="6"/>
       <c r="E794" s="6"/>
       <c r="F794" s="12"/>
@@ -23942,7 +23933,7 @@
     <row r="795" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
-      <c r="C795" s="21"/>
+      <c r="C795" s="19"/>
       <c r="D795" s="6"/>
       <c r="E795" s="6"/>
       <c r="F795" s="12"/>
@@ -23971,7 +23962,7 @@
     <row r="796" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
-      <c r="C796" s="21"/>
+      <c r="C796" s="19"/>
       <c r="D796" s="6"/>
       <c r="E796" s="6"/>
       <c r="F796" s="12"/>
@@ -24000,7 +23991,7 @@
     <row r="797" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
-      <c r="C797" s="21"/>
+      <c r="C797" s="19"/>
       <c r="D797" s="6"/>
       <c r="E797" s="6"/>
       <c r="F797" s="12"/>
@@ -24029,7 +24020,7 @@
     <row r="798" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
-      <c r="C798" s="21"/>
+      <c r="C798" s="19"/>
       <c r="D798" s="6"/>
       <c r="E798" s="6"/>
       <c r="F798" s="12"/>
@@ -24058,7 +24049,7 @@
     <row r="799" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
-      <c r="C799" s="21"/>
+      <c r="C799" s="19"/>
       <c r="D799" s="6"/>
       <c r="E799" s="6"/>
       <c r="F799" s="12"/>
@@ -24087,7 +24078,7 @@
     <row r="800" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
-      <c r="C800" s="21"/>
+      <c r="C800" s="19"/>
       <c r="D800" s="6"/>
       <c r="E800" s="6"/>
       <c r="F800" s="12"/>
@@ -24116,7 +24107,7 @@
     <row r="801" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
-      <c r="C801" s="21"/>
+      <c r="C801" s="19"/>
       <c r="D801" s="6"/>
       <c r="E801" s="6"/>
       <c r="F801" s="12"/>
@@ -24145,7 +24136,7 @@
     <row r="802" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
-      <c r="C802" s="21"/>
+      <c r="C802" s="19"/>
       <c r="D802" s="6"/>
       <c r="E802" s="6"/>
       <c r="F802" s="12"/>
@@ -24174,7 +24165,7 @@
     <row r="803" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
-      <c r="C803" s="21"/>
+      <c r="C803" s="19"/>
       <c r="D803" s="6"/>
       <c r="E803" s="6"/>
       <c r="F803" s="12"/>
@@ -24203,7 +24194,7 @@
     <row r="804" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
-      <c r="C804" s="21"/>
+      <c r="C804" s="19"/>
       <c r="D804" s="6"/>
       <c r="E804" s="6"/>
       <c r="F804" s="12"/>
@@ -24232,7 +24223,7 @@
     <row r="805" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
-      <c r="C805" s="21"/>
+      <c r="C805" s="19"/>
       <c r="D805" s="6"/>
       <c r="E805" s="6"/>
       <c r="F805" s="12"/>
@@ -24261,7 +24252,7 @@
     <row r="806" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
-      <c r="C806" s="21"/>
+      <c r="C806" s="19"/>
       <c r="D806" s="6"/>
       <c r="E806" s="6"/>
       <c r="F806" s="12"/>
@@ -24290,7 +24281,7 @@
     <row r="807" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
-      <c r="C807" s="21"/>
+      <c r="C807" s="19"/>
       <c r="D807" s="6"/>
       <c r="E807" s="6"/>
       <c r="F807" s="12"/>
@@ -24319,7 +24310,7 @@
     <row r="808" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
-      <c r="C808" s="21"/>
+      <c r="C808" s="19"/>
       <c r="D808" s="6"/>
       <c r="E808" s="6"/>
       <c r="F808" s="12"/>
@@ -24348,7 +24339,7 @@
     <row r="809" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
-      <c r="C809" s="21"/>
+      <c r="C809" s="19"/>
       <c r="D809" s="6"/>
       <c r="E809" s="6"/>
       <c r="F809" s="12"/>
@@ -24377,7 +24368,7 @@
     <row r="810" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
-      <c r="C810" s="21"/>
+      <c r="C810" s="19"/>
       <c r="D810" s="6"/>
       <c r="E810" s="6"/>
       <c r="F810" s="12"/>
@@ -24406,7 +24397,7 @@
     <row r="811" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
-      <c r="C811" s="21"/>
+      <c r="C811" s="19"/>
       <c r="D811" s="6"/>
       <c r="E811" s="6"/>
       <c r="F811" s="12"/>
@@ -24435,7 +24426,7 @@
     <row r="812" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
-      <c r="C812" s="21"/>
+      <c r="C812" s="19"/>
       <c r="D812" s="6"/>
       <c r="E812" s="6"/>
       <c r="F812" s="12"/>
@@ -24464,7 +24455,7 @@
     <row r="813" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
-      <c r="C813" s="21"/>
+      <c r="C813" s="19"/>
       <c r="D813" s="6"/>
       <c r="E813" s="6"/>
       <c r="F813" s="12"/>
@@ -24493,7 +24484,7 @@
     <row r="814" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
-      <c r="C814" s="21"/>
+      <c r="C814" s="19"/>
       <c r="D814" s="6"/>
       <c r="E814" s="6"/>
       <c r="F814" s="12"/>
@@ -24522,7 +24513,7 @@
     <row r="815" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
-      <c r="C815" s="21"/>
+      <c r="C815" s="19"/>
       <c r="D815" s="6"/>
       <c r="E815" s="6"/>
       <c r="F815" s="12"/>
@@ -24551,7 +24542,7 @@
     <row r="816" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
-      <c r="C816" s="21"/>
+      <c r="C816" s="19"/>
       <c r="D816" s="6"/>
       <c r="E816" s="6"/>
       <c r="F816" s="12"/>
@@ -24580,7 +24571,7 @@
     <row r="817" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
-      <c r="C817" s="21"/>
+      <c r="C817" s="19"/>
       <c r="D817" s="6"/>
       <c r="E817" s="6"/>
       <c r="F817" s="12"/>
@@ -24609,7 +24600,7 @@
     <row r="818" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
-      <c r="C818" s="21"/>
+      <c r="C818" s="19"/>
       <c r="D818" s="6"/>
       <c r="E818" s="6"/>
       <c r="F818" s="12"/>
@@ -24638,7 +24629,7 @@
     <row r="819" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
-      <c r="C819" s="21"/>
+      <c r="C819" s="19"/>
       <c r="D819" s="6"/>
       <c r="E819" s="6"/>
       <c r="F819" s="12"/>
@@ -24667,7 +24658,7 @@
     <row r="820" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
-      <c r="C820" s="21"/>
+      <c r="C820" s="19"/>
       <c r="D820" s="6"/>
       <c r="E820" s="6"/>
       <c r="F820" s="12"/>
@@ -24696,7 +24687,7 @@
     <row r="821" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
-      <c r="C821" s="21"/>
+      <c r="C821" s="19"/>
       <c r="D821" s="6"/>
       <c r="E821" s="6"/>
       <c r="F821" s="12"/>
@@ -24725,7 +24716,7 @@
     <row r="822" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
-      <c r="C822" s="21"/>
+      <c r="C822" s="19"/>
       <c r="D822" s="6"/>
       <c r="E822" s="6"/>
       <c r="F822" s="12"/>
@@ -24754,7 +24745,7 @@
     <row r="823" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
-      <c r="C823" s="21"/>
+      <c r="C823" s="19"/>
       <c r="D823" s="6"/>
       <c r="E823" s="6"/>
       <c r="F823" s="12"/>
@@ -24783,7 +24774,7 @@
     <row r="824" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
-      <c r="C824" s="21"/>
+      <c r="C824" s="19"/>
       <c r="D824" s="6"/>
       <c r="E824" s="6"/>
       <c r="F824" s="12"/>
@@ -24812,7 +24803,7 @@
     <row r="825" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
-      <c r="C825" s="21"/>
+      <c r="C825" s="19"/>
       <c r="D825" s="6"/>
       <c r="E825" s="6"/>
       <c r="F825" s="12"/>
@@ -24841,7 +24832,7 @@
     <row r="826" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
-      <c r="C826" s="21"/>
+      <c r="C826" s="19"/>
       <c r="D826" s="6"/>
       <c r="E826" s="6"/>
       <c r="F826" s="12"/>
@@ -24870,7 +24861,7 @@
     <row r="827" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
-      <c r="C827" s="21"/>
+      <c r="C827" s="19"/>
       <c r="D827" s="6"/>
       <c r="E827" s="6"/>
       <c r="F827" s="12"/>
@@ -24899,7 +24890,7 @@
     <row r="828" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
-      <c r="C828" s="21"/>
+      <c r="C828" s="19"/>
       <c r="D828" s="6"/>
       <c r="E828" s="6"/>
       <c r="F828" s="12"/>
@@ -24928,7 +24919,7 @@
     <row r="829" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
-      <c r="C829" s="21"/>
+      <c r="C829" s="19"/>
       <c r="D829" s="6"/>
       <c r="E829" s="6"/>
       <c r="F829" s="12"/>
@@ -24957,7 +24948,7 @@
     <row r="830" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
-      <c r="C830" s="21"/>
+      <c r="C830" s="19"/>
       <c r="D830" s="6"/>
       <c r="E830" s="6"/>
       <c r="F830" s="12"/>
@@ -24986,7 +24977,7 @@
     <row r="831" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
-      <c r="C831" s="21"/>
+      <c r="C831" s="19"/>
       <c r="D831" s="6"/>
       <c r="E831" s="6"/>
       <c r="F831" s="12"/>
@@ -25015,7 +25006,7 @@
     <row r="832" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
-      <c r="C832" s="21"/>
+      <c r="C832" s="19"/>
       <c r="D832" s="6"/>
       <c r="E832" s="6"/>
       <c r="F832" s="12"/>
@@ -25044,7 +25035,7 @@
     <row r="833" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
-      <c r="C833" s="21"/>
+      <c r="C833" s="19"/>
       <c r="D833" s="6"/>
       <c r="E833" s="6"/>
       <c r="F833" s="12"/>
@@ -25073,7 +25064,7 @@
     <row r="834" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
-      <c r="C834" s="21"/>
+      <c r="C834" s="19"/>
       <c r="D834" s="6"/>
       <c r="E834" s="6"/>
       <c r="F834" s="12"/>
@@ -25102,7 +25093,7 @@
     <row r="835" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
-      <c r="C835" s="21"/>
+      <c r="C835" s="19"/>
       <c r="D835" s="6"/>
       <c r="E835" s="6"/>
       <c r="F835" s="12"/>
@@ -25131,7 +25122,7 @@
     <row r="836" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
-      <c r="C836" s="21"/>
+      <c r="C836" s="19"/>
       <c r="D836" s="6"/>
       <c r="E836" s="6"/>
       <c r="F836" s="12"/>
@@ -25160,7 +25151,7 @@
     <row r="837" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
-      <c r="C837" s="21"/>
+      <c r="C837" s="19"/>
       <c r="D837" s="6"/>
       <c r="E837" s="6"/>
       <c r="F837" s="12"/>
@@ -25189,7 +25180,7 @@
     <row r="838" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
-      <c r="C838" s="21"/>
+      <c r="C838" s="19"/>
       <c r="D838" s="6"/>
       <c r="E838" s="6"/>
       <c r="F838" s="12"/>
@@ -25218,7 +25209,7 @@
     <row r="839" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
-      <c r="C839" s="21"/>
+      <c r="C839" s="19"/>
       <c r="D839" s="6"/>
       <c r="E839" s="6"/>
       <c r="F839" s="12"/>
@@ -25247,7 +25238,7 @@
     <row r="840" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
-      <c r="C840" s="21"/>
+      <c r="C840" s="19"/>
       <c r="D840" s="6"/>
       <c r="E840" s="6"/>
       <c r="F840" s="12"/>
@@ -25276,7 +25267,7 @@
     <row r="841" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
-      <c r="C841" s="21"/>
+      <c r="C841" s="19"/>
       <c r="D841" s="6"/>
       <c r="E841" s="6"/>
       <c r="F841" s="12"/>
@@ -25305,7 +25296,7 @@
     <row r="842" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
-      <c r="C842" s="21"/>
+      <c r="C842" s="19"/>
       <c r="D842" s="6"/>
       <c r="E842" s="6"/>
       <c r="F842" s="12"/>
@@ -25334,7 +25325,7 @@
     <row r="843" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
-      <c r="C843" s="21"/>
+      <c r="C843" s="19"/>
       <c r="D843" s="6"/>
       <c r="E843" s="6"/>
       <c r="F843" s="12"/>
@@ -25363,7 +25354,7 @@
     <row r="844" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
-      <c r="C844" s="21"/>
+      <c r="C844" s="19"/>
       <c r="D844" s="6"/>
       <c r="E844" s="6"/>
       <c r="F844" s="12"/>
@@ -25392,7 +25383,7 @@
     <row r="845" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
-      <c r="C845" s="21"/>
+      <c r="C845" s="19"/>
       <c r="D845" s="6"/>
       <c r="E845" s="6"/>
       <c r="F845" s="12"/>
@@ -25421,7 +25412,7 @@
     <row r="846" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
-      <c r="C846" s="21"/>
+      <c r="C846" s="19"/>
       <c r="D846" s="6"/>
       <c r="E846" s="6"/>
       <c r="F846" s="12"/>
@@ -25450,7 +25441,7 @@
     <row r="847" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
-      <c r="C847" s="21"/>
+      <c r="C847" s="19"/>
       <c r="D847" s="6"/>
       <c r="E847" s="6"/>
       <c r="F847" s="12"/>
@@ -25479,7 +25470,7 @@
     <row r="848" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
-      <c r="C848" s="21"/>
+      <c r="C848" s="19"/>
       <c r="D848" s="6"/>
       <c r="E848" s="6"/>
       <c r="F848" s="12"/>
@@ -25508,7 +25499,7 @@
     <row r="849" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
-      <c r="C849" s="21"/>
+      <c r="C849" s="19"/>
       <c r="D849" s="6"/>
       <c r="E849" s="6"/>
       <c r="F849" s="12"/>
@@ -25537,7 +25528,7 @@
     <row r="850" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
-      <c r="C850" s="21"/>
+      <c r="C850" s="19"/>
       <c r="D850" s="6"/>
       <c r="E850" s="6"/>
       <c r="F850" s="12"/>
@@ -25566,7 +25557,7 @@
     <row r="851" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
-      <c r="C851" s="21"/>
+      <c r="C851" s="19"/>
       <c r="D851" s="6"/>
       <c r="E851" s="6"/>
       <c r="F851" s="12"/>
@@ -25595,7 +25586,7 @@
     <row r="852" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
-      <c r="C852" s="21"/>
+      <c r="C852" s="19"/>
       <c r="D852" s="6"/>
       <c r="E852" s="6"/>
       <c r="F852" s="12"/>
@@ -25624,7 +25615,7 @@
     <row r="853" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
-      <c r="C853" s="21"/>
+      <c r="C853" s="19"/>
       <c r="D853" s="6"/>
       <c r="E853" s="6"/>
       <c r="F853" s="12"/>
@@ -25653,7 +25644,7 @@
     <row r="854" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
-      <c r="C854" s="21"/>
+      <c r="C854" s="19"/>
       <c r="D854" s="6"/>
       <c r="E854" s="6"/>
       <c r="F854" s="12"/>
@@ -25682,7 +25673,7 @@
     <row r="855" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
-      <c r="C855" s="21"/>
+      <c r="C855" s="19"/>
       <c r="D855" s="6"/>
       <c r="E855" s="6"/>
       <c r="F855" s="12"/>
@@ -25711,7 +25702,7 @@
     <row r="856" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
-      <c r="C856" s="21"/>
+      <c r="C856" s="19"/>
       <c r="D856" s="6"/>
       <c r="E856" s="6"/>
       <c r="F856" s="12"/>
@@ -25740,7 +25731,7 @@
     <row r="857" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
-      <c r="C857" s="21"/>
+      <c r="C857" s="19"/>
       <c r="D857" s="6"/>
       <c r="E857" s="6"/>
       <c r="F857" s="12"/>
@@ -25769,7 +25760,7 @@
     <row r="858" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
-      <c r="C858" s="21"/>
+      <c r="C858" s="19"/>
       <c r="D858" s="6"/>
       <c r="E858" s="6"/>
       <c r="F858" s="12"/>
@@ -25798,7 +25789,7 @@
     <row r="859" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
-      <c r="C859" s="21"/>
+      <c r="C859" s="19"/>
       <c r="D859" s="6"/>
       <c r="E859" s="6"/>
       <c r="F859" s="12"/>
@@ -25827,7 +25818,7 @@
     <row r="860" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
-      <c r="C860" s="21"/>
+      <c r="C860" s="19"/>
       <c r="D860" s="6"/>
       <c r="E860" s="6"/>
       <c r="F860" s="12"/>
@@ -25856,7 +25847,7 @@
     <row r="861" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
-      <c r="C861" s="21"/>
+      <c r="C861" s="19"/>
       <c r="D861" s="6"/>
       <c r="E861" s="6"/>
       <c r="F861" s="12"/>
@@ -25885,7 +25876,7 @@
     <row r="862" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
-      <c r="C862" s="21"/>
+      <c r="C862" s="19"/>
       <c r="D862" s="6"/>
       <c r="E862" s="6"/>
       <c r="F862" s="12"/>
@@ -25914,7 +25905,7 @@
     <row r="863" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
-      <c r="C863" s="21"/>
+      <c r="C863" s="19"/>
       <c r="D863" s="6"/>
       <c r="E863" s="6"/>
       <c r="F863" s="12"/>
@@ -25943,7 +25934,7 @@
     <row r="864" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
-      <c r="C864" s="21"/>
+      <c r="C864" s="19"/>
       <c r="D864" s="6"/>
       <c r="E864" s="6"/>
       <c r="F864" s="12"/>
@@ -25972,7 +25963,7 @@
     <row r="865" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
-      <c r="C865" s="21"/>
+      <c r="C865" s="19"/>
       <c r="D865" s="6"/>
       <c r="E865" s="6"/>
       <c r="F865" s="12"/>
@@ -26001,7 +25992,7 @@
     <row r="866" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
-      <c r="C866" s="21"/>
+      <c r="C866" s="19"/>
       <c r="D866" s="6"/>
       <c r="E866" s="6"/>
       <c r="F866" s="12"/>
@@ -26030,7 +26021,7 @@
     <row r="867" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
-      <c r="C867" s="21"/>
+      <c r="C867" s="19"/>
       <c r="D867" s="6"/>
       <c r="E867" s="6"/>
       <c r="F867" s="12"/>
@@ -26059,7 +26050,7 @@
     <row r="868" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
-      <c r="C868" s="21"/>
+      <c r="C868" s="19"/>
       <c r="D868" s="6"/>
       <c r="E868" s="6"/>
       <c r="F868" s="12"/>
@@ -26088,7 +26079,7 @@
     <row r="869" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
-      <c r="C869" s="21"/>
+      <c r="C869" s="19"/>
       <c r="D869" s="6"/>
       <c r="E869" s="6"/>
       <c r="F869" s="12"/>
@@ -26117,7 +26108,7 @@
     <row r="870" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
-      <c r="C870" s="21"/>
+      <c r="C870" s="19"/>
       <c r="D870" s="6"/>
       <c r="E870" s="6"/>
       <c r="F870" s="12"/>
@@ -26146,7 +26137,7 @@
     <row r="871" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
-      <c r="C871" s="21"/>
+      <c r="C871" s="19"/>
       <c r="D871" s="6"/>
       <c r="E871" s="6"/>
       <c r="F871" s="12"/>
@@ -26175,7 +26166,7 @@
     <row r="872" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
-      <c r="C872" s="21"/>
+      <c r="C872" s="19"/>
       <c r="D872" s="6"/>
       <c r="E872" s="6"/>
       <c r="F872" s="12"/>
@@ -26204,7 +26195,7 @@
     <row r="873" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
-      <c r="C873" s="21"/>
+      <c r="C873" s="19"/>
       <c r="D873" s="6"/>
       <c r="E873" s="6"/>
       <c r="F873" s="12"/>
@@ -26233,7 +26224,7 @@
     <row r="874" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
-      <c r="C874" s="21"/>
+      <c r="C874" s="19"/>
       <c r="D874" s="6"/>
       <c r="E874" s="6"/>
       <c r="F874" s="12"/>
@@ -26262,7 +26253,7 @@
     <row r="875" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
-      <c r="C875" s="21"/>
+      <c r="C875" s="19"/>
       <c r="D875" s="6"/>
       <c r="E875" s="6"/>
       <c r="F875" s="12"/>
@@ -26291,7 +26282,7 @@
     <row r="876" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
-      <c r="C876" s="21"/>
+      <c r="C876" s="19"/>
       <c r="D876" s="6"/>
       <c r="E876" s="6"/>
       <c r="F876" s="12"/>
@@ -26320,7 +26311,7 @@
     <row r="877" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
-      <c r="C877" s="21"/>
+      <c r="C877" s="19"/>
       <c r="D877" s="6"/>
       <c r="E877" s="6"/>
       <c r="F877" s="12"/>
@@ -26349,7 +26340,7 @@
     <row r="878" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
-      <c r="C878" s="21"/>
+      <c r="C878" s="19"/>
       <c r="D878" s="6"/>
       <c r="E878" s="6"/>
       <c r="F878" s="12"/>
@@ -26378,7 +26369,7 @@
     <row r="879" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
-      <c r="C879" s="21"/>
+      <c r="C879" s="19"/>
       <c r="D879" s="6"/>
       <c r="E879" s="6"/>
       <c r="F879" s="12"/>
@@ -26407,7 +26398,7 @@
     <row r="880" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
-      <c r="C880" s="21"/>
+      <c r="C880" s="19"/>
       <c r="D880" s="6"/>
       <c r="E880" s="6"/>
       <c r="F880" s="12"/>
@@ -26436,7 +26427,7 @@
     <row r="881" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
-      <c r="C881" s="21"/>
+      <c r="C881" s="19"/>
       <c r="D881" s="6"/>
       <c r="E881" s="6"/>
       <c r="F881" s="12"/>
@@ -26465,7 +26456,7 @@
     <row r="882" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
-      <c r="C882" s="21"/>
+      <c r="C882" s="19"/>
       <c r="D882" s="6"/>
       <c r="E882" s="6"/>
       <c r="F882" s="12"/>
@@ -26494,7 +26485,7 @@
     <row r="883" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
-      <c r="C883" s="21"/>
+      <c r="C883" s="19"/>
       <c r="D883" s="6"/>
       <c r="E883" s="6"/>
       <c r="F883" s="12"/>
@@ -26523,7 +26514,7 @@
     <row r="884" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
-      <c r="C884" s="21"/>
+      <c r="C884" s="19"/>
       <c r="D884" s="6"/>
       <c r="E884" s="6"/>
       <c r="F884" s="12"/>
@@ -26552,7 +26543,7 @@
     <row r="885" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
-      <c r="C885" s="21"/>
+      <c r="C885" s="19"/>
       <c r="D885" s="6"/>
       <c r="E885" s="6"/>
       <c r="F885" s="12"/>
@@ -26581,7 +26572,7 @@
     <row r="886" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
-      <c r="C886" s="21"/>
+      <c r="C886" s="19"/>
       <c r="D886" s="6"/>
       <c r="E886" s="6"/>
       <c r="F886" s="12"/>
@@ -26610,7 +26601,7 @@
     <row r="887" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
-      <c r="C887" s="21"/>
+      <c r="C887" s="19"/>
       <c r="D887" s="6"/>
       <c r="E887" s="6"/>
       <c r="F887" s="12"/>
@@ -26639,7 +26630,7 @@
     <row r="888" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
-      <c r="C888" s="21"/>
+      <c r="C888" s="19"/>
       <c r="D888" s="6"/>
       <c r="E888" s="6"/>
       <c r="F888" s="12"/>
@@ -26668,7 +26659,7 @@
     <row r="889" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
-      <c r="C889" s="21"/>
+      <c r="C889" s="19"/>
       <c r="D889" s="6"/>
       <c r="E889" s="6"/>
       <c r="F889" s="12"/>
@@ -26697,7 +26688,7 @@
     <row r="890" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
-      <c r="C890" s="21"/>
+      <c r="C890" s="19"/>
       <c r="D890" s="6"/>
       <c r="E890" s="6"/>
       <c r="F890" s="12"/>
@@ -26726,7 +26717,7 @@
     <row r="891" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
-      <c r="C891" s="21"/>
+      <c r="C891" s="19"/>
       <c r="D891" s="6"/>
       <c r="E891" s="6"/>
       <c r="F891" s="12"/>
@@ -26755,7 +26746,7 @@
     <row r="892" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
-      <c r="C892" s="21"/>
+      <c r="C892" s="19"/>
       <c r="D892" s="6"/>
       <c r="E892" s="6"/>
       <c r="F892" s="12"/>
@@ -26784,7 +26775,7 @@
     <row r="893" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
-      <c r="C893" s="21"/>
+      <c r="C893" s="19"/>
       <c r="D893" s="6"/>
       <c r="E893" s="6"/>
       <c r="F893" s="12"/>
@@ -26813,7 +26804,7 @@
     <row r="894" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
-      <c r="C894" s="21"/>
+      <c r="C894" s="19"/>
       <c r="D894" s="6"/>
       <c r="E894" s="6"/>
       <c r="F894" s="12"/>
@@ -26842,7 +26833,7 @@
     <row r="895" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
-      <c r="C895" s="21"/>
+      <c r="C895" s="19"/>
       <c r="D895" s="6"/>
       <c r="E895" s="6"/>
       <c r="F895" s="12"/>
@@ -26871,7 +26862,7 @@
     <row r="896" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
-      <c r="C896" s="21"/>
+      <c r="C896" s="19"/>
       <c r="D896" s="6"/>
       <c r="E896" s="6"/>
       <c r="F896" s="12"/>
@@ -26900,7 +26891,7 @@
     <row r="897" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
-      <c r="C897" s="21"/>
+      <c r="C897" s="19"/>
       <c r="D897" s="6"/>
       <c r="E897" s="6"/>
       <c r="F897" s="12"/>
@@ -26929,7 +26920,7 @@
     <row r="898" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
-      <c r="C898" s="21"/>
+      <c r="C898" s="19"/>
       <c r="D898" s="6"/>
       <c r="E898" s="6"/>
       <c r="F898" s="12"/>
@@ -26958,7 +26949,7 @@
     <row r="899" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
-      <c r="C899" s="21"/>
+      <c r="C899" s="19"/>
       <c r="D899" s="6"/>
       <c r="E899" s="6"/>
       <c r="F899" s="12"/>
@@ -26987,7 +26978,7 @@
     <row r="900" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
-      <c r="C900" s="21"/>
+      <c r="C900" s="19"/>
       <c r="D900" s="6"/>
       <c r="E900" s="6"/>
       <c r="F900" s="12"/>
@@ -27016,7 +27007,7 @@
     <row r="901" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
-      <c r="C901" s="21"/>
+      <c r="C901" s="19"/>
       <c r="D901" s="6"/>
       <c r="E901" s="6"/>
       <c r="F901" s="12"/>
@@ -27045,7 +27036,7 @@
     <row r="902" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
-      <c r="C902" s="21"/>
+      <c r="C902" s="19"/>
       <c r="D902" s="6"/>
       <c r="E902" s="6"/>
       <c r="F902" s="12"/>
@@ -27074,7 +27065,7 @@
     <row r="903" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
-      <c r="C903" s="21"/>
+      <c r="C903" s="19"/>
       <c r="D903" s="6"/>
       <c r="E903" s="6"/>
       <c r="F903" s="12"/>
@@ -27103,7 +27094,7 @@
     <row r="904" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
-      <c r="C904" s="21"/>
+      <c r="C904" s="19"/>
       <c r="D904" s="6"/>
       <c r="E904" s="6"/>
       <c r="F904" s="12"/>
@@ -27132,7 +27123,7 @@
     <row r="905" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
-      <c r="C905" s="21"/>
+      <c r="C905" s="19"/>
       <c r="D905" s="6"/>
       <c r="E905" s="6"/>
       <c r="F905" s="12"/>
@@ -27161,7 +27152,7 @@
     <row r="906" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
-      <c r="C906" s="21"/>
+      <c r="C906" s="19"/>
       <c r="D906" s="6"/>
       <c r="E906" s="6"/>
       <c r="F906" s="12"/>
@@ -27190,7 +27181,7 @@
     <row r="907" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
-      <c r="C907" s="21"/>
+      <c r="C907" s="19"/>
       <c r="D907" s="6"/>
       <c r="E907" s="6"/>
       <c r="F907" s="12"/>
@@ -27219,7 +27210,7 @@
     <row r="908" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
-      <c r="C908" s="21"/>
+      <c r="C908" s="19"/>
       <c r="D908" s="6"/>
       <c r="E908" s="6"/>
       <c r="F908" s="12"/>
@@ -27248,7 +27239,7 @@
     <row r="909" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
-      <c r="C909" s="21"/>
+      <c r="C909" s="19"/>
       <c r="D909" s="6"/>
       <c r="E909" s="6"/>
       <c r="F909" s="12"/>
@@ -27277,7 +27268,7 @@
     <row r="910" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
-      <c r="C910" s="21"/>
+      <c r="C910" s="19"/>
       <c r="D910" s="6"/>
       <c r="E910" s="6"/>
       <c r="F910" s="12"/>
@@ -27306,7 +27297,7 @@
     <row r="911" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
-      <c r="C911" s="21"/>
+      <c r="C911" s="19"/>
       <c r="D911" s="6"/>
       <c r="E911" s="6"/>
       <c r="F911" s="12"/>
@@ -27335,7 +27326,7 @@
     <row r="912" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
-      <c r="C912" s="21"/>
+      <c r="C912" s="19"/>
       <c r="D912" s="6"/>
       <c r="E912" s="6"/>
       <c r="F912" s="12"/>
@@ -27364,7 +27355,7 @@
     <row r="913" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
-      <c r="C913" s="21"/>
+      <c r="C913" s="19"/>
       <c r="D913" s="6"/>
       <c r="E913" s="6"/>
       <c r="F913" s="12"/>
@@ -27393,7 +27384,7 @@
     <row r="914" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
-      <c r="C914" s="21"/>
+      <c r="C914" s="19"/>
       <c r="D914" s="6"/>
       <c r="E914" s="6"/>
       <c r="F914" s="12"/>
@@ -27422,7 +27413,7 @@
     <row r="915" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
-      <c r="C915" s="21"/>
+      <c r="C915" s="19"/>
       <c r="D915" s="6"/>
       <c r="E915" s="6"/>
       <c r="F915" s="12"/>
@@ -27451,7 +27442,7 @@
     <row r="916" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
-      <c r="C916" s="21"/>
+      <c r="C916" s="19"/>
       <c r="D916" s="6"/>
       <c r="E916" s="6"/>
       <c r="F916" s="12"/>
@@ -27480,7 +27471,7 @@
     <row r="917" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
-      <c r="C917" s="21"/>
+      <c r="C917" s="19"/>
       <c r="D917" s="6"/>
       <c r="E917" s="6"/>
       <c r="F917" s="12"/>
@@ -27509,7 +27500,7 @@
     <row r="918" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
-      <c r="C918" s="21"/>
+      <c r="C918" s="19"/>
       <c r="D918" s="6"/>
       <c r="E918" s="6"/>
       <c r="F918" s="12"/>
@@ -27538,7 +27529,7 @@
     <row r="919" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
-      <c r="C919" s="21"/>
+      <c r="C919" s="19"/>
       <c r="D919" s="6"/>
       <c r="E919" s="6"/>
       <c r="F919" s="12"/>
@@ -27567,7 +27558,7 @@
     <row r="920" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
-      <c r="C920" s="21"/>
+      <c r="C920" s="19"/>
       <c r="D920" s="6"/>
       <c r="E920" s="6"/>
       <c r="F920" s="12"/>
@@ -27596,7 +27587,7 @@
     <row r="921" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
-      <c r="C921" s="21"/>
+      <c r="C921" s="19"/>
       <c r="D921" s="6"/>
       <c r="E921" s="6"/>
       <c r="F921" s="12"/>
@@ -27625,7 +27616,7 @@
     <row r="922" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
-      <c r="C922" s="21"/>
+      <c r="C922" s="19"/>
       <c r="D922" s="6"/>
       <c r="E922" s="6"/>
       <c r="F922" s="12"/>
@@ -27654,7 +27645,7 @@
     <row r="923" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
-      <c r="C923" s="21"/>
+      <c r="C923" s="19"/>
       <c r="D923" s="6"/>
       <c r="E923" s="6"/>
       <c r="F923" s="12"/>
@@ -27683,7 +27674,7 @@
     <row r="924" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
-      <c r="C924" s="21"/>
+      <c r="C924" s="19"/>
       <c r="D924" s="6"/>
       <c r="E924" s="6"/>
       <c r="F924" s="12"/>
@@ -27712,7 +27703,7 @@
     <row r="925" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
-      <c r="C925" s="21"/>
+      <c r="C925" s="19"/>
       <c r="D925" s="6"/>
       <c r="E925" s="6"/>
       <c r="F925" s="12"/>
@@ -27741,7 +27732,7 @@
     <row r="926" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
-      <c r="C926" s="21"/>
+      <c r="C926" s="19"/>
       <c r="D926" s="6"/>
       <c r="E926" s="6"/>
       <c r="F926" s="12"/>
@@ -27770,7 +27761,7 @@
     <row r="927" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
-      <c r="C927" s="21"/>
+      <c r="C927" s="19"/>
       <c r="D927" s="6"/>
       <c r="E927" s="6"/>
       <c r="F927" s="12"/>
@@ -27799,7 +27790,7 @@
     <row r="928" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
-      <c r="C928" s="21"/>
+      <c r="C928" s="19"/>
       <c r="D928" s="6"/>
       <c r="E928" s="6"/>
       <c r="F928" s="12"/>
@@ -27828,7 +27819,7 @@
     <row r="929" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
-      <c r="C929" s="21"/>
+      <c r="C929" s="19"/>
       <c r="D929" s="6"/>
       <c r="E929" s="6"/>
       <c r="F929" s="12"/>
@@ -27857,7 +27848,7 @@
     <row r="930" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
-      <c r="C930" s="21"/>
+      <c r="C930" s="19"/>
       <c r="D930" s="6"/>
       <c r="E930" s="6"/>
       <c r="F930" s="12"/>
@@ -27886,7 +27877,7 @@
     <row r="931" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
-      <c r="C931" s="21"/>
+      <c r="C931" s="19"/>
       <c r="D931" s="6"/>
       <c r="E931" s="6"/>
       <c r="F931" s="12"/>
@@ -27915,7 +27906,7 @@
     <row r="932" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
-      <c r="C932" s="21"/>
+      <c r="C932" s="19"/>
       <c r="D932" s="6"/>
       <c r="E932" s="6"/>
       <c r="F932" s="12"/>
@@ -27944,7 +27935,7 @@
     <row r="933" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
-      <c r="C933" s="21"/>
+      <c r="C933" s="19"/>
       <c r="D933" s="6"/>
       <c r="E933" s="6"/>
       <c r="F933" s="12"/>
@@ -27973,7 +27964,7 @@
     <row r="934" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
-      <c r="C934" s="21"/>
+      <c r="C934" s="19"/>
       <c r="D934" s="6"/>
       <c r="E934" s="6"/>
       <c r="F934" s="12"/>
@@ -28002,7 +27993,7 @@
     <row r="935" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
-      <c r="C935" s="21"/>
+      <c r="C935" s="19"/>
       <c r="D935" s="6"/>
       <c r="E935" s="6"/>
       <c r="F935" s="12"/>
@@ -28031,7 +28022,7 @@
     <row r="936" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
-      <c r="C936" s="21"/>
+      <c r="C936" s="19"/>
       <c r="D936" s="6"/>
       <c r="E936" s="6"/>
       <c r="F936" s="12"/>
@@ -28060,7 +28051,7 @@
     <row r="937" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
-      <c r="C937" s="21"/>
+      <c r="C937" s="19"/>
       <c r="D937" s="6"/>
       <c r="E937" s="6"/>
       <c r="F937" s="12"/>
@@ -28089,7 +28080,7 @@
     <row r="938" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
-      <c r="C938" s="21"/>
+      <c r="C938" s="19"/>
       <c r="D938" s="6"/>
       <c r="E938" s="6"/>
       <c r="F938" s="12"/>
@@ -28118,7 +28109,7 @@
     <row r="939" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
-      <c r="C939" s="21"/>
+      <c r="C939" s="19"/>
       <c r="D939" s="6"/>
       <c r="E939" s="6"/>
       <c r="F939" s="12"/>
@@ -28147,7 +28138,7 @@
     <row r="940" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
-      <c r="C940" s="21"/>
+      <c r="C940" s="19"/>
       <c r="D940" s="6"/>
       <c r="E940" s="6"/>
       <c r="F940" s="12"/>
@@ -28176,7 +28167,7 @@
     <row r="941" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
-      <c r="C941" s="21"/>
+      <c r="C941" s="19"/>
       <c r="D941" s="6"/>
       <c r="E941" s="6"/>
       <c r="F941" s="12"/>
@@ -28205,7 +28196,7 @@
     <row r="942" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
-      <c r="C942" s="21"/>
+      <c r="C942" s="19"/>
       <c r="D942" s="6"/>
       <c r="E942" s="6"/>
       <c r="F942" s="12"/>
@@ -28234,7 +28225,7 @@
     <row r="943" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
-      <c r="C943" s="21"/>
+      <c r="C943" s="19"/>
       <c r="D943" s="6"/>
       <c r="E943" s="6"/>
       <c r="F943" s="12"/>
@@ -28263,7 +28254,7 @@
     <row r="944" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
-      <c r="C944" s="21"/>
+      <c r="C944" s="19"/>
       <c r="D944" s="6"/>
       <c r="E944" s="6"/>
       <c r="F944" s="12"/>
@@ -28292,7 +28283,7 @@
     <row r="945" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
-      <c r="C945" s="21"/>
+      <c r="C945" s="19"/>
       <c r="D945" s="6"/>
       <c r="E945" s="6"/>
       <c r="F945" s="12"/>
@@ -28321,7 +28312,7 @@
     <row r="946" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
-      <c r="C946" s="21"/>
+      <c r="C946" s="19"/>
       <c r="D946" s="6"/>
       <c r="E946" s="6"/>
       <c r="F946" s="12"/>
@@ -28350,7 +28341,7 @@
     <row r="947" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
-      <c r="C947" s="21"/>
+      <c r="C947" s="19"/>
       <c r="D947" s="6"/>
       <c r="E947" s="6"/>
       <c r="F947" s="12"/>
@@ -28379,7 +28370,7 @@
     <row r="948" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
-      <c r="C948" s="21"/>
+      <c r="C948" s="19"/>
       <c r="D948" s="6"/>
       <c r="E948" s="6"/>
       <c r="F948" s="12"/>
@@ -28408,7 +28399,7 @@
     <row r="949" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
-      <c r="C949" s="21"/>
+      <c r="C949" s="19"/>
       <c r="D949" s="6"/>
       <c r="E949" s="6"/>
       <c r="F949" s="12"/>
@@ -28437,7 +28428,7 @@
     <row r="950" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
-      <c r="C950" s="21"/>
+      <c r="C950" s="19"/>
       <c r="D950" s="6"/>
       <c r="E950" s="6"/>
       <c r="F950" s="12"/>
@@ -28466,7 +28457,7 @@
     <row r="951" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
-      <c r="C951" s="21"/>
+      <c r="C951" s="19"/>
       <c r="D951" s="6"/>
       <c r="E951" s="6"/>
       <c r="F951" s="12"/>
@@ -28495,7 +28486,7 @@
     <row r="952" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
-      <c r="C952" s="21"/>
+      <c r="C952" s="19"/>
       <c r="D952" s="6"/>
       <c r="E952" s="6"/>
       <c r="F952" s="12"/>
@@ -28524,7 +28515,7 @@
     <row r="953" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
-      <c r="C953" s="21"/>
+      <c r="C953" s="19"/>
       <c r="D953" s="6"/>
       <c r="E953" s="6"/>
       <c r="F953" s="12"/>
@@ -28553,7 +28544,7 @@
     <row r="954" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
-      <c r="C954" s="21"/>
+      <c r="C954" s="19"/>
       <c r="D954" s="6"/>
       <c r="E954" s="6"/>
       <c r="F954" s="12"/>
@@ -28582,7 +28573,7 @@
     <row r="955" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
-      <c r="C955" s="21"/>
+      <c r="C955" s="19"/>
       <c r="D955" s="6"/>
       <c r="E955" s="6"/>
       <c r="F955" s="12"/>
@@ -28611,7 +28602,7 @@
     <row r="956" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
-      <c r="C956" s="21"/>
+      <c r="C956" s="19"/>
       <c r="D956" s="6"/>
       <c r="E956" s="6"/>
       <c r="F956" s="12"/>
@@ -28640,7 +28631,7 @@
     <row r="957" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
-      <c r="C957" s="21"/>
+      <c r="C957" s="19"/>
       <c r="D957" s="6"/>
       <c r="E957" s="6"/>
       <c r="F957" s="12"/>
@@ -28669,7 +28660,7 @@
     <row r="958" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
-      <c r="C958" s="21"/>
+      <c r="C958" s="19"/>
       <c r="D958" s="6"/>
       <c r="E958" s="6"/>
       <c r="F958" s="12"/>
@@ -28698,7 +28689,7 @@
     <row r="959" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
-      <c r="C959" s="21"/>
+      <c r="C959" s="19"/>
       <c r="D959" s="6"/>
       <c r="E959" s="6"/>
       <c r="F959" s="12"/>
@@ -28727,7 +28718,7 @@
     <row r="960" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
-      <c r="C960" s="21"/>
+      <c r="C960" s="19"/>
       <c r="D960" s="6"/>
       <c r="E960" s="6"/>
       <c r="F960" s="12"/>
@@ -28756,7 +28747,7 @@
     <row r="961" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
-      <c r="C961" s="21"/>
+      <c r="C961" s="19"/>
       <c r="D961" s="6"/>
       <c r="E961" s="6"/>
       <c r="F961" s="12"/>
@@ -28785,7 +28776,7 @@
     <row r="962" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
-      <c r="C962" s="21"/>
+      <c r="C962" s="19"/>
       <c r="D962" s="6"/>
       <c r="E962" s="6"/>
       <c r="F962" s="12"/>
@@ -28814,7 +28805,7 @@
     <row r="963" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
-      <c r="C963" s="21"/>
+      <c r="C963" s="19"/>
       <c r="D963" s="6"/>
       <c r="E963" s="6"/>
       <c r="F963" s="12"/>
@@ -28843,7 +28834,7 @@
     <row r="964" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
-      <c r="C964" s="21"/>
+      <c r="C964" s="19"/>
       <c r="D964" s="6"/>
       <c r="E964" s="6"/>
       <c r="F964" s="12"/>
@@ -28872,7 +28863,7 @@
     <row r="965" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
-      <c r="C965" s="21"/>
+      <c r="C965" s="19"/>
       <c r="D965" s="6"/>
       <c r="E965" s="6"/>
       <c r="F965" s="12"/>
@@ -28901,7 +28892,7 @@
     <row r="966" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
-      <c r="C966" s="21"/>
+      <c r="C966" s="19"/>
       <c r="D966" s="6"/>
       <c r="E966" s="6"/>
       <c r="F966" s="12"/>
@@ -28930,7 +28921,7 @@
     <row r="967" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
-      <c r="C967" s="21"/>
+      <c r="C967" s="19"/>
       <c r="D967" s="6"/>
       <c r="E967" s="6"/>
       <c r="F967" s="12"/>
@@ -28959,7 +28950,7 @@
     <row r="968" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
-      <c r="C968" s="21"/>
+      <c r="C968" s="19"/>
       <c r="D968" s="6"/>
       <c r="E968" s="6"/>
       <c r="F968" s="12"/>
@@ -28988,7 +28979,7 @@
     <row r="969" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
-      <c r="C969" s="21"/>
+      <c r="C969" s="19"/>
       <c r="D969" s="6"/>
       <c r="E969" s="6"/>
       <c r="F969" s="12"/>
@@ -29017,7 +29008,7 @@
     <row r="970" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
-      <c r="C970" s="21"/>
+      <c r="C970" s="19"/>
       <c r="D970" s="6"/>
       <c r="E970" s="6"/>
       <c r="F970" s="12"/>
@@ -29046,7 +29037,7 @@
     <row r="971" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
-      <c r="C971" s="21"/>
+      <c r="C971" s="19"/>
       <c r="D971" s="6"/>
       <c r="E971" s="6"/>
       <c r="F971" s="12"/>
@@ -29075,7 +29066,7 @@
     <row r="972" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
-      <c r="C972" s="21"/>
+      <c r="C972" s="19"/>
       <c r="D972" s="6"/>
       <c r="E972" s="6"/>
       <c r="F972" s="12"/>
@@ -29104,7 +29095,7 @@
     <row r="973" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
-      <c r="C973" s="21"/>
+      <c r="C973" s="19"/>
       <c r="D973" s="6"/>
       <c r="E973" s="6"/>
       <c r="F973" s="12"/>
@@ -29133,7 +29124,7 @@
     <row r="974" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
-      <c r="C974" s="21"/>
+      <c r="C974" s="19"/>
       <c r="D974" s="6"/>
       <c r="E974" s="6"/>
       <c r="F974" s="12"/>
@@ -29162,7 +29153,7 @@
     <row r="975" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
-      <c r="C975" s="21"/>
+      <c r="C975" s="19"/>
       <c r="D975" s="6"/>
       <c r="E975" s="6"/>
       <c r="F975" s="12"/>
@@ -29191,7 +29182,7 @@
     <row r="976" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
-      <c r="C976" s="21"/>
+      <c r="C976" s="19"/>
       <c r="D976" s="6"/>
       <c r="E976" s="6"/>
       <c r="F976" s="12"/>
@@ -29220,7 +29211,7 @@
     <row r="977" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
-      <c r="C977" s="21"/>
+      <c r="C977" s="19"/>
       <c r="D977" s="6"/>
       <c r="E977" s="6"/>
       <c r="F977" s="12"/>
@@ -29249,7 +29240,7 @@
     <row r="978" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
-      <c r="C978" s="21"/>
+      <c r="C978" s="19"/>
       <c r="D978" s="6"/>
       <c r="E978" s="6"/>
       <c r="F978" s="12"/>
@@ -29278,7 +29269,7 @@
     <row r="979" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
-      <c r="C979" s="21"/>
+      <c r="C979" s="19"/>
       <c r="D979" s="6"/>
       <c r="E979" s="6"/>
       <c r="F979" s="12"/>
@@ -29307,7 +29298,7 @@
     <row r="980" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
-      <c r="C980" s="21"/>
+      <c r="C980" s="19"/>
       <c r="D980" s="6"/>
       <c r="E980" s="6"/>
       <c r="F980" s="12"/>
@@ -29336,7 +29327,7 @@
     <row r="981" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
-      <c r="C981" s="21"/>
+      <c r="C981" s="19"/>
       <c r="D981" s="6"/>
       <c r="E981" s="6"/>
       <c r="F981" s="12"/>
@@ -29365,7 +29356,7 @@
     <row r="982" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
-      <c r="C982" s="21"/>
+      <c r="C982" s="19"/>
       <c r="D982" s="6"/>
       <c r="E982" s="6"/>
       <c r="F982" s="12"/>
@@ -29394,7 +29385,7 @@
     <row r="983" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
-      <c r="C983" s="21"/>
+      <c r="C983" s="19"/>
       <c r="D983" s="6"/>
       <c r="E983" s="6"/>
       <c r="F983" s="12"/>
@@ -29423,7 +29414,7 @@
     <row r="984" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
-      <c r="C984" s="21"/>
+      <c r="C984" s="19"/>
       <c r="D984" s="6"/>
       <c r="E984" s="6"/>
       <c r="F984" s="12"/>
@@ -29452,7 +29443,7 @@
     <row r="985" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A985" s="6"/>
       <c r="B985" s="6"/>
-      <c r="C985" s="21"/>
+      <c r="C985" s="19"/>
       <c r="D985" s="6"/>
       <c r="E985" s="6"/>
       <c r="F985" s="12"/>
@@ -29481,7 +29472,7 @@
     <row r="986" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A986" s="6"/>
       <c r="B986" s="6"/>
-      <c r="C986" s="21"/>
+      <c r="C986" s="19"/>
       <c r="D986" s="6"/>
       <c r="E986" s="6"/>
       <c r="F986" s="12"/>
@@ -29510,7 +29501,7 @@
     <row r="987" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A987" s="6"/>
       <c r="B987" s="6"/>
-      <c r="C987" s="21"/>
+      <c r="C987" s="19"/>
       <c r="D987" s="6"/>
       <c r="E987" s="6"/>
       <c r="F987" s="12"/>
@@ -29539,7 +29530,7 @@
     <row r="988" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A988" s="6"/>
       <c r="B988" s="6"/>
-      <c r="C988" s="21"/>
+      <c r="C988" s="19"/>
       <c r="D988" s="6"/>
       <c r="E988" s="6"/>
       <c r="F988" s="12"/>
@@ -29568,7 +29559,7 @@
     <row r="989" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A989" s="6"/>
       <c r="B989" s="6"/>
-      <c r="C989" s="21"/>
+      <c r="C989" s="19"/>
       <c r="D989" s="6"/>
       <c r="E989" s="6"/>
       <c r="F989" s="12"/>
@@ -29597,7 +29588,7 @@
     <row r="990" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A990" s="6"/>
       <c r="B990" s="6"/>
-      <c r="C990" s="21"/>
+      <c r="C990" s="19"/>
       <c r="D990" s="6"/>
       <c r="E990" s="6"/>
       <c r="F990" s="12"/>
@@ -29626,7 +29617,7 @@
     <row r="991" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A991" s="6"/>
       <c r="B991" s="6"/>
-      <c r="C991" s="21"/>
+      <c r="C991" s="19"/>
       <c r="D991" s="6"/>
       <c r="E991" s="6"/>
       <c r="F991" s="12"/>
@@ -29655,7 +29646,7 @@
     <row r="992" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A992" s="6"/>
       <c r="B992" s="6"/>
-      <c r="C992" s="21"/>
+      <c r="C992" s="19"/>
       <c r="D992" s="6"/>
       <c r="E992" s="6"/>
       <c r="F992" s="12"/>
@@ -29684,7 +29675,7 @@
     <row r="993" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
-      <c r="C993" s="21"/>
+      <c r="C993" s="19"/>
       <c r="D993" s="6"/>
       <c r="E993" s="6"/>
       <c r="F993" s="12"/>
@@ -29713,7 +29704,7 @@
     <row r="994" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A994" s="6"/>
       <c r="B994" s="6"/>
-      <c r="C994" s="21"/>
+      <c r="C994" s="19"/>
       <c r="D994" s="6"/>
       <c r="E994" s="6"/>
       <c r="F994" s="12"/>
@@ -29742,7 +29733,7 @@
     <row r="995" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A995" s="6"/>
       <c r="B995" s="6"/>
-      <c r="C995" s="21"/>
+      <c r="C995" s="19"/>
       <c r="D995" s="6"/>
       <c r="E995" s="6"/>
       <c r="F995" s="12"/>
@@ -29771,7 +29762,7 @@
     <row r="996" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A996" s="6"/>
       <c r="B996" s="6"/>
-      <c r="C996" s="21"/>
+      <c r="C996" s="19"/>
       <c r="D996" s="6"/>
       <c r="E996" s="6"/>
       <c r="F996" s="12"/>
@@ -29800,7 +29791,7 @@
     <row r="997" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
-      <c r="C997" s="21"/>
+      <c r="C997" s="19"/>
       <c r="D997" s="6"/>
       <c r="E997" s="6"/>
       <c r="F997" s="12"/>
@@ -29829,7 +29820,7 @@
     <row r="998" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A998" s="6"/>
       <c r="B998" s="6"/>
-      <c r="C998" s="21"/>
+      <c r="C998" s="19"/>
       <c r="D998" s="6"/>
       <c r="E998" s="6"/>
       <c r="F998" s="12"/>
@@ -29858,7 +29849,7 @@
     <row r="999" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A999" s="6"/>
       <c r="B999" s="6"/>
-      <c r="C999" s="21"/>
+      <c r="C999" s="19"/>
       <c r="D999" s="6"/>
       <c r="E999" s="6"/>
       <c r="F999" s="12"/>
@@ -29887,7 +29878,7 @@
     <row r="1000" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1000" s="6"/>
       <c r="B1000" s="6"/>
-      <c r="C1000" s="21"/>
+      <c r="C1000" s="19"/>
       <c r="D1000" s="6"/>
       <c r="H1000" s="6"/>
       <c r="I1000" s="6"/>
@@ -29912,7 +29903,7 @@
     </row>
     <row r="1001" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1001" s="6"/>
-      <c r="C1001" s="21"/>
+      <c r="C1001" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29935,7 +29926,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29946,10 +29937,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.2">
@@ -29999,7 +29990,7 @@
       </c>
       <c r="B6" s="13" t="str">
         <f>'Valores unitarios'!B8</f>
-        <v>(Drivers al día, Navegdor Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</v>
+        <v>(Drivers al día, Navegador Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -30039,7 +30030,7 @@
       </c>
       <c r="B10" s="13" t="str">
         <f>'Valores unitarios'!B12</f>
-        <v>(Cotizacion y compra de: discos, procesadores, memorias RAM, baterías etc.)</v>
+        <v>(Cotización y compra de: discos, procesadores, memorias RAM, baterías etc.)</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -30055,11 +30046,11 @@
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>'Valores unitarios'!A14</f>
-        <v xml:space="preserve">Instalación de pantallas </v>
+        <v>Instalación de pantallas </v>
       </c>
       <c r="B12" s="13" t="str">
         <f>'Valores unitarios'!B14</f>
-        <v>(Instalacion de pantallas como precio base, variacion de precio en base a dificultad/gama del equipo)</v>
+        <v>(Instalación de pantallas como precio base, variación de precio en base a dificultad/gama del equipo)</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -30069,7 +30060,7 @@
       </c>
       <c r="B13" s="13" t="str">
         <f>'Valores unitarios'!B15</f>
-        <v>(Respaldos hasta 64gb)</v>
+        <v>(Respaldos hasta 90gb)</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -30079,7 +30070,7 @@
       </c>
       <c r="B14" s="13" t="str">
         <f>'Valores unitarios'!B16</f>
-        <v>(Respaldos desde 64gb como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo destino propio)</v>
+        <v>(Respaldos desde 90gb como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo de destino propio)</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -30115,21 +30106,21 @@
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>'Valores unitarios'!A20</f>
-        <v>Diagnostico/Solucion problemas/Instalación de impresora</v>
+        <v>Diagnóstico/Solucion problemas/Instalación de impresora</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>'Valores unitarios'!B20</f>
-        <v>(Diagnostico/Solucion problemas/Instalación de impresora)</v>
+        <v>(Diagnóstico/Solucion problemas/Instalación de impresora)</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>'Valores unitarios'!A21</f>
-        <v>Clonacion de discos duros</v>
+        <v>Clonación de discos duros</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>'Valores unitarios'!B21</f>
-        <v>(Realizacion de una copia de su disco duro como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo destino propio)</v>
+        <v>(Realización de una copia de su disco duro como precio base, variaciones de precio dependiendo del tiempo del procedimiento. Proporcionar un disco externo destino propio)</v>
       </c>
     </row>
   </sheetData>
@@ -30141,8 +30132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653371A9-33A1-4761-AEB2-5622F7EC45A0}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A15:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30153,227 +30144,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>58</v>
+      <c r="A2" s="22" t="s">
+        <v>47</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
+      <c r="B3" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="5">
         <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
+      <c r="A4" s="29" t="s">
+        <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>32</v>
+      <c r="B4" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
+      <c r="A7" s="28" t="s">
+        <v>23</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
+      <c r="B7" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="5">
         <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>26</v>
+      <c r="A8" s="29" t="s">
+        <v>24</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>36</v>
+      <c r="B8" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>27</v>
+      <c r="A9" s="28" t="s">
+        <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
+      <c r="B9" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="5">
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>39</v>
+      <c r="B11" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
+      <c r="A12" s="29" t="s">
+        <v>21</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>23</v>
+      <c r="B12" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="5">
         <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
+      <c r="A13" s="28" t="s">
+        <v>22</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>33</v>
+      <c r="B13" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>6</v>
+      <c r="A14" s="29" t="s">
+        <v>62</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>34</v>
+      <c r="B14" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="5">
         <v>30000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>67</v>
+      <c r="A15" s="28" t="s">
+        <v>54</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>38</v>
+      <c r="B15" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>66</v>
+      <c r="A16" s="29" t="s">
+        <v>53</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>62</v>
+      <c r="B16" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
+      <c r="A17" s="28" t="s">
+        <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>43</v>
+      <c r="B17" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
+      <c r="A18" s="29" t="s">
+        <v>11</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>42</v>
+      <c r="B18" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="5">
         <v>30000</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>30</v>
+      <c r="A19" s="28" t="s">
+        <v>26</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>44</v>
+      <c r="B19" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <v>8000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>29</v>
+      <c r="A20" s="29" t="s">
+        <v>64</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>41</v>
+      <c r="B20" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="5">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>28</v>
+      <c r="A21" s="28" t="s">
+        <v>66</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>63</v>
+      <c r="B21" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="5">
         <v>9000</v>
@@ -30384,8 +30375,9 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Talonario precios (actualizado).xlsx
+++ b/Talonario precios (actualizado).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ultratech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A785BC0-DA76-4077-85E4-491E69BCBA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1018BC-28BF-46A6-A76B-9746BB43C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,12 +122,6 @@
     <t>(Limpieza profunda de archivos no deseados y malwares, optimización del sistema, actualización de drivers y software esenciales para mejorar el rendimiento y seguridad del equipo, utilizando herramientas especializadas como AdwCleaner, Glary Utilities y Driver Booster)</t>
   </si>
   <si>
-    <t>(Discos, procesadores, memorias RAM, baterías etc.)</t>
-  </si>
-  <si>
-    <t>(Windows 10, drivers al día, Chrome)</t>
-  </si>
-  <si>
     <t>(Limpieza completa de disco y formato de disco a NTFS)</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>Compra e instalación de disco duro y reinstalación completa.</t>
   </si>
   <si>
-    <t>Compra e instalación de disco duro, reinstalación completa (a disco nuevo) y formateo (a disco antiguo para ser usado como disco duro externo).</t>
-  </si>
-  <si>
     <t>Información de disco dañado recuperada.</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
   </si>
   <si>
     <t>Nombre de Servicio</t>
-  </si>
-  <si>
-    <t>(Drivers al día, Navegador Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</t>
   </si>
   <si>
     <t>(Respaldos hasta 90gb)</t>
@@ -247,6 +235,18 @@
   <si>
     <t>Información de disco dañado efectuada, pero no recuperada .</t>
   </si>
+  <si>
+    <t>(Sistema Operativo Windows 10/11, Drivers al día, Navegador Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</t>
+  </si>
+  <si>
+    <t>(Sistema Operativo Windows 10/11, Drivers basicos, Navegador Chrome)</t>
+  </si>
+  <si>
+    <t>(Instalacion de: Discos, procesadores, memorias RAM, baterías etc.)</t>
+  </si>
+  <si>
+    <t>Compra e instalación de disco duro, reinstalación completa (a disco nuevo), respaldo de informacion y formateo (a disco antiguo para ser usado como disco duro externo).</t>
+  </si>
 </sst>
 </file>
 
@@ -267,26 +267,31 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF9966FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -347,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -424,12 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -438,6 +437,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1006,9 +1014,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1031,7 +1039,7 @@
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="24">
@@ -1063,7 +1071,7 @@
       <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="24">
@@ -1096,8 +1104,8 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>39</v>
+      <c r="A4" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="24">
         <f>'Valores unitarios'!C8</f>
@@ -1129,8 +1137,8 @@
       <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>40</v>
+      <c r="A5" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="24">
         <f>'Valores unitarios'!C4+'Valores unitarios'!C8</f>
@@ -1162,8 +1170,8 @@
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>48</v>
+      <c r="A6" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="24">
         <f>'Valores unitarios'!C4+'Valores unitarios'!C5+'Valores unitarios'!C6</f>
@@ -1195,8 +1203,8 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>50</v>
+      <c r="A7" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="24">
         <f>'Valores unitarios'!C8+'Valores unitarios'!C5+'Valores unitarios'!C6</f>
@@ -1228,8 +1236,8 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>49</v>
+      <c r="A8" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="24">
         <f>'Valores unitarios'!C4+'Valores unitarios'!C5+'Valores unitarios'!C6+'Valores unitarios'!C8</f>
@@ -1261,7 +1269,7 @@
       <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -1293,8 +1301,8 @@
       <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>36</v>
+      <c r="A10" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="24">
         <f>'Valores unitarios'!C5+'Valores unitarios'!C9</f>
@@ -1326,8 +1334,8 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>37</v>
+      <c r="A11" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="24">
         <f>'Valores unitarios'!C5+'Valores unitarios'!C9+'Valores unitarios'!C7</f>
@@ -1359,8 +1367,8 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>38</v>
+      <c r="A12" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="24">
         <f>'Valores unitarios'!C5+'Valores unitarios'!C9+'Valores unitarios'!C8</f>
@@ -1392,7 +1400,7 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1424,7 +1432,7 @@
       <c r="AA13" s="6"/>
     </row>
     <row r="14" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="24" t="str">
@@ -1457,8 +1465,8 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>68</v>
+      <c r="A15" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="B15" s="24">
         <f>'Valores unitarios'!C11</f>
@@ -1490,7 +1498,7 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -1522,8 +1530,8 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>41</v>
+      <c r="A17" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="24">
         <f>'Valores unitarios'!C12</f>
@@ -1555,7 +1563,7 @@
       <c r="AA17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="24">
@@ -1588,8 +1596,8 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>42</v>
+      <c r="A19" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="24">
         <f>'Valores unitarios'!C12+'Valores unitarios'!C13</f>
@@ -1621,8 +1629,8 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>43</v>
+      <c r="A20" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="24">
         <f>'Valores unitarios'!C12+'Valores unitarios'!C13+'Valores unitarios'!C8</f>
@@ -1653,9 +1661,9 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>44</v>
+    <row r="21" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="24">
         <f>'Valores unitarios'!C12+'Valores unitarios'!C13+'Valores unitarios'!C8+'Valores unitarios'!C9</f>
@@ -1687,7 +1695,7 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="24">
@@ -1720,7 +1728,7 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -1752,8 +1760,8 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>51</v>
+      <c r="A24" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="24" t="str">
         <f>'Valores unitarios'!C15</f>
@@ -1785,8 +1793,8 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>52</v>
+      <c r="A25" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="24">
         <f>'Valores unitarios'!C16</f>
@@ -1818,8 +1826,8 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>69</v>
+      <c r="A26" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="24">
         <f>'Valores unitarios'!C17</f>
@@ -1851,8 +1859,8 @@
       <c r="AA26" s="6"/>
     </row>
     <row r="27" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>45</v>
+      <c r="A27" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="B27" s="24">
         <f>'Valores unitarios'!C18</f>
@@ -1884,8 +1892,8 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>46</v>
+      <c r="A28" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <f>'Valores unitarios'!C19</f>
@@ -1917,8 +1925,8 @@
       <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>64</v>
+      <c r="A29" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="24">
         <f>'Valores unitarios'!C20</f>
@@ -1950,8 +1958,8 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>66</v>
+      <c r="A30" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="B30" s="24">
         <f>'Valores unitarios'!C21</f>
@@ -29926,7 +29934,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29937,10 +29945,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.2">
@@ -29980,7 +29988,7 @@
       </c>
       <c r="B5" s="13" t="str">
         <f>'Valores unitarios'!B7</f>
-        <v>(Windows 10, drivers al día, Chrome)</v>
+        <v>(Sistema Operativo Windows 10/11, Drivers basicos, Navegador Chrome)</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
@@ -29988,9 +29996,9 @@
         <f>'Valores unitarios'!A8</f>
         <v>Re/Instalación completa</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="29" t="str">
         <f>'Valores unitarios'!B8</f>
-        <v>(Drivers al día, Navegador Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</v>
+        <v>(Sistema Operativo Windows 10/11, Drivers al día, Navegador Chrome, Gestor Documentos Office (2013-2016-2019-2021), Antivirus Avast, (Des)Compresor 7 zip, lector de pdf Adobe, y programas a elección)</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -30040,7 +30048,7 @@
       </c>
       <c r="B11" s="13" t="str">
         <f>'Valores unitarios'!B13</f>
-        <v>(Discos, procesadores, memorias RAM, baterías etc.)</v>
+        <v>(Instalacion de: Discos, procesadores, memorias RAM, baterías etc.)</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -30132,8 +30140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653371A9-33A1-4761-AEB2-5622F7EC45A0}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30144,15 +30152,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>3</v>
@@ -30162,21 +30170,21 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>60</v>
+      <c r="B3" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="5">
@@ -30184,10 +30192,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5">
@@ -30195,176 +30203,176 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>29</v>
+      <c r="B7" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="5">
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>57</v>
+      <c r="B8" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>30</v>
+      <c r="B9" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="5">
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>32</v>
+      <c r="B10" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>31</v>
+      <c r="B11" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="5">
         <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>61</v>
+      <c r="B12" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="5">
         <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>28</v>
+      <c r="B13" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>62</v>
+      <c r="A14" s="27" t="s">
+        <v>58</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>63</v>
+      <c r="B14" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="5">
         <v>30000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>53</v>
+      <c r="A16" s="27" t="s">
+        <v>50</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>59</v>
+      <c r="B16" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>34</v>
+      <c r="B17" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>33</v>
+      <c r="B18" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="5">
         <v>30000</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>35</v>
+      <c r="B19" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <v>8000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>64</v>
+      <c r="A20" s="27" t="s">
+        <v>60</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>65</v>
+      <c r="B20" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="5">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>66</v>
+      <c r="A21" s="26" t="s">
+        <v>62</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>67</v>
+      <c r="B21" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="5">
         <v>9000</v>
